--- a/refreshed_daily_cases.xlsx
+++ b/refreshed_daily_cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6660" tabRatio="728"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="728"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">UTLAs!$A$8:$X$159</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1112,12 +1112,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="??,??0"/>
     <numFmt numFmtId="165" formatCode="?,???,??0"/>
     <numFmt numFmtId="166" formatCode="???,??0"/>
     <numFmt numFmtId="167" formatCode="???,??0;;??,???\-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1244,13 +1245,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1318,7 +1320,8 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1329,7 +1332,8 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Comma" xfId="4" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1647,9 +1651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1698,7 +1700,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
@@ -2455,6 +2457,17 @@
         <v>33718</v>
       </c>
     </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="26">
+        <v>43924</v>
+      </c>
+      <c r="B73" s="27">
+        <v>4450</v>
+      </c>
+      <c r="C73" s="27">
+        <v>38168</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2462,7 +2475,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -2512,13 +2525,13 @@
       <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
@@ -2944,6 +2957,31 @@
       <c r="G32" s="25">
         <v>30</v>
       </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="16">
+        <v>43924</v>
+      </c>
+      <c r="B33" s="25">
+        <v>684</v>
+      </c>
+      <c r="C33" s="25">
+        <v>3605</v>
+      </c>
+      <c r="D33" s="25">
+        <v>3302</v>
+      </c>
+      <c r="E33" s="25">
+        <v>126</v>
+      </c>
+      <c r="F33" s="25">
+        <v>141</v>
+      </c>
+      <c r="G33" s="25">
+        <v>36</v>
+      </c>
+      <c r="H33" s="23"/>
+      <c r="I33" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2955,7 +2993,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA13"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -2969,46 +3007,46 @@
     <col min="3" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.7109375" customWidth="1"/>
     <col min="22" max="24" width="10.7109375" style="23" customWidth="1"/>
-    <col min="25" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>325</v>
       </c>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>324</v>
       </c>
       <c r="B4" s="11"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>326</v>
       </c>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>327</v>
       </c>
       <c r="B6" s="11"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -3090,8 +3128,11 @@
       <c r="AA8" s="3">
         <v>43923</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB8" s="3">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
@@ -3173,8 +3214,11 @@
       <c r="AA9" s="8">
         <v>28221</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB9" s="29">
+        <v>31797</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
@@ -3254,8 +3298,11 @@
       <c r="AA10" s="8">
         <v>2602</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB10" s="8">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
@@ -3335,8 +3382,11 @@
       <c r="AA11" s="8">
         <v>2121</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB11" s="8">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>6</v>
       </c>
@@ -3416,8 +3466,11 @@
       <c r="AA12" s="8">
         <v>774</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB12" s="8">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>8</v>
@@ -3494,6 +3547,9 @@
       </c>
       <c r="AA13" s="4">
         <v>33718</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>38168</v>
       </c>
     </row>
   </sheetData>
@@ -3507,7 +3563,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA17"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -3521,42 +3577,42 @@
     <col min="3" max="20" width="10.7109375" customWidth="1"/>
     <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="24" width="10.7109375" style="23" customWidth="1"/>
-    <col min="25" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>325</v>
       </c>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>333</v>
       </c>
       <c r="B4" s="11"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>328</v>
       </c>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>327</v>
       </c>
       <c r="B6" s="11"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -3638,8 +3694,11 @@
       <c r="AA8" s="3">
         <v>43923</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB8" s="3">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
@@ -3719,8 +3778,11 @@
       <c r="AA9" s="6">
         <v>1022</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB9" s="6">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
@@ -3802,8 +3864,11 @@
       <c r="AA10" s="8">
         <v>9291</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB10" s="29">
+        <v>10247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
@@ -3885,8 +3950,11 @@
       <c r="AA11" s="8">
         <v>3392</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB11" s="29">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
@@ -3968,8 +4036,11 @@
       <c r="AA12" s="8">
         <v>1254</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB12" s="29">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -4051,8 +4122,11 @@
       <c r="AA13" s="8">
         <v>2233</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB13" s="29">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
@@ -4134,8 +4208,11 @@
       <c r="AA14" s="8">
         <v>4694</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB14" s="29">
+        <v>5537</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
@@ -4217,8 +4294,11 @@
       <c r="AA15" s="8">
         <v>3269</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB15" s="29">
+        <v>3823</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>19</v>
       </c>
@@ -4300,8 +4380,11 @@
       <c r="AA16" s="8">
         <v>3066</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB16" s="29">
+        <v>3537</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
@@ -4382,6 +4465,9 @@
       </c>
       <c r="AA17" s="4">
         <v>28221</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>31797</v>
       </c>
     </row>
   </sheetData>
@@ -4394,7 +4480,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB159"/>
+  <dimension ref="A1:AB160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
@@ -4409,7 +4495,7 @@
     <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="21" width="10.7109375" customWidth="1"/>
     <col min="22" max="24" width="10.7109375" style="23" customWidth="1"/>
-    <col min="25" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
@@ -4526,6 +4612,9 @@
       <c r="AA8" s="3">
         <v>43923</v>
       </c>
+      <c r="AB8" s="3">
+        <v>43924</v>
+      </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -4607,6 +4696,9 @@
       <c r="AA9" s="6">
         <v>1022</v>
       </c>
+      <c r="AB9" s="6">
+        <v>1151</v>
+      </c>
     </row>
     <row r="10" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -4690,7 +4782,9 @@
       <c r="AA10" s="8">
         <v>17</v>
       </c>
-      <c r="AB10" s="29"/>
+      <c r="AB10" s="8">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -4774,6 +4868,9 @@
       <c r="AA11" s="8">
         <v>74</v>
       </c>
+      <c r="AB11" s="8">
+        <v>92</v>
+      </c>
     </row>
     <row r="12" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -4857,6 +4954,9 @@
       <c r="AA12" s="8">
         <v>55</v>
       </c>
+      <c r="AB12" s="8">
+        <v>64</v>
+      </c>
     </row>
     <row r="13" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -4940,6 +5040,9 @@
       <c r="AA13" s="8">
         <v>70</v>
       </c>
+      <c r="AB13" s="8">
+        <v>77</v>
+      </c>
     </row>
     <row r="14" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
@@ -5023,6 +5126,9 @@
       <c r="AA14" s="8">
         <v>30</v>
       </c>
+      <c r="AB14" s="8">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -5106,6 +5212,9 @@
       <c r="AA15" s="8">
         <v>41</v>
       </c>
+      <c r="AB15" s="8">
+        <v>51</v>
+      </c>
     </row>
     <row r="16" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -5189,8 +5298,11 @@
       <c r="AA16" s="8">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB16" s="8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>304</v>
       </c>
@@ -5272,8 +5384,11 @@
       <c r="AA17" s="8">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB17" s="8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>282</v>
       </c>
@@ -5355,8 +5470,11 @@
       <c r="AA18" s="8">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB18" s="8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>308</v>
       </c>
@@ -5438,8 +5556,11 @@
       <c r="AA19" s="8">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB19" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>180</v>
       </c>
@@ -5521,8 +5642,11 @@
       <c r="AA20" s="8">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB20" s="8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>318</v>
       </c>
@@ -5604,8 +5728,11 @@
       <c r="AA21" s="8">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB21" s="8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>310</v>
       </c>
@@ -5687,8 +5814,11 @@
       <c r="AA22" s="8">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB22" s="8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>244</v>
       </c>
@@ -5770,8 +5900,11 @@
       <c r="AA23" s="8">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB23" s="8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>196</v>
       </c>
@@ -5853,8 +5986,11 @@
       <c r="AA24" s="8">
         <v>167</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB24" s="8">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>238</v>
       </c>
@@ -5936,8 +6072,11 @@
       <c r="AA25" s="8">
         <v>107</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB25" s="8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>320</v>
       </c>
@@ -6019,8 +6158,11 @@
       <c r="AA26" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB26" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>144</v>
       </c>
@@ -6102,8 +6244,11 @@
       <c r="AA27" s="8">
         <v>125</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB27" s="8">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>274</v>
       </c>
@@ -6185,8 +6330,11 @@
       <c r="AA28" s="8">
         <v>47</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB28" s="8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>322</v>
       </c>
@@ -6268,8 +6416,11 @@
       <c r="AA29" s="8">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB29" s="8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>288</v>
       </c>
@@ -6351,8 +6502,11 @@
       <c r="AA30" s="8">
         <v>61</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB30" s="8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>246</v>
       </c>
@@ -6434,8 +6588,11 @@
       <c r="AA31" s="8">
         <v>52</v>
       </c>
-    </row>
-    <row r="32" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB31" s="8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>166</v>
       </c>
@@ -6517,8 +6674,11 @@
       <c r="AA32" s="8">
         <v>137</v>
       </c>
-    </row>
-    <row r="33" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB32" s="8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>256</v>
       </c>
@@ -6600,8 +6760,11 @@
       <c r="AA33" s="8">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB33" s="8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>160</v>
       </c>
@@ -6683,8 +6846,11 @@
       <c r="AA34" s="8">
         <v>91</v>
       </c>
-    </row>
-    <row r="35" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB34" s="8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>216</v>
       </c>
@@ -6766,8 +6932,11 @@
       <c r="AA35" s="8">
         <v>60</v>
       </c>
-    </row>
-    <row r="36" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB35" s="8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>202</v>
       </c>
@@ -6849,8 +7018,11 @@
       <c r="AA36" s="8">
         <v>49</v>
       </c>
-    </row>
-    <row r="37" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB36" s="8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>250</v>
       </c>
@@ -6932,8 +7104,11 @@
       <c r="AA37" s="8">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB37" s="8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>294</v>
       </c>
@@ -7015,8 +7190,11 @@
       <c r="AA38" s="8">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB38" s="8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>276</v>
       </c>
@@ -7098,8 +7276,11 @@
       <c r="AA39" s="8">
         <v>115</v>
       </c>
-    </row>
-    <row r="40" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB39" s="8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>262</v>
       </c>
@@ -7181,8 +7362,11 @@
       <c r="AA40" s="8">
         <v>71</v>
       </c>
-    </row>
-    <row r="41" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB40" s="8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>268</v>
       </c>
@@ -7264,8 +7448,11 @@
       <c r="AA41" s="8">
         <v>79</v>
       </c>
-    </row>
-    <row r="42" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB41" s="8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>198</v>
       </c>
@@ -7347,8 +7534,11 @@
       <c r="AA42" s="8">
         <v>110</v>
       </c>
-    </row>
-    <row r="43" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB42" s="8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>270</v>
       </c>
@@ -7430,8 +7620,11 @@
       <c r="AA43" s="8">
         <v>36</v>
       </c>
-    </row>
-    <row r="44" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB43" s="8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>280</v>
       </c>
@@ -7513,8 +7706,11 @@
       <c r="AA44" s="8">
         <v>66</v>
       </c>
-    </row>
-    <row r="45" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB44" s="8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>218</v>
       </c>
@@ -7596,8 +7792,11 @@
       <c r="AA45" s="8">
         <v>67</v>
       </c>
-    </row>
-    <row r="46" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB45" s="8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>116</v>
       </c>
@@ -7679,8 +7878,11 @@
       <c r="AA46" s="8">
         <v>117</v>
       </c>
-    </row>
-    <row r="47" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB46" s="8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>150</v>
       </c>
@@ -7762,8 +7964,11 @@
       <c r="AA47" s="8">
         <v>75</v>
       </c>
-    </row>
-    <row r="48" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB47" s="8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>194</v>
       </c>
@@ -7845,8 +8050,11 @@
       <c r="AA48" s="8">
         <v>67</v>
       </c>
-    </row>
-    <row r="49" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB48" s="8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>240</v>
       </c>
@@ -7928,8 +8136,11 @@
       <c r="AA49" s="8">
         <v>127</v>
       </c>
-    </row>
-    <row r="50" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB49" s="8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>164</v>
       </c>
@@ -8011,8 +8222,11 @@
       <c r="AA50" s="8">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB50" s="8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>242</v>
       </c>
@@ -8094,8 +8308,11 @@
       <c r="AA51" s="8">
         <v>83</v>
       </c>
-    </row>
-    <row r="52" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB51" s="8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>210</v>
       </c>
@@ -8177,8 +8394,11 @@
       <c r="AA52" s="8">
         <v>105</v>
       </c>
-    </row>
-    <row r="53" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB52" s="8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>292</v>
       </c>
@@ -8260,8 +8480,11 @@
       <c r="AA53" s="8">
         <v>17</v>
       </c>
-    </row>
-    <row r="54" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB53" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>236</v>
       </c>
@@ -8343,8 +8566,11 @@
       <c r="AA54" s="8">
         <v>165</v>
       </c>
-    </row>
-    <row r="55" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB54" s="8">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>192</v>
       </c>
@@ -8426,8 +8652,11 @@
       <c r="AA55" s="8">
         <v>102</v>
       </c>
-    </row>
-    <row r="56" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB55" s="8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>212</v>
       </c>
@@ -8509,8 +8738,11 @@
       <c r="AA56" s="8">
         <v>97</v>
       </c>
-    </row>
-    <row r="57" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB56" s="8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>278</v>
       </c>
@@ -8592,8 +8824,11 @@
       <c r="AA57" s="8">
         <v>106</v>
       </c>
-    </row>
-    <row r="58" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB57" s="8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>178</v>
       </c>
@@ -8675,8 +8910,11 @@
       <c r="AA58" s="8">
         <v>114</v>
       </c>
-    </row>
-    <row r="59" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB58" s="8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>162</v>
       </c>
@@ -8758,8 +8996,11 @@
       <c r="AA59" s="8">
         <v>105</v>
       </c>
-    </row>
-    <row r="60" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB59" s="8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>302</v>
       </c>
@@ -8841,8 +9082,11 @@
       <c r="AA60" s="8">
         <v>72</v>
       </c>
-    </row>
-    <row r="61" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB60" s="8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>222</v>
       </c>
@@ -8924,8 +9168,11 @@
       <c r="AA61" s="8">
         <v>99</v>
       </c>
-    </row>
-    <row r="62" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB61" s="8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>230</v>
       </c>
@@ -9007,8 +9254,11 @@
       <c r="AA62" s="8">
         <v>119</v>
       </c>
-    </row>
-    <row r="63" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB62" s="8">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>190</v>
       </c>
@@ -9090,8 +9340,11 @@
       <c r="AA63" s="8">
         <v>58</v>
       </c>
-    </row>
-    <row r="64" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB63" s="8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>214</v>
       </c>
@@ -9173,8 +9426,11 @@
       <c r="AA64" s="8">
         <v>73</v>
       </c>
-    </row>
-    <row r="65" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB64" s="8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>188</v>
       </c>
@@ -9256,8 +9512,11 @@
       <c r="AA65" s="8">
         <v>69</v>
       </c>
-    </row>
-    <row r="66" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB65" s="8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>204</v>
       </c>
@@ -9339,8 +9598,11 @@
       <c r="AA66" s="8">
         <v>87</v>
       </c>
-    </row>
-    <row r="67" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB66" s="8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>106</v>
       </c>
@@ -9422,8 +9684,11 @@
       <c r="AA67" s="8">
         <v>195</v>
       </c>
-    </row>
-    <row r="68" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB67" s="8">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>138</v>
       </c>
@@ -9505,8 +9770,11 @@
       <c r="AA68" s="8">
         <v>125</v>
       </c>
-    </row>
-    <row r="69" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB68" s="8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>184</v>
       </c>
@@ -9588,8 +9856,11 @@
       <c r="AA69" s="8">
         <v>105</v>
       </c>
-    </row>
-    <row r="70" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB69" s="8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>182</v>
       </c>
@@ -9671,8 +9942,11 @@
       <c r="AA70" s="8">
         <v>158</v>
       </c>
-    </row>
-    <row r="71" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB70" s="8">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>146</v>
       </c>
@@ -9754,8 +10028,11 @@
       <c r="AA71" s="8">
         <v>140</v>
       </c>
-    </row>
-    <row r="72" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB71" s="8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>142</v>
       </c>
@@ -9837,8 +10114,11 @@
       <c r="AA72" s="8">
         <v>94</v>
       </c>
-    </row>
-    <row r="73" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB72" s="8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>156</v>
       </c>
@@ -9920,8 +10200,11 @@
       <c r="AA73" s="8">
         <v>126</v>
       </c>
-    </row>
-    <row r="74" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB73" s="8">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>260</v>
       </c>
@@ -10003,8 +10286,11 @@
       <c r="AA74" s="8">
         <v>91</v>
       </c>
-    </row>
-    <row r="75" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB74" s="8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>264</v>
       </c>
@@ -10086,8 +10372,11 @@
       <c r="AA75" s="8">
         <v>79</v>
       </c>
-    </row>
-    <row r="76" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB75" s="8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>154</v>
       </c>
@@ -10169,8 +10458,11 @@
       <c r="AA76" s="8">
         <v>309</v>
       </c>
-    </row>
-    <row r="77" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB76" s="8">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>298</v>
       </c>
@@ -10252,8 +10544,11 @@
       <c r="AA77" s="8">
         <v>112</v>
       </c>
-    </row>
-    <row r="78" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB77" s="8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>232</v>
       </c>
@@ -10335,8 +10630,11 @@
       <c r="AA78" s="8">
         <v>119</v>
       </c>
-    </row>
-    <row r="79" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB78" s="8">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>208</v>
       </c>
@@ -10418,8 +10716,11 @@
       <c r="AA79" s="8">
         <v>111</v>
       </c>
-    </row>
-    <row r="80" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB79" s="8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>220</v>
       </c>
@@ -10501,8 +10802,11 @@
       <c r="AA80" s="8">
         <v>134</v>
       </c>
-    </row>
-    <row r="81" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB80" s="8">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>300</v>
       </c>
@@ -10584,8 +10888,11 @@
       <c r="AA81" s="8">
         <v>95</v>
       </c>
-    </row>
-    <row r="82" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB81" s="8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>284</v>
       </c>
@@ -10667,8 +10974,11 @@
       <c r="AA82" s="8">
         <v>129</v>
       </c>
-    </row>
-    <row r="83" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB82" s="8">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>54</v>
       </c>
@@ -10750,8 +11060,11 @@
       <c r="AA83" s="8">
         <v>602</v>
       </c>
-    </row>
-    <row r="84" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB83" s="8">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>108</v>
       </c>
@@ -10833,8 +11146,11 @@
       <c r="AA84" s="8">
         <v>252</v>
       </c>
-    </row>
-    <row r="85" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB84" s="8">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>174</v>
       </c>
@@ -10916,8 +11232,11 @@
       <c r="AA85" s="8">
         <v>113</v>
       </c>
-    </row>
-    <row r="86" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB85" s="8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>296</v>
       </c>
@@ -10999,8 +11318,11 @@
       <c r="AA86" s="8">
         <v>53</v>
       </c>
-    </row>
-    <row r="87" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB86" s="8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>248</v>
       </c>
@@ -11082,8 +11404,11 @@
       <c r="AA87" s="8">
         <v>131</v>
       </c>
-    </row>
-    <row r="88" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB87" s="8">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>68</v>
       </c>
@@ -11165,8 +11490,11 @@
       <c r="AA88" s="8">
         <v>852</v>
       </c>
-    </row>
-    <row r="89" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB88" s="8">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>252</v>
       </c>
@@ -11248,8 +11576,11 @@
       <c r="AA89" s="8">
         <v>155</v>
       </c>
-    </row>
-    <row r="90" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB89" s="8">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>170</v>
       </c>
@@ -11331,8 +11662,11 @@
       <c r="AA90" s="8">
         <v>194</v>
       </c>
-    </row>
-    <row r="91" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB90" s="8">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>224</v>
       </c>
@@ -11414,8 +11748,11 @@
       <c r="AA91" s="8">
         <v>215</v>
       </c>
-    </row>
-    <row r="92" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB91" s="8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>314</v>
       </c>
@@ -11497,8 +11834,11 @@
       <c r="AA92" s="8">
         <v>141</v>
       </c>
-    </row>
-    <row r="93" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB92" s="8">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>124</v>
       </c>
@@ -11580,8 +11920,11 @@
       <c r="AA93" s="8">
         <v>231</v>
       </c>
-    </row>
-    <row r="94" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB93" s="8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>92</v>
       </c>
@@ -11663,8 +12006,11 @@
       <c r="AA94" s="8">
         <v>222</v>
       </c>
-    </row>
-    <row r="95" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB94" s="8">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>228</v>
       </c>
@@ -11746,8 +12092,11 @@
       <c r="AA95" s="8">
         <v>118</v>
       </c>
-    </row>
-    <row r="96" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB95" s="8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>272</v>
       </c>
@@ -11829,8 +12178,11 @@
       <c r="AA96" s="8">
         <v>60</v>
       </c>
-    </row>
-    <row r="97" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB96" s="8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>266</v>
       </c>
@@ -11912,8 +12264,11 @@
       <c r="AA97" s="8">
         <v>114</v>
       </c>
-    </row>
-    <row r="98" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB97" s="8">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>130</v>
       </c>
@@ -11995,8 +12350,11 @@
       <c r="AA98" s="8">
         <v>203</v>
       </c>
-    </row>
-    <row r="99" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB98" s="8">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>234</v>
       </c>
@@ -12078,8 +12436,11 @@
       <c r="AA99" s="8">
         <v>95</v>
       </c>
-    </row>
-    <row r="100" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB99" s="8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>306</v>
       </c>
@@ -12161,8 +12522,11 @@
       <c r="AA100" s="8">
         <v>95</v>
       </c>
-    </row>
-    <row r="101" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB100" s="8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>112</v>
       </c>
@@ -12244,8 +12608,11 @@
       <c r="AA101" s="8">
         <v>141</v>
       </c>
-    </row>
-    <row r="102" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB101" s="8">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>96</v>
       </c>
@@ -12327,8 +12694,11 @@
       <c r="AA102" s="8">
         <v>510</v>
       </c>
-    </row>
-    <row r="103" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB102" s="8">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>104</v>
       </c>
@@ -12410,8 +12780,11 @@
       <c r="AA103" s="8">
         <v>190</v>
       </c>
-    </row>
-    <row r="104" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB103" s="8">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>36</v>
       </c>
@@ -12493,8 +12866,11 @@
       <c r="AA104" s="8">
         <v>559</v>
       </c>
-    </row>
-    <row r="105" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB104" s="8">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>52</v>
       </c>
@@ -12576,8 +12952,11 @@
       <c r="AA105" s="8">
         <v>366</v>
       </c>
-    </row>
-    <row r="106" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB105" s="8">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>64</v>
       </c>
@@ -12659,8 +13038,11 @@
       <c r="AA106" s="8">
         <v>225</v>
       </c>
-    </row>
-    <row r="107" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB106" s="8">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>46</v>
       </c>
@@ -12742,8 +13124,11 @@
       <c r="AA107" s="8">
         <v>437</v>
       </c>
-    </row>
-    <row r="108" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB107" s="8">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>42</v>
       </c>
@@ -12825,8 +13210,11 @@
       <c r="AA108" s="8">
         <v>385</v>
       </c>
-    </row>
-    <row r="109" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB108" s="8">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>84</v>
       </c>
@@ -12908,8 +13296,11 @@
       <c r="AA109" s="8">
         <v>264</v>
       </c>
-    </row>
-    <row r="110" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB109" s="8">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>72</v>
       </c>
@@ -12991,8 +13382,11 @@
       <c r="AA110" s="8">
         <v>247</v>
       </c>
-    </row>
-    <row r="111" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB110" s="8">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>78</v>
       </c>
@@ -13074,8 +13468,11 @@
       <c r="AA111" s="8">
         <v>266</v>
       </c>
-    </row>
-    <row r="112" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB111" s="8">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>94</v>
       </c>
@@ -13157,8 +13554,11 @@
       <c r="AA112" s="8">
         <v>188</v>
       </c>
-    </row>
-    <row r="113" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB112" s="8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>80</v>
       </c>
@@ -13240,8 +13640,11 @@
       <c r="AA113" s="8">
         <v>211</v>
       </c>
-    </row>
-    <row r="114" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB113" s="8">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>40</v>
       </c>
@@ -13323,8 +13726,11 @@
       <c r="AA114" s="8">
         <v>378</v>
       </c>
-    </row>
-    <row r="115" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB114" s="8">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>134</v>
       </c>
@@ -13406,8 +13812,11 @@
       <c r="AA115" s="8">
         <v>142</v>
       </c>
-    </row>
-    <row r="116" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB115" s="8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>86</v>
       </c>
@@ -13489,8 +13898,11 @@
       <c r="AA116" s="8">
         <v>250</v>
       </c>
-    </row>
-    <row r="117" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB116" s="8">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>88</v>
       </c>
@@ -13572,8 +13984,11 @@
       <c r="AA117" s="8">
         <v>234</v>
       </c>
-    </row>
-    <row r="118" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB117" s="8">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>66</v>
       </c>
@@ -13655,8 +14070,11 @@
       <c r="AA118" s="8">
         <v>188</v>
       </c>
-    </row>
-    <row r="119" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB118" s="8">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>38</v>
       </c>
@@ -13738,8 +14156,11 @@
       <c r="AA119" s="8">
         <v>208</v>
       </c>
-    </row>
-    <row r="120" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB119" s="8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>136</v>
       </c>
@@ -13821,8 +14242,11 @@
       <c r="AA120" s="8">
         <v>127</v>
       </c>
-    </row>
-    <row r="121" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB120" s="8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>30</v>
       </c>
@@ -13904,8 +14328,11 @@
       <c r="AA121" s="8">
         <v>508</v>
       </c>
-    </row>
-    <row r="122" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB121" s="8">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>56</v>
       </c>
@@ -13987,8 +14414,11 @@
       <c r="AA122" s="8">
         <v>346</v>
       </c>
-    </row>
-    <row r="123" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB122" s="8">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>60</v>
       </c>
@@ -14070,8 +14500,11 @@
       <c r="AA123" s="8">
         <v>235</v>
       </c>
-    </row>
-    <row r="124" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB123" s="8">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>76</v>
       </c>
@@ -14153,8 +14586,11 @@
       <c r="AA124" s="8">
         <v>370</v>
       </c>
-    </row>
-    <row r="125" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB124" s="8">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>110</v>
       </c>
@@ -14236,8 +14672,11 @@
       <c r="AA125" s="8">
         <v>212</v>
       </c>
-    </row>
-    <row r="126" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB125" s="8">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="126" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>158</v>
       </c>
@@ -14319,8 +14758,11 @@
       <c r="AA126" s="8">
         <v>155</v>
       </c>
-    </row>
-    <row r="127" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB126" s="8">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>28</v>
       </c>
@@ -14402,8 +14844,11 @@
       <c r="AA127" s="8">
         <v>516</v>
       </c>
-    </row>
-    <row r="128" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB127" s="8">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="128" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>140</v>
       </c>
@@ -14485,8 +14930,11 @@
       <c r="AA128" s="8">
         <v>176</v>
       </c>
-    </row>
-    <row r="129" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB128" s="8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="129" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>74</v>
       </c>
@@ -14568,8 +15016,11 @@
       <c r="AA129" s="8">
         <v>259</v>
       </c>
-    </row>
-    <row r="130" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB129" s="8">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="130" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>120</v>
       </c>
@@ -14651,8 +15102,11 @@
       <c r="AA130" s="8">
         <v>290</v>
       </c>
-    </row>
-    <row r="131" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB130" s="8">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>34</v>
       </c>
@@ -14734,8 +15188,11 @@
       <c r="AA131" s="8">
         <v>397</v>
       </c>
-    </row>
-    <row r="132" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB131" s="8">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="132" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>32</v>
       </c>
@@ -14817,8 +15274,11 @@
       <c r="AA132" s="8">
         <v>311</v>
       </c>
-    </row>
-    <row r="133" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB132" s="8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="133" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>58</v>
       </c>
@@ -14900,8 +15360,11 @@
       <c r="AA133" s="8">
         <v>212</v>
       </c>
-    </row>
-    <row r="134" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB133" s="8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="134" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>132</v>
       </c>
@@ -14983,8 +15446,11 @@
       <c r="AA134" s="8">
         <v>166</v>
       </c>
-    </row>
-    <row r="135" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB134" s="8">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="135" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>62</v>
       </c>
@@ -15066,8 +15532,11 @@
       <c r="AA135" s="8">
         <v>512</v>
       </c>
-    </row>
-    <row r="136" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB135" s="8">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="136" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>50</v>
       </c>
@@ -15149,8 +15618,11 @@
       <c r="AA136" s="8">
         <v>342</v>
       </c>
-    </row>
-    <row r="137" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB136" s="8">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="137" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>98</v>
       </c>
@@ -15232,8 +15704,11 @@
       <c r="AA137" s="8">
         <v>147</v>
       </c>
-    </row>
-    <row r="138" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB137" s="8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="138" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>206</v>
       </c>
@@ -15315,8 +15790,11 @@
       <c r="AA138" s="8">
         <v>95</v>
       </c>
-    </row>
-    <row r="139" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB138" s="8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="139" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>82</v>
       </c>
@@ -15398,8 +15876,11 @@
       <c r="AA139" s="8">
         <v>517</v>
       </c>
-    </row>
-    <row r="140" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB139" s="8">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="140" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>128</v>
       </c>
@@ -15481,8 +15962,11 @@
       <c r="AA140" s="8">
         <v>208</v>
       </c>
-    </row>
-    <row r="141" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB140" s="8">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="141" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>26</v>
       </c>
@@ -15564,8 +16048,11 @@
       <c r="AA141" s="8">
         <v>699</v>
       </c>
-    </row>
-    <row r="142" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB141" s="8">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="142" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>44</v>
       </c>
@@ -15647,8 +16134,11 @@
       <c r="AA142" s="8">
         <v>582</v>
       </c>
-    </row>
-    <row r="143" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB142" s="8">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="143" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>100</v>
       </c>
@@ -15730,8 +16220,11 @@
       <c r="AA143" s="8">
         <v>531</v>
       </c>
-    </row>
-    <row r="144" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB143" s="8">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="144" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>102</v>
       </c>
@@ -15813,8 +16306,11 @@
       <c r="AA144" s="8">
         <v>463</v>
       </c>
-    </row>
-    <row r="145" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB144" s="8">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="145" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>118</v>
       </c>
@@ -15896,8 +16392,11 @@
       <c r="AA145" s="8">
         <v>201</v>
       </c>
-    </row>
-    <row r="146" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB145" s="8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="146" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>226</v>
       </c>
@@ -15979,8 +16478,11 @@
       <c r="AA146" s="8">
         <v>153</v>
       </c>
-    </row>
-    <row r="147" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB146" s="8">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="147" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>168</v>
       </c>
@@ -16062,8 +16564,11 @@
       <c r="AA147" s="8">
         <v>207</v>
       </c>
-    </row>
-    <row r="148" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB147" s="8">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="148" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>126</v>
       </c>
@@ -16145,8 +16650,11 @@
       <c r="AA148" s="8">
         <v>220</v>
       </c>
-    </row>
-    <row r="149" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB148" s="8">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="149" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>152</v>
       </c>
@@ -16228,8 +16736,11 @@
       <c r="AA149" s="8">
         <v>163</v>
       </c>
-    </row>
-    <row r="150" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB149" s="8">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="150" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>90</v>
       </c>
@@ -16311,8 +16822,11 @@
       <c r="AA150" s="8">
         <v>298</v>
       </c>
-    </row>
-    <row r="151" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB150" s="8">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="151" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>70</v>
       </c>
@@ -16394,8 +16908,11 @@
       <c r="AA151" s="8">
         <v>277</v>
       </c>
-    </row>
-    <row r="152" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB151" s="8">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="152" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>176</v>
       </c>
@@ -16477,8 +16994,11 @@
       <c r="AA152" s="8">
         <v>68</v>
       </c>
-    </row>
-    <row r="153" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB152" s="8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="153" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>114</v>
       </c>
@@ -16560,8 +17080,11 @@
       <c r="AA153" s="8">
         <v>372</v>
       </c>
-    </row>
-    <row r="154" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB153" s="8">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="154" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>148</v>
       </c>
@@ -16643,8 +17166,11 @@
       <c r="AA154" s="8">
         <v>157</v>
       </c>
-    </row>
-    <row r="155" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB154" s="8">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="155" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>48</v>
       </c>
@@ -16726,8 +17252,11 @@
       <c r="AA155" s="8">
         <v>618</v>
       </c>
-    </row>
-    <row r="156" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB155" s="8">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="156" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>172</v>
       </c>
@@ -16809,8 +17338,11 @@
       <c r="AA156" s="8">
         <v>235</v>
       </c>
-    </row>
-    <row r="157" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB156" s="8">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="157" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>122</v>
       </c>
@@ -16892,8 +17424,11 @@
       <c r="AA157" s="8">
         <v>172</v>
       </c>
-    </row>
-    <row r="158" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB157" s="8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="158" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>200</v>
       </c>
@@ -16975,8 +17510,11 @@
       <c r="AA158" s="8">
         <v>221</v>
       </c>
-    </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB158" s="8">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="159" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>0</v>
       </c>
@@ -17058,6 +17596,12 @@
       <c r="AA159" s="4">
         <v>28221</v>
       </c>
+      <c r="AB159" s="4">
+        <v>31797</v>
+      </c>
+    </row>
+    <row r="160" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB160" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/refreshed_daily_cases.xlsx
+++ b/refreshed_daily_cases.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1251,7 +1251,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1326,6 +1326,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1369,25 +1375,19 @@
       <sheetName val="SummaryStats"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1">
         <row r="2">
           <cell r="C2">
             <v>39814</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>NHSRegions Code</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1784,6 +1784,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="U23" sqref="U23"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -2572,7 +2573,15 @@
       <c r="E75" s="31"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C76" s="24"/>
+      <c r="A76" s="23">
+        <v>43927</v>
+      </c>
+      <c r="B76" s="34">
+        <v>3802</v>
+      </c>
+      <c r="C76" s="34">
+        <v>51608</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2585,6 +2594,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="U23" sqref="U23"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -2637,13 +2647,13 @@
       <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="36" t="s">
         <v>339</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
@@ -3142,6 +3152,30 @@
         <v>56</v>
       </c>
       <c r="I35" s="27"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="16">
+        <v>43927</v>
+      </c>
+      <c r="B36" s="35">
+        <v>439</v>
+      </c>
+      <c r="C36" s="35">
+        <v>5373</v>
+      </c>
+      <c r="D36" s="35">
+        <v>4897</v>
+      </c>
+      <c r="E36" s="35">
+        <v>220</v>
+      </c>
+      <c r="F36" s="35">
+        <v>193</v>
+      </c>
+      <c r="G36" s="35">
+        <v>63</v>
+      </c>
+      <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C37" s="32"/>
@@ -3156,10 +3190,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD13"/>
+  <dimension ref="A1:AE13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection activeCell="U23" sqref="U23"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -3173,46 +3208,46 @@
     <col min="21" max="21" width="10.7109375" customWidth="1"/>
     <col min="22" max="24" width="10.7109375" style="21" customWidth="1"/>
     <col min="25" max="29" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>325</v>
       </c>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>324</v>
       </c>
       <c r="B4" s="11"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>326</v>
       </c>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>327</v>
       </c>
       <c r="B6" s="11"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -3303,8 +3338,11 @@
       <c r="AD8" s="3">
         <v>43926</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE8" s="3">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
@@ -3396,8 +3434,11 @@
         <f>[1]Countries!$C$2</f>
         <v>39814</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE9" s="26">
+        <v>42990</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
@@ -3487,8 +3528,11 @@
       <c r="AD10" s="33">
         <v>3706</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE10" s="33">
+        <v>3961</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
@@ -3578,8 +3622,11 @@
       <c r="AD11" s="33">
         <v>3197</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE11" s="33">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>6</v>
       </c>
@@ -3669,8 +3716,11 @@
       <c r="AD12" s="33">
         <v>1089</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE12" s="33">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>8</v>
@@ -3752,12 +3802,13 @@
         <v>38168</v>
       </c>
       <c r="AC13" s="4">
-        <f>SUM(AC9:AC12)</f>
         <v>41903</v>
       </c>
       <c r="AD13" s="4">
-        <f>SUM(AD9:AD12)</f>
         <v>47806</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>51608</v>
       </c>
     </row>
   </sheetData>
@@ -3771,7 +3822,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD17"/>
+  <dimension ref="A1:AE17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -3787,133 +3838,66 @@
     <col min="22" max="24" width="10.7109375" style="21" customWidth="1"/>
     <col min="25" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="28" max="30" width="10.7109375" style="21" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>325</v>
       </c>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>333</v>
       </c>
       <c r="B4" s="11"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>328</v>
       </c>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>327</v>
       </c>
       <c r="B6" s="11"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="21">
-        <v>3</v>
-      </c>
-      <c r="D7" s="21">
-        <v>4</v>
-      </c>
-      <c r="E7" s="21">
-        <v>5</v>
-      </c>
-      <c r="F7" s="21">
-        <v>6</v>
-      </c>
-      <c r="G7" s="21">
-        <v>7</v>
-      </c>
-      <c r="H7" s="21">
-        <v>8</v>
-      </c>
-      <c r="I7" s="21">
-        <v>9</v>
-      </c>
-      <c r="J7" s="21">
-        <v>10</v>
-      </c>
-      <c r="K7" s="21">
-        <v>11</v>
-      </c>
-      <c r="L7" s="21">
-        <v>12</v>
-      </c>
-      <c r="M7" s="21">
-        <v>13</v>
-      </c>
-      <c r="N7" s="21">
-        <v>14</v>
-      </c>
-      <c r="O7" s="21">
-        <v>15</v>
-      </c>
-      <c r="P7" s="21">
-        <v>16</v>
-      </c>
-      <c r="Q7" s="21">
-        <v>17</v>
-      </c>
-      <c r="R7" s="21">
-        <v>18</v>
-      </c>
-      <c r="S7" s="21">
-        <v>19</v>
-      </c>
-      <c r="T7" s="21">
-        <v>20</v>
-      </c>
-      <c r="U7" s="21">
-        <v>21</v>
-      </c>
-      <c r="V7" s="21">
-        <v>22</v>
-      </c>
-      <c r="W7" s="21">
-        <v>23</v>
-      </c>
-      <c r="X7" s="21">
-        <v>24</v>
-      </c>
-      <c r="Y7" s="21">
-        <v>25</v>
-      </c>
-      <c r="Z7" s="21">
-        <v>26</v>
-      </c>
-      <c r="AA7" s="21">
-        <v>27</v>
-      </c>
-      <c r="AB7" s="21">
-        <v>28</v>
-      </c>
-      <c r="AC7" s="21">
-        <v>29</v>
-      </c>
-      <c r="AD7" s="21">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -4004,8 +3988,11 @@
       <c r="AD8" s="3">
         <v>43926</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE8" s="3">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
@@ -4094,8 +4081,11 @@
       <c r="AD9" s="6">
         <v>1575</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE9" s="6">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
@@ -4186,8 +4176,11 @@
       <c r="AD10" s="8">
         <v>11978</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE10" s="8">
+        <v>12636</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
@@ -4278,8 +4271,11 @@
       <c r="AD11" s="8">
         <v>4576</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE11" s="8">
+        <v>4897</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
@@ -4370,8 +4366,11 @@
       <c r="AD12" s="8">
         <v>1827</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE12" s="8">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -4462,8 +4461,11 @@
       <c r="AD13" s="8">
         <v>3150</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE13" s="8">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
@@ -4554,8 +4556,11 @@
       <c r="AD14" s="8">
         <v>6913</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE14" s="8">
+        <v>7385</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
@@ -4646,8 +4651,11 @@
       <c r="AD15" s="8">
         <v>4969</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE15" s="8">
+        <v>5422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>19</v>
       </c>
@@ -4738,8 +4746,11 @@
       <c r="AD16" s="8">
         <v>4826</v>
       </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE16" s="8">
+        <v>5549</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
@@ -4829,6 +4840,9 @@
       </c>
       <c r="AD17" s="4">
         <v>39814</v>
+      </c>
+      <c r="AE17" s="4">
+        <v>42990</v>
       </c>
     </row>
   </sheetData>
@@ -4841,7 +4855,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD160"/>
+  <dimension ref="A1:AE160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
@@ -4859,41 +4873,42 @@
     <col min="25" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.7109375" customWidth="1"/>
     <col min="29" max="30" width="10.7109375" style="21" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>325</v>
       </c>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>333</v>
       </c>
       <c r="B4" s="11"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>328</v>
       </c>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>327</v>
       </c>
       <c r="B6" s="11"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -4918,7 +4933,7 @@
       <c r="AA7" s="21"/>
       <c r="AB7" s="21"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -5009,8 +5024,11 @@
       <c r="AD8" s="3">
         <v>43926</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE8" s="3">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
@@ -5101,8 +5119,11 @@
       <c r="AD9" s="6">
         <v>1761</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE9" s="6">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>286</v>
       </c>
@@ -5193,8 +5214,11 @@
       <c r="AD10" s="8">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE10" s="8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>316</v>
       </c>
@@ -5285,8 +5309,11 @@
       <c r="AD11" s="8">
         <v>126</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE11" s="8">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>312</v>
       </c>
@@ -5377,8 +5404,11 @@
       <c r="AD12" s="8">
         <v>84</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE12" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>186</v>
       </c>
@@ -5469,8 +5499,11 @@
       <c r="AD13" s="8">
         <v>108</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE13" s="8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>290</v>
       </c>
@@ -5561,8 +5594,11 @@
       <c r="AD14" s="8">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE14" s="8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>254</v>
       </c>
@@ -5653,8 +5689,11 @@
       <c r="AD15" s="8">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE15" s="8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>258</v>
       </c>
@@ -5745,8 +5784,11 @@
       <c r="AD16" s="8">
         <v>122</v>
       </c>
-    </row>
-    <row r="17" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE16" s="8">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>304</v>
       </c>
@@ -5837,8 +5879,11 @@
       <c r="AD17" s="8">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE17" s="8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>282</v>
       </c>
@@ -5929,8 +5974,11 @@
       <c r="AD18" s="8">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE18" s="8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>308</v>
       </c>
@@ -6021,8 +6069,11 @@
       <c r="AD19" s="8">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE19" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>180</v>
       </c>
@@ -6113,8 +6164,11 @@
       <c r="AD20" s="8">
         <v>88</v>
       </c>
-    </row>
-    <row r="21" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE20" s="8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>318</v>
       </c>
@@ -6205,8 +6259,11 @@
       <c r="AD21" s="8">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE21" s="8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>310</v>
       </c>
@@ -6297,8 +6354,11 @@
       <c r="AD22" s="8">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE22" s="8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>244</v>
       </c>
@@ -6389,8 +6449,11 @@
       <c r="AD23" s="8">
         <v>71</v>
       </c>
-    </row>
-    <row r="24" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE23" s="8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>196</v>
       </c>
@@ -6481,8 +6544,11 @@
       <c r="AD24" s="8">
         <v>239</v>
       </c>
-    </row>
-    <row r="25" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE24" s="8">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>238</v>
       </c>
@@ -6573,8 +6639,11 @@
       <c r="AD25" s="8">
         <v>195</v>
       </c>
-    </row>
-    <row r="26" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE25" s="8">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>320</v>
       </c>
@@ -6665,8 +6734,11 @@
       <c r="AD26" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE26" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>144</v>
       </c>
@@ -6757,8 +6829,11 @@
       <c r="AD27" s="8">
         <v>191</v>
       </c>
-    </row>
-    <row r="28" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE27" s="8">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>274</v>
       </c>
@@ -6849,8 +6924,11 @@
       <c r="AD28" s="8">
         <v>62</v>
       </c>
-    </row>
-    <row r="29" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE28" s="8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>322</v>
       </c>
@@ -6941,8 +7019,11 @@
       <c r="AD29" s="8">
         <v>73</v>
       </c>
-    </row>
-    <row r="30" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE29" s="8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>288</v>
       </c>
@@ -7033,8 +7114,11 @@
       <c r="AD30" s="8">
         <v>106</v>
       </c>
-    </row>
-    <row r="31" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE30" s="8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>246</v>
       </c>
@@ -7125,8 +7209,11 @@
       <c r="AD31" s="8">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE31" s="8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>166</v>
       </c>
@@ -7217,8 +7304,11 @@
       <c r="AD32" s="8">
         <v>167</v>
       </c>
-    </row>
-    <row r="33" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE32" s="8">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>256</v>
       </c>
@@ -7309,8 +7399,11 @@
       <c r="AD33" s="8">
         <v>66</v>
       </c>
-    </row>
-    <row r="34" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE33" s="8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>160</v>
       </c>
@@ -7401,8 +7494,11 @@
       <c r="AD34" s="8">
         <v>113</v>
       </c>
-    </row>
-    <row r="35" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE34" s="8">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>216</v>
       </c>
@@ -7493,8 +7589,11 @@
       <c r="AD35" s="8">
         <v>97</v>
       </c>
-    </row>
-    <row r="36" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE35" s="8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>202</v>
       </c>
@@ -7585,8 +7684,11 @@
       <c r="AD36" s="8">
         <v>54</v>
       </c>
-    </row>
-    <row r="37" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE36" s="8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>250</v>
       </c>
@@ -7677,8 +7779,11 @@
       <c r="AD37" s="8">
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE37" s="8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>294</v>
       </c>
@@ -7769,8 +7874,11 @@
       <c r="AD38" s="8">
         <v>48</v>
       </c>
-    </row>
-    <row r="39" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE38" s="8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>276</v>
       </c>
@@ -7861,8 +7969,11 @@
       <c r="AD39" s="8">
         <v>163</v>
       </c>
-    </row>
-    <row r="40" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE39" s="8">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>262</v>
       </c>
@@ -7953,8 +8064,11 @@
       <c r="AD40" s="8">
         <v>97</v>
       </c>
-    </row>
-    <row r="41" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE40" s="8">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>268</v>
       </c>
@@ -8045,8 +8159,11 @@
       <c r="AD41" s="8">
         <v>105</v>
       </c>
-    </row>
-    <row r="42" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE41" s="8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>198</v>
       </c>
@@ -8137,8 +8254,11 @@
       <c r="AD42" s="8">
         <v>153</v>
       </c>
-    </row>
-    <row r="43" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE42" s="8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>270</v>
       </c>
@@ -8229,8 +8349,11 @@
       <c r="AD43" s="8">
         <v>57</v>
       </c>
-    </row>
-    <row r="44" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE43" s="8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>280</v>
       </c>
@@ -8321,8 +8444,11 @@
       <c r="AD44" s="8">
         <v>80</v>
       </c>
-    </row>
-    <row r="45" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE44" s="8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>218</v>
       </c>
@@ -8413,8 +8539,11 @@
       <c r="AD45" s="8">
         <v>89</v>
       </c>
-    </row>
-    <row r="46" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE45" s="8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>116</v>
       </c>
@@ -8505,8 +8634,11 @@
       <c r="AD46" s="8">
         <v>143</v>
       </c>
-    </row>
-    <row r="47" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE46" s="8">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>150</v>
       </c>
@@ -8597,8 +8729,11 @@
       <c r="AD47" s="8">
         <v>99</v>
       </c>
-    </row>
-    <row r="48" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE47" s="8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>194</v>
       </c>
@@ -8689,8 +8824,11 @@
       <c r="AD48" s="8">
         <v>101</v>
       </c>
-    </row>
-    <row r="49" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE48" s="8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>240</v>
       </c>
@@ -8781,8 +8919,11 @@
       <c r="AD49" s="8">
         <v>155</v>
       </c>
-    </row>
-    <row r="50" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE49" s="8">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>164</v>
       </c>
@@ -8873,8 +9014,11 @@
       <c r="AD50" s="8">
         <v>84</v>
       </c>
-    </row>
-    <row r="51" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE50" s="8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>242</v>
       </c>
@@ -8965,8 +9109,11 @@
       <c r="AD51" s="8">
         <v>96</v>
       </c>
-    </row>
-    <row r="52" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE51" s="8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>210</v>
       </c>
@@ -9057,8 +9204,11 @@
       <c r="AD52" s="8">
         <v>147</v>
       </c>
-    </row>
-    <row r="53" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE52" s="8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>292</v>
       </c>
@@ -9149,8 +9299,11 @@
       <c r="AD53" s="8">
         <v>32</v>
       </c>
-    </row>
-    <row r="54" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE53" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>236</v>
       </c>
@@ -9241,8 +9394,11 @@
       <c r="AD54" s="8">
         <v>260</v>
       </c>
-    </row>
-    <row r="55" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE54" s="8">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>192</v>
       </c>
@@ -9333,8 +9489,11 @@
       <c r="AD55" s="8">
         <v>171</v>
       </c>
-    </row>
-    <row r="56" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE55" s="8">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>212</v>
       </c>
@@ -9425,8 +9584,11 @@
       <c r="AD56" s="8">
         <v>167</v>
       </c>
-    </row>
-    <row r="57" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE56" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>278</v>
       </c>
@@ -9517,8 +9679,11 @@
       <c r="AD57" s="8">
         <v>143</v>
       </c>
-    </row>
-    <row r="58" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE57" s="8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>178</v>
       </c>
@@ -9609,8 +9774,11 @@
       <c r="AD58" s="8">
         <v>187</v>
       </c>
-    </row>
-    <row r="59" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE58" s="8">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>162</v>
       </c>
@@ -9701,8 +9869,11 @@
       <c r="AD59" s="8">
         <v>120</v>
       </c>
-    </row>
-    <row r="60" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE59" s="8">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>302</v>
       </c>
@@ -9793,8 +9964,11 @@
       <c r="AD60" s="8">
         <v>97</v>
       </c>
-    </row>
-    <row r="61" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE60" s="8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>222</v>
       </c>
@@ -9885,8 +10059,11 @@
       <c r="AD61" s="8">
         <v>132</v>
       </c>
-    </row>
-    <row r="62" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE61" s="8">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>230</v>
       </c>
@@ -9977,8 +10154,11 @@
       <c r="AD62" s="8">
         <v>188</v>
       </c>
-    </row>
-    <row r="63" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE62" s="8">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>190</v>
       </c>
@@ -10069,8 +10249,11 @@
       <c r="AD63" s="8">
         <v>85</v>
       </c>
-    </row>
-    <row r="64" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE63" s="8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>214</v>
       </c>
@@ -10161,8 +10344,11 @@
       <c r="AD64" s="8">
         <v>95</v>
       </c>
-    </row>
-    <row r="65" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE64" s="8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>188</v>
       </c>
@@ -10253,8 +10439,11 @@
       <c r="AD65" s="8">
         <v>133</v>
       </c>
-    </row>
-    <row r="66" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE65" s="8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>204</v>
       </c>
@@ -10345,8 +10534,11 @@
       <c r="AD66" s="8">
         <v>124</v>
       </c>
-    </row>
-    <row r="67" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE66" s="8">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>106</v>
       </c>
@@ -10437,8 +10629,11 @@
       <c r="AD67" s="8">
         <v>293</v>
       </c>
-    </row>
-    <row r="68" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE67" s="8">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>138</v>
       </c>
@@ -10529,8 +10724,11 @@
       <c r="AD68" s="8">
         <v>194</v>
       </c>
-    </row>
-    <row r="69" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE68" s="8">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>184</v>
       </c>
@@ -10621,8 +10819,11 @@
       <c r="AD69" s="8">
         <v>155</v>
       </c>
-    </row>
-    <row r="70" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE69" s="8">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>182</v>
       </c>
@@ -10713,8 +10914,11 @@
       <c r="AD70" s="8">
         <v>226</v>
       </c>
-    </row>
-    <row r="71" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE70" s="8">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>146</v>
       </c>
@@ -10805,8 +11009,11 @@
       <c r="AD71" s="8">
         <v>225</v>
       </c>
-    </row>
-    <row r="72" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE71" s="8">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>142</v>
       </c>
@@ -10897,8 +11104,11 @@
       <c r="AD72" s="8">
         <v>145</v>
       </c>
-    </row>
-    <row r="73" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE72" s="8">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>156</v>
       </c>
@@ -10989,8 +11199,11 @@
       <c r="AD73" s="8">
         <v>201</v>
       </c>
-    </row>
-    <row r="74" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE73" s="8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>260</v>
       </c>
@@ -11081,8 +11294,11 @@
       <c r="AD74" s="8">
         <v>156</v>
       </c>
-    </row>
-    <row r="75" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE74" s="8">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>264</v>
       </c>
@@ -11173,8 +11389,11 @@
       <c r="AD75" s="8">
         <v>133</v>
       </c>
-    </row>
-    <row r="76" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE75" s="8">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>154</v>
       </c>
@@ -11265,8 +11484,11 @@
       <c r="AD76" s="8">
         <v>455</v>
       </c>
-    </row>
-    <row r="77" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE76" s="8">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>298</v>
       </c>
@@ -11357,8 +11579,11 @@
       <c r="AD77" s="8">
         <v>184</v>
       </c>
-    </row>
-    <row r="78" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE77" s="8">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>232</v>
       </c>
@@ -11449,8 +11674,11 @@
       <c r="AD78" s="8">
         <v>219</v>
       </c>
-    </row>
-    <row r="79" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE78" s="8">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>208</v>
       </c>
@@ -11541,8 +11769,11 @@
       <c r="AD79" s="8">
         <v>168</v>
       </c>
-    </row>
-    <row r="80" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE79" s="8">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>220</v>
       </c>
@@ -11633,8 +11864,11 @@
       <c r="AD80" s="8">
         <v>200</v>
       </c>
-    </row>
-    <row r="81" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE80" s="8">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="81" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>300</v>
       </c>
@@ -11725,8 +11959,11 @@
       <c r="AD81" s="8">
         <v>137</v>
       </c>
-    </row>
-    <row r="82" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE81" s="8">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>284</v>
       </c>
@@ -11817,8 +12054,11 @@
       <c r="AD82" s="8">
         <v>202</v>
       </c>
-    </row>
-    <row r="83" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE82" s="8">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>54</v>
       </c>
@@ -11909,8 +12149,11 @@
       <c r="AD83" s="8">
         <v>833</v>
       </c>
-    </row>
-    <row r="84" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE83" s="8">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>108</v>
       </c>
@@ -12001,8 +12244,11 @@
       <c r="AD84" s="8">
         <v>348</v>
       </c>
-    </row>
-    <row r="85" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE84" s="8">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="85" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>174</v>
       </c>
@@ -12093,8 +12339,11 @@
       <c r="AD85" s="8">
         <v>160</v>
       </c>
-    </row>
-    <row r="86" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE85" s="8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>296</v>
       </c>
@@ -12185,8 +12434,11 @@
       <c r="AD86" s="8">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE86" s="8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>248</v>
       </c>
@@ -12277,8 +12529,11 @@
       <c r="AD87" s="8">
         <v>236</v>
       </c>
-    </row>
-    <row r="88" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE87" s="8">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>68</v>
       </c>
@@ -12369,8 +12624,11 @@
       <c r="AD88" s="8">
         <v>1246</v>
       </c>
-    </row>
-    <row r="89" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE88" s="8">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="89" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>252</v>
       </c>
@@ -12461,8 +12719,11 @@
       <c r="AD89" s="8">
         <v>246</v>
       </c>
-    </row>
-    <row r="90" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE89" s="8">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="90" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>170</v>
       </c>
@@ -12553,8 +12814,11 @@
       <c r="AD90" s="8">
         <v>283</v>
       </c>
-    </row>
-    <row r="91" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE90" s="8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="91" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>224</v>
       </c>
@@ -12645,8 +12909,11 @@
       <c r="AD91" s="8">
         <v>316</v>
       </c>
-    </row>
-    <row r="92" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE91" s="8">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="92" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>314</v>
       </c>
@@ -12737,8 +13004,11 @@
       <c r="AD92" s="8">
         <v>204</v>
       </c>
-    </row>
-    <row r="93" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE92" s="8">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="93" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>124</v>
       </c>
@@ -12829,8 +13099,11 @@
       <c r="AD93" s="8">
         <v>340</v>
       </c>
-    </row>
-    <row r="94" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE93" s="8">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="94" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>92</v>
       </c>
@@ -12921,8 +13194,11 @@
       <c r="AD94" s="8">
         <v>294</v>
       </c>
-    </row>
-    <row r="95" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE94" s="8">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="95" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>228</v>
       </c>
@@ -13013,8 +13289,11 @@
       <c r="AD95" s="8">
         <v>185</v>
       </c>
-    </row>
-    <row r="96" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE95" s="8">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="96" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>272</v>
       </c>
@@ -13105,8 +13384,11 @@
       <c r="AD96" s="8">
         <v>89</v>
       </c>
-    </row>
-    <row r="97" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE96" s="8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>266</v>
       </c>
@@ -13197,8 +13479,11 @@
       <c r="AD97" s="8">
         <v>185</v>
       </c>
-    </row>
-    <row r="98" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE97" s="8">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="98" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>130</v>
       </c>
@@ -13289,8 +13574,11 @@
       <c r="AD98" s="8">
         <v>296</v>
       </c>
-    </row>
-    <row r="99" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE98" s="8">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="99" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>234</v>
       </c>
@@ -13381,8 +13669,11 @@
       <c r="AD99" s="8">
         <v>153</v>
       </c>
-    </row>
-    <row r="100" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE99" s="8">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="100" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>306</v>
       </c>
@@ -13473,8 +13764,11 @@
       <c r="AD100" s="8">
         <v>168</v>
       </c>
-    </row>
-    <row r="101" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE100" s="8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>112</v>
       </c>
@@ -13565,8 +13859,11 @@
       <c r="AD101" s="8">
         <v>209</v>
       </c>
-    </row>
-    <row r="102" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE101" s="8">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="102" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>96</v>
       </c>
@@ -13657,8 +13954,11 @@
       <c r="AD102" s="8">
         <v>645</v>
       </c>
-    </row>
-    <row r="103" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE102" s="8">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="103" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>104</v>
       </c>
@@ -13749,8 +14049,11 @@
       <c r="AD103" s="8">
         <v>242</v>
       </c>
-    </row>
-    <row r="104" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE103" s="8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="104" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>36</v>
       </c>
@@ -13841,8 +14144,11 @@
       <c r="AD104" s="8">
         <v>728</v>
       </c>
-    </row>
-    <row r="105" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE104" s="8">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="105" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>52</v>
       </c>
@@ -13933,8 +14239,11 @@
       <c r="AD105" s="8">
         <v>489</v>
       </c>
-    </row>
-    <row r="106" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE105" s="8">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="106" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>64</v>
       </c>
@@ -14025,8 +14334,11 @@
       <c r="AD106" s="8">
         <v>289</v>
       </c>
-    </row>
-    <row r="107" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE106" s="8">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="107" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>46</v>
       </c>
@@ -14117,8 +14429,11 @@
       <c r="AD107" s="8">
         <v>558</v>
       </c>
-    </row>
-    <row r="108" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE107" s="8">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="108" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>42</v>
       </c>
@@ -14209,8 +14524,11 @@
       <c r="AD108" s="8">
         <v>489</v>
       </c>
-    </row>
-    <row r="109" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE108" s="8">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="109" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>84</v>
       </c>
@@ -14301,8 +14619,11 @@
       <c r="AD109" s="8">
         <v>333</v>
       </c>
-    </row>
-    <row r="110" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE109" s="8">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="110" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>72</v>
       </c>
@@ -14393,8 +14714,11 @@
       <c r="AD110" s="8">
         <v>318</v>
       </c>
-    </row>
-    <row r="111" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE110" s="8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="111" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>78</v>
       </c>
@@ -14485,8 +14809,11 @@
       <c r="AD111" s="8">
         <v>345</v>
       </c>
-    </row>
-    <row r="112" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE111" s="8">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="112" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>94</v>
       </c>
@@ -14577,8 +14904,11 @@
       <c r="AD112" s="8">
         <v>252</v>
       </c>
-    </row>
-    <row r="113" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE112" s="8">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="113" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>80</v>
       </c>
@@ -14669,8 +14999,11 @@
       <c r="AD113" s="8">
         <v>277</v>
       </c>
-    </row>
-    <row r="114" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE113" s="8">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="114" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>40</v>
       </c>
@@ -14761,8 +15094,11 @@
       <c r="AD114" s="8">
         <v>450</v>
       </c>
-    </row>
-    <row r="115" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE114" s="8">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="115" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>134</v>
       </c>
@@ -14853,8 +15189,11 @@
       <c r="AD115" s="8">
         <v>232</v>
       </c>
-    </row>
-    <row r="116" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE115" s="8">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="116" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>86</v>
       </c>
@@ -14945,8 +15284,11 @@
       <c r="AD116" s="8">
         <v>317</v>
       </c>
-    </row>
-    <row r="117" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE116" s="8">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="117" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>88</v>
       </c>
@@ -15037,8 +15379,11 @@
       <c r="AD117" s="8">
         <v>323</v>
       </c>
-    </row>
-    <row r="118" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE117" s="8">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="118" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>66</v>
       </c>
@@ -15129,8 +15474,11 @@
       <c r="AD118" s="8">
         <v>248</v>
       </c>
-    </row>
-    <row r="119" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE118" s="8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="119" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>38</v>
       </c>
@@ -15221,8 +15569,11 @@
       <c r="AD119" s="8">
         <v>258</v>
       </c>
-    </row>
-    <row r="120" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE119" s="8">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="120" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>136</v>
       </c>
@@ -15313,8 +15664,11 @@
       <c r="AD120" s="8">
         <v>156</v>
       </c>
-    </row>
-    <row r="121" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE120" s="8">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="121" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>30</v>
       </c>
@@ -15405,8 +15759,11 @@
       <c r="AD121" s="8">
         <v>631</v>
       </c>
-    </row>
-    <row r="122" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE121" s="8">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="122" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>56</v>
       </c>
@@ -15497,8 +15854,11 @@
       <c r="AD122" s="8">
         <v>477</v>
       </c>
-    </row>
-    <row r="123" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE122" s="8">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="123" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>60</v>
       </c>
@@ -15589,8 +15949,11 @@
       <c r="AD123" s="8">
         <v>293</v>
       </c>
-    </row>
-    <row r="124" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE123" s="8">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="124" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>76</v>
       </c>
@@ -15681,8 +16044,11 @@
       <c r="AD124" s="8">
         <v>493</v>
       </c>
-    </row>
-    <row r="125" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE124" s="8">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="125" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>110</v>
       </c>
@@ -15773,8 +16139,11 @@
       <c r="AD125" s="8">
         <v>299</v>
       </c>
-    </row>
-    <row r="126" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE125" s="8">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="126" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>158</v>
       </c>
@@ -15865,8 +16234,11 @@
       <c r="AD126" s="8">
         <v>189</v>
       </c>
-    </row>
-    <row r="127" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE126" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="127" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>28</v>
       </c>
@@ -15957,8 +16329,11 @@
       <c r="AD127" s="8">
         <v>648</v>
       </c>
-    </row>
-    <row r="128" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE127" s="8">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="128" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>140</v>
       </c>
@@ -16049,8 +16424,11 @@
       <c r="AD128" s="8">
         <v>232</v>
       </c>
-    </row>
-    <row r="129" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE128" s="8">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="129" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>74</v>
       </c>
@@ -16141,8 +16519,11 @@
       <c r="AD129" s="8">
         <v>339</v>
       </c>
-    </row>
-    <row r="130" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE129" s="8">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="130" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>120</v>
       </c>
@@ -16233,8 +16614,11 @@
       <c r="AD130" s="8">
         <v>364</v>
       </c>
-    </row>
-    <row r="131" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE130" s="8">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="131" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>34</v>
       </c>
@@ -16325,8 +16709,11 @@
       <c r="AD131" s="8">
         <v>492</v>
       </c>
-    </row>
-    <row r="132" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE131" s="8">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="132" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>32</v>
       </c>
@@ -16417,8 +16804,11 @@
       <c r="AD132" s="8">
         <v>363</v>
       </c>
-    </row>
-    <row r="133" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE132" s="8">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="133" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>58</v>
       </c>
@@ -16509,8 +16899,11 @@
       <c r="AD133" s="8">
         <v>268</v>
       </c>
-    </row>
-    <row r="134" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE133" s="8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="134" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>132</v>
       </c>
@@ -16601,8 +16994,11 @@
       <c r="AD134" s="8">
         <v>212</v>
       </c>
-    </row>
-    <row r="135" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE134" s="8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="135" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>62</v>
       </c>
@@ -16693,8 +17089,11 @@
       <c r="AD135" s="8">
         <v>698</v>
       </c>
-    </row>
-    <row r="136" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE135" s="8">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="136" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>50</v>
       </c>
@@ -16785,8 +17184,11 @@
       <c r="AD136" s="8">
         <v>452</v>
       </c>
-    </row>
-    <row r="137" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE136" s="8">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="137" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>98</v>
       </c>
@@ -16877,8 +17279,11 @@
       <c r="AD137" s="8">
         <v>207</v>
       </c>
-    </row>
-    <row r="138" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE137" s="8">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="138" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>206</v>
       </c>
@@ -16969,8 +17374,11 @@
       <c r="AD138" s="8">
         <v>155</v>
       </c>
-    </row>
-    <row r="139" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE138" s="8">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="139" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>82</v>
       </c>
@@ -17061,8 +17469,11 @@
       <c r="AD139" s="8">
         <v>792</v>
       </c>
-    </row>
-    <row r="140" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE139" s="8">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="140" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>128</v>
       </c>
@@ -17153,8 +17564,11 @@
       <c r="AD140" s="8">
         <v>281</v>
       </c>
-    </row>
-    <row r="141" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE140" s="8">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="141" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>26</v>
       </c>
@@ -17245,8 +17659,11 @@
       <c r="AD141" s="8">
         <v>876</v>
       </c>
-    </row>
-    <row r="142" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE141" s="8">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="142" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>44</v>
       </c>
@@ -17337,8 +17754,11 @@
       <c r="AD142" s="8">
         <v>833</v>
       </c>
-    </row>
-    <row r="143" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE142" s="8">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="143" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>100</v>
       </c>
@@ -17429,8 +17849,11 @@
       <c r="AD143" s="8">
         <v>755</v>
       </c>
-    </row>
-    <row r="144" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE143" s="8">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="144" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>102</v>
       </c>
@@ -17521,8 +17944,11 @@
       <c r="AD144" s="8">
         <v>726</v>
       </c>
-    </row>
-    <row r="145" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE144" s="8">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="145" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>118</v>
       </c>
@@ -17613,8 +18039,11 @@
       <c r="AD145" s="8">
         <v>311</v>
       </c>
-    </row>
-    <row r="146" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE145" s="8">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="146" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>226</v>
       </c>
@@ -17705,8 +18134,11 @@
       <c r="AD146" s="8">
         <v>252</v>
       </c>
-    </row>
-    <row r="147" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE146" s="8">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="147" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>168</v>
       </c>
@@ -17797,8 +18229,11 @@
       <c r="AD147" s="8">
         <v>279</v>
       </c>
-    </row>
-    <row r="148" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE147" s="8">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="148" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>126</v>
       </c>
@@ -17889,8 +18324,11 @@
       <c r="AD148" s="8">
         <v>343</v>
       </c>
-    </row>
-    <row r="149" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE148" s="8">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="149" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>152</v>
       </c>
@@ -17981,8 +18419,11 @@
       <c r="AD149" s="8">
         <v>243</v>
       </c>
-    </row>
-    <row r="150" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE149" s="8">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="150" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>90</v>
       </c>
@@ -18073,8 +18514,11 @@
       <c r="AD150" s="8">
         <v>413</v>
       </c>
-    </row>
-    <row r="151" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE150" s="8">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="151" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>70</v>
       </c>
@@ -18165,8 +18609,11 @@
       <c r="AD151" s="8">
         <v>411</v>
       </c>
-    </row>
-    <row r="152" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE151" s="8">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="152" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>176</v>
       </c>
@@ -18257,8 +18704,11 @@
       <c r="AD152" s="8">
         <v>99</v>
       </c>
-    </row>
-    <row r="153" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE152" s="8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="153" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>114</v>
       </c>
@@ -18349,8 +18799,11 @@
       <c r="AD153" s="8">
         <v>534</v>
       </c>
-    </row>
-    <row r="154" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE153" s="8">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="154" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>148</v>
       </c>
@@ -18441,8 +18894,11 @@
       <c r="AD154" s="8">
         <v>231</v>
       </c>
-    </row>
-    <row r="155" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE154" s="8">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="155" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>48</v>
       </c>
@@ -18533,8 +18989,11 @@
       <c r="AD155" s="8">
         <v>811</v>
       </c>
-    </row>
-    <row r="156" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE155" s="8">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="156" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>172</v>
       </c>
@@ -18625,8 +19084,11 @@
       <c r="AD156" s="8">
         <v>334</v>
       </c>
-    </row>
-    <row r="157" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE156" s="8">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="157" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>122</v>
       </c>
@@ -18717,8 +19179,11 @@
       <c r="AD157" s="8">
         <v>220</v>
       </c>
-    </row>
-    <row r="158" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE157" s="8">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="158" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>200</v>
       </c>
@@ -18809,8 +19274,11 @@
       <c r="AD158" s="8">
         <v>350</v>
       </c>
-    </row>
-    <row r="159" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE158" s="8">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="159" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>0</v>
       </c>
@@ -18901,12 +19369,14 @@
       <c r="AD159" s="4">
         <v>39814</v>
       </c>
-    </row>
-    <row r="160" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE159" s="4">
+        <v>42990</v>
+      </c>
+    </row>
+    <row r="160" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AB160" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:AD159"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/refreshed_daily_cases.xlsx
+++ b/refreshed_daily_cases.xlsx
@@ -20,10 +20,6 @@
     <sheet name="UTLAs" sheetId="3" r:id="rId6"/>
     <sheet name="Recovered patients" sheetId="6" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">UTLAs!$A$8:$AD$159</definedName>
   </definedNames>
@@ -31,6 +27,11 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1251,7 +1252,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1322,9 +1323,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1360,74 +1358,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ReadMe"/>
-      <sheetName val="Countries"/>
-      <sheetName val="UTLA"/>
-      <sheetName val="NHSRegions"/>
-      <sheetName val="PCons"/>
-      <sheetName val="DailyConfirmedCases UK"/>
-      <sheetName val="SummaryStats"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1">
-        <row r="2">
-          <cell r="C2">
-            <v>39814</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ReadMe"/>
-      <sheetName val="Countries"/>
-      <sheetName val="UTLA"/>
-      <sheetName val="NHSRegions"/>
-      <sheetName val="PCons"/>
-      <sheetName val="DailyConfirmedCases UK"/>
-      <sheetName val="SummaryStats"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="2">
-          <cell r="H2">
-            <v>3345</v>
-          </cell>
-          <cell r="J2">
-            <v>2853</v>
-          </cell>
-          <cell r="L2">
-            <v>998</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1780,7 +1710,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
@@ -2576,11 +2506,22 @@
       <c r="A76" s="23">
         <v>43927</v>
       </c>
-      <c r="B76" s="34">
+      <c r="B76" s="33">
         <v>3802</v>
       </c>
-      <c r="C76" s="34">
+      <c r="C76" s="33">
         <v>51608</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="23">
+        <v>43928</v>
+      </c>
+      <c r="B77" s="33">
+        <v>3634</v>
+      </c>
+      <c r="C77" s="33">
+        <v>55242</v>
       </c>
     </row>
   </sheetData>
@@ -2647,13 +2588,13 @@
       <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="35" t="s">
         <v>339</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
@@ -3157,28 +3098,40 @@
       <c r="A36" s="16">
         <v>43927</v>
       </c>
-      <c r="B36" s="35">
+      <c r="B36" s="34">
         <v>439</v>
       </c>
-      <c r="C36" s="35">
+      <c r="C36" s="34">
         <v>5373</v>
       </c>
-      <c r="D36" s="35">
+      <c r="D36" s="34">
         <v>4897</v>
       </c>
-      <c r="E36" s="35">
+      <c r="E36" s="34">
         <v>220</v>
       </c>
-      <c r="F36" s="35">
+      <c r="F36" s="34">
         <v>193</v>
       </c>
-      <c r="G36" s="35">
+      <c r="G36" s="34">
         <v>63</v>
       </c>
       <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="32"/>
+      <c r="A37" s="16">
+        <v>43928</v>
+      </c>
+      <c r="B37" s="34">
+        <v>786</v>
+      </c>
+      <c r="C37" s="34">
+        <v>6159</v>
+      </c>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3190,7 +3143,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE13"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -3208,46 +3161,46 @@
     <col min="21" max="21" width="10.7109375" customWidth="1"/>
     <col min="22" max="24" width="10.7109375" style="21" customWidth="1"/>
     <col min="25" max="29" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>325</v>
       </c>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>324</v>
       </c>
       <c r="B4" s="11"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>326</v>
       </c>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>327</v>
       </c>
       <c r="B6" s="11"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -3341,8 +3294,11 @@
       <c r="AE8" s="3">
         <v>43927</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF8" s="3">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
@@ -3431,14 +3387,16 @@
         <v>34707</v>
       </c>
       <c r="AD9" s="26">
-        <f>[1]Countries!$C$2</f>
         <v>39814</v>
       </c>
       <c r="AE9" s="26">
         <v>42990</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF9" s="26">
+        <v>45968</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
@@ -3522,17 +3480,17 @@
         <v>3001</v>
       </c>
       <c r="AC10" s="8">
-        <f>[2]SummaryStats!$H$2</f>
         <v>3345</v>
       </c>
-      <c r="AD10" s="33">
+      <c r="AD10" s="32">
         <v>3706</v>
       </c>
-      <c r="AE10" s="33">
+      <c r="AE10" s="32">
         <v>3961</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF10" s="32"/>
+    </row>
+    <row r="11" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
@@ -3616,17 +3574,17 @@
         <v>2466</v>
       </c>
       <c r="AC11" s="8">
-        <f>[2]SummaryStats!$J$2</f>
         <v>2853</v>
       </c>
-      <c r="AD11" s="33">
+      <c r="AD11" s="32">
         <v>3197</v>
       </c>
-      <c r="AE11" s="33">
+      <c r="AE11" s="32">
         <v>3499</v>
       </c>
-    </row>
-    <row r="12" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF11" s="32"/>
+    </row>
+    <row r="12" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>6</v>
       </c>
@@ -3710,17 +3668,17 @@
         <v>904</v>
       </c>
       <c r="AC12" s="8">
-        <f>[2]SummaryStats!$L$2</f>
         <v>998</v>
       </c>
-      <c r="AD12" s="33">
+      <c r="AD12" s="32">
         <v>1089</v>
       </c>
-      <c r="AE12" s="33">
+      <c r="AE12" s="32">
         <v>1158</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF12" s="32"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>8</v>
@@ -3809,6 +3767,10 @@
       </c>
       <c r="AE13" s="4">
         <v>51608</v>
+      </c>
+      <c r="AF13" s="4">
+        <f>SUM(AF9:AF12)</f>
+        <v>45968</v>
       </c>
     </row>
   </sheetData>
@@ -3822,7 +3784,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE17"/>
+  <dimension ref="A1:AF17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -3838,42 +3800,42 @@
     <col min="22" max="24" width="10.7109375" style="21" customWidth="1"/>
     <col min="25" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="28" max="30" width="10.7109375" style="21" customWidth="1"/>
-    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>325</v>
       </c>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>333</v>
       </c>
       <c r="B4" s="11"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>328</v>
       </c>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>327</v>
       </c>
       <c r="B6" s="11"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -3897,7 +3859,7 @@
       <c r="Z7" s="21"/>
       <c r="AA7" s="21"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -3991,8 +3953,11 @@
       <c r="AE8" s="3">
         <v>43927</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF8" s="3">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
@@ -4084,8 +4049,11 @@
       <c r="AE9" s="6">
         <v>1723</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF9" s="6">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
@@ -4179,8 +4147,11 @@
       <c r="AE10" s="8">
         <v>12636</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF10" s="8">
+        <v>13378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
@@ -4274,8 +4245,11 @@
       <c r="AE11" s="8">
         <v>4897</v>
       </c>
-    </row>
-    <row r="12" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF11" s="8">
+        <v>5539</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
@@ -4369,8 +4343,11 @@
       <c r="AE12" s="8">
         <v>1976</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF12" s="8">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -4464,8 +4441,11 @@
       <c r="AE13" s="8">
         <v>3402</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF13" s="8">
+        <v>3707</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
@@ -4559,8 +4539,11 @@
       <c r="AE14" s="8">
         <v>7385</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF14" s="8">
+        <v>7806</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
@@ -4654,8 +4637,11 @@
       <c r="AE15" s="8">
         <v>5422</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF15" s="8">
+        <v>5583</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>19</v>
       </c>
@@ -4749,8 +4735,11 @@
       <c r="AE16" s="8">
         <v>5549</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF16" s="8">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
@@ -4843,6 +4832,9 @@
       </c>
       <c r="AE17" s="4">
         <v>42990</v>
+      </c>
+      <c r="AF17" s="4">
+        <v>45968</v>
       </c>
     </row>
   </sheetData>
@@ -4855,7 +4847,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE160"/>
+  <dimension ref="A1:AF160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
@@ -4873,42 +4865,42 @@
     <col min="25" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.7109375" customWidth="1"/>
     <col min="29" max="30" width="10.7109375" style="21" customWidth="1"/>
-    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>325</v>
       </c>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>333</v>
       </c>
       <c r="B4" s="11"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>328</v>
       </c>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>327</v>
       </c>
       <c r="B6" s="11"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -4933,7 +4925,7 @@
       <c r="AA7" s="21"/>
       <c r="AB7" s="21"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -5027,8 +5019,11 @@
       <c r="AE8" s="3">
         <v>43927</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF8" s="3">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
@@ -5122,8 +5117,11 @@
       <c r="AE9" s="6">
         <v>1723</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF9" s="6">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>286</v>
       </c>
@@ -5217,8 +5215,11 @@
       <c r="AE10" s="8">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF10" s="8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>316</v>
       </c>
@@ -5312,8 +5313,11 @@
       <c r="AE11" s="8">
         <v>151</v>
       </c>
-    </row>
-    <row r="12" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF11" s="8">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>312</v>
       </c>
@@ -5407,8 +5411,11 @@
       <c r="AE12" s="8">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF12" s="8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>186</v>
       </c>
@@ -5502,8 +5509,11 @@
       <c r="AE13" s="8">
         <v>117</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF13" s="8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>290</v>
       </c>
@@ -5597,8 +5607,11 @@
       <c r="AE14" s="8">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF14" s="8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>254</v>
       </c>
@@ -5692,8 +5705,11 @@
       <c r="AE15" s="8">
         <v>95</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF15" s="8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>258</v>
       </c>
@@ -5787,8 +5803,11 @@
       <c r="AE16" s="8">
         <v>138</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF16" s="8">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>304</v>
       </c>
@@ -5882,8 +5901,11 @@
       <c r="AE17" s="8">
         <v>71</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF17" s="8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>282</v>
       </c>
@@ -5977,8 +5999,11 @@
       <c r="AE18" s="8">
         <v>72</v>
       </c>
-    </row>
-    <row r="19" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF18" s="8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>308</v>
       </c>
@@ -6072,8 +6097,11 @@
       <c r="AE19" s="8">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF19" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>180</v>
       </c>
@@ -6167,8 +6195,11 @@
       <c r="AE20" s="8">
         <v>96</v>
       </c>
-    </row>
-    <row r="21" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF20" s="8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>318</v>
       </c>
@@ -6262,8 +6293,11 @@
       <c r="AE21" s="8">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF21" s="8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>310</v>
       </c>
@@ -6357,8 +6391,11 @@
       <c r="AE22" s="8">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF22" s="8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>244</v>
       </c>
@@ -6452,8 +6489,11 @@
       <c r="AE23" s="8">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF23" s="8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>196</v>
       </c>
@@ -6547,8 +6587,11 @@
       <c r="AE24" s="8">
         <v>263</v>
       </c>
-    </row>
-    <row r="25" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF24" s="8">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>238</v>
       </c>
@@ -6642,8 +6685,11 @@
       <c r="AE25" s="8">
         <v>211</v>
       </c>
-    </row>
-    <row r="26" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF25" s="8">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>320</v>
       </c>
@@ -6737,8 +6783,11 @@
       <c r="AE26" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF26" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>144</v>
       </c>
@@ -6832,8 +6881,11 @@
       <c r="AE27" s="8">
         <v>204</v>
       </c>
-    </row>
-    <row r="28" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF27" s="8">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>274</v>
       </c>
@@ -6927,8 +6979,11 @@
       <c r="AE28" s="8">
         <v>66</v>
       </c>
-    </row>
-    <row r="29" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF28" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>322</v>
       </c>
@@ -7022,8 +7077,11 @@
       <c r="AE29" s="8">
         <v>73</v>
       </c>
-    </row>
-    <row r="30" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF29" s="8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>288</v>
       </c>
@@ -7117,8 +7175,11 @@
       <c r="AE30" s="8">
         <v>115</v>
       </c>
-    </row>
-    <row r="31" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF30" s="8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>246</v>
       </c>
@@ -7212,8 +7273,11 @@
       <c r="AE31" s="8">
         <v>66</v>
       </c>
-    </row>
-    <row r="32" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF31" s="8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>166</v>
       </c>
@@ -7307,8 +7371,11 @@
       <c r="AE32" s="8">
         <v>211</v>
       </c>
-    </row>
-    <row r="33" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF32" s="8">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>256</v>
       </c>
@@ -7402,8 +7469,11 @@
       <c r="AE33" s="8">
         <v>82</v>
       </c>
-    </row>
-    <row r="34" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF33" s="8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>160</v>
       </c>
@@ -7497,8 +7567,11 @@
       <c r="AE34" s="8">
         <v>139</v>
       </c>
-    </row>
-    <row r="35" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF34" s="8">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>216</v>
       </c>
@@ -7592,8 +7665,11 @@
       <c r="AE35" s="8">
         <v>102</v>
       </c>
-    </row>
-    <row r="36" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF35" s="8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>202</v>
       </c>
@@ -7687,8 +7763,11 @@
       <c r="AE36" s="8">
         <v>57</v>
       </c>
-    </row>
-    <row r="37" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF36" s="8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>250</v>
       </c>
@@ -7782,8 +7861,11 @@
       <c r="AE37" s="8">
         <v>74</v>
       </c>
-    </row>
-    <row r="38" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF37" s="8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>294</v>
       </c>
@@ -7877,8 +7959,11 @@
       <c r="AE38" s="8">
         <v>61</v>
       </c>
-    </row>
-    <row r="39" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF38" s="8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>276</v>
       </c>
@@ -7972,8 +8057,11 @@
       <c r="AE39" s="8">
         <v>167</v>
       </c>
-    </row>
-    <row r="40" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF39" s="8">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>262</v>
       </c>
@@ -8067,8 +8155,11 @@
       <c r="AE40" s="8">
         <v>118</v>
       </c>
-    </row>
-    <row r="41" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF40" s="8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>268</v>
       </c>
@@ -8162,8 +8253,11 @@
       <c r="AE41" s="8">
         <v>120</v>
       </c>
-    </row>
-    <row r="42" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF41" s="8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>198</v>
       </c>
@@ -8257,8 +8351,11 @@
       <c r="AE42" s="8">
         <v>153</v>
       </c>
-    </row>
-    <row r="43" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF42" s="8">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>270</v>
       </c>
@@ -8352,8 +8449,11 @@
       <c r="AE43" s="8">
         <v>69</v>
       </c>
-    </row>
-    <row r="44" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF43" s="8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>280</v>
       </c>
@@ -8447,8 +8547,11 @@
       <c r="AE44" s="8">
         <v>92</v>
       </c>
-    </row>
-    <row r="45" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF44" s="8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>218</v>
       </c>
@@ -8542,8 +8645,11 @@
       <c r="AE45" s="8">
         <v>111</v>
       </c>
-    </row>
-    <row r="46" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF45" s="8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>116</v>
       </c>
@@ -8637,8 +8743,11 @@
       <c r="AE46" s="8">
         <v>155</v>
       </c>
-    </row>
-    <row r="47" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF46" s="8">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>150</v>
       </c>
@@ -8732,8 +8841,11 @@
       <c r="AE47" s="8">
         <v>105</v>
       </c>
-    </row>
-    <row r="48" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF47" s="8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>194</v>
       </c>
@@ -8827,8 +8939,11 @@
       <c r="AE48" s="8">
         <v>114</v>
       </c>
-    </row>
-    <row r="49" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF48" s="8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>240</v>
       </c>
@@ -8922,8 +9037,11 @@
       <c r="AE49" s="8">
         <v>181</v>
       </c>
-    </row>
-    <row r="50" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF49" s="8">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>164</v>
       </c>
@@ -9017,8 +9135,11 @@
       <c r="AE50" s="8">
         <v>85</v>
       </c>
-    </row>
-    <row r="51" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF50" s="8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>242</v>
       </c>
@@ -9112,8 +9233,11 @@
       <c r="AE51" s="8">
         <v>104</v>
       </c>
-    </row>
-    <row r="52" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF51" s="8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>210</v>
       </c>
@@ -9207,8 +9331,11 @@
       <c r="AE52" s="8">
         <v>149</v>
       </c>
-    </row>
-    <row r="53" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF52" s="8">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>292</v>
       </c>
@@ -9302,8 +9429,11 @@
       <c r="AE53" s="8">
         <v>32</v>
       </c>
-    </row>
-    <row r="54" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF53" s="8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>236</v>
       </c>
@@ -9397,8 +9527,11 @@
       <c r="AE54" s="8">
         <v>292</v>
       </c>
-    </row>
-    <row r="55" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF54" s="8">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>192</v>
       </c>
@@ -9492,8 +9625,11 @@
       <c r="AE55" s="8">
         <v>196</v>
       </c>
-    </row>
-    <row r="56" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF55" s="8">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>212</v>
       </c>
@@ -9587,8 +9723,11 @@
       <c r="AE56" s="8">
         <v>200</v>
       </c>
-    </row>
-    <row r="57" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF56" s="8">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>278</v>
       </c>
@@ -9682,8 +9821,11 @@
       <c r="AE57" s="8">
         <v>143</v>
       </c>
-    </row>
-    <row r="58" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF57" s="8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>178</v>
       </c>
@@ -9777,8 +9919,11 @@
       <c r="AE58" s="8">
         <v>198</v>
       </c>
-    </row>
-    <row r="59" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF58" s="8">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>162</v>
       </c>
@@ -9872,8 +10017,11 @@
       <c r="AE59" s="8">
         <v>154</v>
       </c>
-    </row>
-    <row r="60" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF59" s="8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>302</v>
       </c>
@@ -9967,8 +10115,11 @@
       <c r="AE60" s="8">
         <v>110</v>
       </c>
-    </row>
-    <row r="61" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF60" s="8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>222</v>
       </c>
@@ -10062,8 +10213,11 @@
       <c r="AE61" s="8">
         <v>144</v>
       </c>
-    </row>
-    <row r="62" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF61" s="8">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>230</v>
       </c>
@@ -10157,8 +10311,11 @@
       <c r="AE62" s="8">
         <v>211</v>
       </c>
-    </row>
-    <row r="63" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF62" s="8">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>190</v>
       </c>
@@ -10252,8 +10409,11 @@
       <c r="AE63" s="8">
         <v>115</v>
       </c>
-    </row>
-    <row r="64" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF63" s="8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>214</v>
       </c>
@@ -10347,8 +10507,11 @@
       <c r="AE64" s="8">
         <v>126</v>
       </c>
-    </row>
-    <row r="65" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF64" s="8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>188</v>
       </c>
@@ -10442,8 +10605,11 @@
       <c r="AE65" s="8">
         <v>170</v>
       </c>
-    </row>
-    <row r="66" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF65" s="8">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>204</v>
       </c>
@@ -10537,8 +10703,11 @@
       <c r="AE66" s="8">
         <v>138</v>
       </c>
-    </row>
-    <row r="67" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF66" s="8">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>106</v>
       </c>
@@ -10632,8 +10801,11 @@
       <c r="AE67" s="8">
         <v>323</v>
       </c>
-    </row>
-    <row r="68" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF67" s="8">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>138</v>
       </c>
@@ -10727,8 +10899,11 @@
       <c r="AE68" s="8">
         <v>216</v>
       </c>
-    </row>
-    <row r="69" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF68" s="8">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>184</v>
       </c>
@@ -10822,8 +10997,11 @@
       <c r="AE69" s="8">
         <v>167</v>
       </c>
-    </row>
-    <row r="70" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF69" s="8">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="70" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>182</v>
       </c>
@@ -10917,8 +11095,11 @@
       <c r="AE70" s="8">
         <v>242</v>
       </c>
-    </row>
-    <row r="71" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF70" s="8">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>146</v>
       </c>
@@ -11012,8 +11193,11 @@
       <c r="AE71" s="8">
         <v>246</v>
       </c>
-    </row>
-    <row r="72" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF71" s="8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>142</v>
       </c>
@@ -11107,8 +11291,11 @@
       <c r="AE72" s="8">
         <v>162</v>
       </c>
-    </row>
-    <row r="73" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF72" s="8">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>156</v>
       </c>
@@ -11202,8 +11389,11 @@
       <c r="AE73" s="8">
         <v>222</v>
       </c>
-    </row>
-    <row r="74" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF73" s="8">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>260</v>
       </c>
@@ -11297,8 +11487,11 @@
       <c r="AE74" s="8">
         <v>185</v>
       </c>
-    </row>
-    <row r="75" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF74" s="8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>264</v>
       </c>
@@ -11392,8 +11585,11 @@
       <c r="AE75" s="8">
         <v>167</v>
       </c>
-    </row>
-    <row r="76" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF75" s="8">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>154</v>
       </c>
@@ -11487,8 +11683,11 @@
       <c r="AE76" s="8">
         <v>510</v>
       </c>
-    </row>
-    <row r="77" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF76" s="8">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>298</v>
       </c>
@@ -11582,8 +11781,11 @@
       <c r="AE77" s="8">
         <v>236</v>
       </c>
-    </row>
-    <row r="78" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF77" s="8">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>232</v>
       </c>
@@ -11677,8 +11879,11 @@
       <c r="AE78" s="8">
         <v>264</v>
       </c>
-    </row>
-    <row r="79" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF78" s="8">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>208</v>
       </c>
@@ -11772,8 +11977,11 @@
       <c r="AE79" s="8">
         <v>220</v>
       </c>
-    </row>
-    <row r="80" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF79" s="8">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>220</v>
       </c>
@@ -11867,8 +12075,11 @@
       <c r="AE80" s="8">
         <v>216</v>
       </c>
-    </row>
-    <row r="81" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF80" s="8">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>300</v>
       </c>
@@ -11962,8 +12173,11 @@
       <c r="AE81" s="8">
         <v>144</v>
       </c>
-    </row>
-    <row r="82" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF81" s="8">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>284</v>
       </c>
@@ -12057,8 +12271,11 @@
       <c r="AE82" s="8">
         <v>221</v>
       </c>
-    </row>
-    <row r="83" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF82" s="8">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="83" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>54</v>
       </c>
@@ -12152,8 +12369,11 @@
       <c r="AE83" s="8">
         <v>882</v>
       </c>
-    </row>
-    <row r="84" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF83" s="8">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="84" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>108</v>
       </c>
@@ -12247,8 +12467,11 @@
       <c r="AE84" s="8">
         <v>359</v>
       </c>
-    </row>
-    <row r="85" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF84" s="8">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="85" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>174</v>
       </c>
@@ -12342,8 +12565,11 @@
       <c r="AE85" s="8">
         <v>180</v>
       </c>
-    </row>
-    <row r="86" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF85" s="8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="86" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>296</v>
       </c>
@@ -12437,8 +12663,11 @@
       <c r="AE86" s="8">
         <v>98</v>
       </c>
-    </row>
-    <row r="87" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF86" s="8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>248</v>
       </c>
@@ -12532,8 +12761,11 @@
       <c r="AE87" s="8">
         <v>278</v>
       </c>
-    </row>
-    <row r="88" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF87" s="8">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="88" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>68</v>
       </c>
@@ -12627,8 +12859,11 @@
       <c r="AE88" s="8">
         <v>1287</v>
       </c>
-    </row>
-    <row r="89" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF88" s="8">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="89" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>252</v>
       </c>
@@ -12722,8 +12957,11 @@
       <c r="AE89" s="8">
         <v>263</v>
       </c>
-    </row>
-    <row r="90" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF89" s="8">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="90" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>170</v>
       </c>
@@ -12817,8 +13055,11 @@
       <c r="AE90" s="8">
         <v>296</v>
       </c>
-    </row>
-    <row r="91" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF90" s="8">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="91" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>224</v>
       </c>
@@ -12912,8 +13153,11 @@
       <c r="AE91" s="8">
         <v>353</v>
       </c>
-    </row>
-    <row r="92" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF91" s="8">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="92" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>314</v>
       </c>
@@ -13007,8 +13251,11 @@
       <c r="AE92" s="8">
         <v>215</v>
       </c>
-    </row>
-    <row r="93" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF92" s="8">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="93" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>124</v>
       </c>
@@ -13102,8 +13349,11 @@
       <c r="AE93" s="8">
         <v>359</v>
       </c>
-    </row>
-    <row r="94" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF93" s="8">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="94" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>92</v>
       </c>
@@ -13197,8 +13447,11 @@
       <c r="AE94" s="8">
         <v>304</v>
       </c>
-    </row>
-    <row r="95" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF94" s="8">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="95" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>228</v>
       </c>
@@ -13292,8 +13545,11 @@
       <c r="AE95" s="8">
         <v>204</v>
       </c>
-    </row>
-    <row r="96" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF95" s="8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="96" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>272</v>
       </c>
@@ -13387,8 +13643,11 @@
       <c r="AE96" s="8">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF96" s="8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>266</v>
       </c>
@@ -13482,8 +13741,11 @@
       <c r="AE97" s="8">
         <v>198</v>
       </c>
-    </row>
-    <row r="98" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF97" s="8">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="98" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>130</v>
       </c>
@@ -13577,8 +13839,11 @@
       <c r="AE98" s="8">
         <v>325</v>
       </c>
-    </row>
-    <row r="99" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF98" s="8">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="99" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>234</v>
       </c>
@@ -13672,8 +13937,11 @@
       <c r="AE99" s="8">
         <v>162</v>
       </c>
-    </row>
-    <row r="100" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF99" s="8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="100" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>306</v>
       </c>
@@ -13767,8 +14035,11 @@
       <c r="AE100" s="8">
         <v>180</v>
       </c>
-    </row>
-    <row r="101" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF100" s="8">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="101" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>112</v>
       </c>
@@ -13862,8 +14133,11 @@
       <c r="AE101" s="8">
         <v>211</v>
       </c>
-    </row>
-    <row r="102" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF101" s="8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="102" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>96</v>
       </c>
@@ -13957,8 +14231,11 @@
       <c r="AE102" s="8">
         <v>666</v>
       </c>
-    </row>
-    <row r="103" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF102" s="8">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="103" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>104</v>
       </c>
@@ -14052,8 +14329,11 @@
       <c r="AE103" s="8">
         <v>250</v>
       </c>
-    </row>
-    <row r="104" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF103" s="8">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="104" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>36</v>
       </c>
@@ -14147,8 +14427,11 @@
       <c r="AE104" s="8">
         <v>759</v>
       </c>
-    </row>
-    <row r="105" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF104" s="8">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="105" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>52</v>
       </c>
@@ -14242,8 +14525,11 @@
       <c r="AE105" s="8">
         <v>521</v>
       </c>
-    </row>
-    <row r="106" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF105" s="8">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="106" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>64</v>
       </c>
@@ -14337,8 +14623,11 @@
       <c r="AE106" s="8">
         <v>298</v>
       </c>
-    </row>
-    <row r="107" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF106" s="8">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="107" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>46</v>
       </c>
@@ -14432,8 +14721,11 @@
       <c r="AE107" s="8">
         <v>620</v>
       </c>
-    </row>
-    <row r="108" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF107" s="8">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="108" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>42</v>
       </c>
@@ -14527,8 +14819,11 @@
       <c r="AE108" s="8">
         <v>503</v>
       </c>
-    </row>
-    <row r="109" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF108" s="8">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="109" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>84</v>
       </c>
@@ -14622,8 +14917,11 @@
       <c r="AE109" s="8">
         <v>350</v>
       </c>
-    </row>
-    <row r="110" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF109" s="8">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="110" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>72</v>
       </c>
@@ -14717,8 +15015,11 @@
       <c r="AE110" s="8">
         <v>322</v>
       </c>
-    </row>
-    <row r="111" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF110" s="8">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="111" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>78</v>
       </c>
@@ -14812,8 +15113,11 @@
       <c r="AE111" s="8">
         <v>362</v>
       </c>
-    </row>
-    <row r="112" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF111" s="8">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="112" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>94</v>
       </c>
@@ -14907,8 +15211,11 @@
       <c r="AE112" s="8">
         <v>266</v>
       </c>
-    </row>
-    <row r="113" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF112" s="8">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="113" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>80</v>
       </c>
@@ -15002,8 +15309,11 @@
       <c r="AE113" s="8">
         <v>285</v>
       </c>
-    </row>
-    <row r="114" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF113" s="8">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="114" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>40</v>
       </c>
@@ -15097,8 +15407,11 @@
       <c r="AE114" s="8">
         <v>469</v>
       </c>
-    </row>
-    <row r="115" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF114" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="115" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>134</v>
       </c>
@@ -15192,8 +15505,11 @@
       <c r="AE115" s="8">
         <v>248</v>
       </c>
-    </row>
-    <row r="116" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF115" s="8">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="116" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>86</v>
       </c>
@@ -15287,8 +15603,11 @@
       <c r="AE116" s="8">
         <v>348</v>
       </c>
-    </row>
-    <row r="117" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF116" s="8">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="117" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>88</v>
       </c>
@@ -15382,8 +15701,11 @@
       <c r="AE117" s="8">
         <v>338</v>
       </c>
-    </row>
-    <row r="118" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF117" s="8">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="118" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>66</v>
       </c>
@@ -15477,8 +15799,11 @@
       <c r="AE118" s="8">
         <v>257</v>
       </c>
-    </row>
-    <row r="119" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF118" s="8">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="119" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>38</v>
       </c>
@@ -15572,8 +15897,11 @@
       <c r="AE119" s="8">
         <v>272</v>
       </c>
-    </row>
-    <row r="120" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF119" s="8">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="120" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>136</v>
       </c>
@@ -15667,8 +15995,11 @@
       <c r="AE120" s="8">
         <v>169</v>
       </c>
-    </row>
-    <row r="121" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF120" s="8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="121" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>30</v>
       </c>
@@ -15762,8 +16093,11 @@
       <c r="AE121" s="8">
         <v>671</v>
       </c>
-    </row>
-    <row r="122" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF121" s="8">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="122" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>56</v>
       </c>
@@ -15857,8 +16191,11 @@
       <c r="AE122" s="8">
         <v>490</v>
       </c>
-    </row>
-    <row r="123" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF122" s="8">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="123" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>60</v>
       </c>
@@ -15952,8 +16289,11 @@
       <c r="AE123" s="8">
         <v>316</v>
       </c>
-    </row>
-    <row r="124" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF123" s="8">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="124" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>76</v>
       </c>
@@ -16047,8 +16387,11 @@
       <c r="AE124" s="8">
         <v>530</v>
       </c>
-    </row>
-    <row r="125" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF124" s="8">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="125" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>110</v>
       </c>
@@ -16142,8 +16485,11 @@
       <c r="AE125" s="8">
         <v>311</v>
       </c>
-    </row>
-    <row r="126" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF125" s="8">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="126" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>158</v>
       </c>
@@ -16237,8 +16583,11 @@
       <c r="AE126" s="8">
         <v>200</v>
       </c>
-    </row>
-    <row r="127" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF126" s="8">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="127" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>28</v>
       </c>
@@ -16332,8 +16681,11 @@
       <c r="AE127" s="8">
         <v>685</v>
       </c>
-    </row>
-    <row r="128" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF127" s="8">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="128" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>140</v>
       </c>
@@ -16427,8 +16779,11 @@
       <c r="AE128" s="8">
         <v>262</v>
       </c>
-    </row>
-    <row r="129" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF128" s="8">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="129" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>74</v>
       </c>
@@ -16522,8 +16877,11 @@
       <c r="AE129" s="8">
         <v>359</v>
       </c>
-    </row>
-    <row r="130" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF129" s="8">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="130" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>120</v>
       </c>
@@ -16617,8 +16975,11 @@
       <c r="AE130" s="8">
         <v>389</v>
       </c>
-    </row>
-    <row r="131" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF130" s="8">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="131" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>34</v>
       </c>
@@ -16712,8 +17073,11 @@
       <c r="AE131" s="8">
         <v>526</v>
       </c>
-    </row>
-    <row r="132" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF131" s="8">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="132" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>32</v>
       </c>
@@ -16807,8 +17171,11 @@
       <c r="AE132" s="8">
         <v>383</v>
       </c>
-    </row>
-    <row r="133" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF132" s="8">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="133" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>58</v>
       </c>
@@ -16902,8 +17269,11 @@
       <c r="AE133" s="8">
         <v>300</v>
       </c>
-    </row>
-    <row r="134" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF133" s="8">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="134" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>132</v>
       </c>
@@ -16997,8 +17367,11 @@
       <c r="AE134" s="8">
         <v>222</v>
       </c>
-    </row>
-    <row r="135" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF134" s="8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="135" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>62</v>
       </c>
@@ -17092,8 +17465,11 @@
       <c r="AE135" s="8">
         <v>753</v>
       </c>
-    </row>
-    <row r="136" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF135" s="8">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="136" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>50</v>
       </c>
@@ -17187,8 +17563,11 @@
       <c r="AE136" s="8">
         <v>494</v>
       </c>
-    </row>
-    <row r="137" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF136" s="8">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="137" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>98</v>
       </c>
@@ -17282,8 +17661,11 @@
       <c r="AE137" s="8">
         <v>229</v>
       </c>
-    </row>
-    <row r="138" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF137" s="8">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="138" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>206</v>
       </c>
@@ -17377,8 +17759,11 @@
       <c r="AE138" s="8">
         <v>161</v>
       </c>
-    </row>
-    <row r="139" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF138" s="8">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="139" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>82</v>
       </c>
@@ -17472,8 +17857,11 @@
       <c r="AE139" s="8">
         <v>858</v>
       </c>
-    </row>
-    <row r="140" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF139" s="8">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="140" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>128</v>
       </c>
@@ -17567,8 +17955,11 @@
       <c r="AE140" s="8">
         <v>306</v>
       </c>
-    </row>
-    <row r="141" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF140" s="8">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="141" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>26</v>
       </c>
@@ -17662,8 +18053,11 @@
       <c r="AE141" s="8">
         <v>921</v>
       </c>
-    </row>
-    <row r="142" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF141" s="8">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="142" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>44</v>
       </c>
@@ -17757,8 +18151,11 @@
       <c r="AE142" s="8">
         <v>870</v>
       </c>
-    </row>
-    <row r="143" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF142" s="8">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="143" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>100</v>
       </c>
@@ -17852,8 +18249,11 @@
       <c r="AE143" s="8">
         <v>791</v>
       </c>
-    </row>
-    <row r="144" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF143" s="8">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="144" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>102</v>
       </c>
@@ -17947,8 +18347,11 @@
       <c r="AE144" s="8">
         <v>838</v>
       </c>
-    </row>
-    <row r="145" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF144" s="8">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="145" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>118</v>
       </c>
@@ -18042,8 +18445,11 @@
       <c r="AE145" s="8">
         <v>338</v>
       </c>
-    </row>
-    <row r="146" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF145" s="8">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="146" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>226</v>
       </c>
@@ -18137,8 +18543,11 @@
       <c r="AE146" s="8">
         <v>275</v>
       </c>
-    </row>
-    <row r="147" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF146" s="8">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="147" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>168</v>
       </c>
@@ -18232,8 +18641,11 @@
       <c r="AE147" s="8">
         <v>301</v>
       </c>
-    </row>
-    <row r="148" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF147" s="8">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="148" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>126</v>
       </c>
@@ -18327,8 +18739,11 @@
       <c r="AE148" s="8">
         <v>428</v>
       </c>
-    </row>
-    <row r="149" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF148" s="8">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="149" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>152</v>
       </c>
@@ -18422,8 +18837,11 @@
       <c r="AE149" s="8">
         <v>269</v>
       </c>
-    </row>
-    <row r="150" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF149" s="8">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="150" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>90</v>
       </c>
@@ -18517,8 +18935,11 @@
       <c r="AE150" s="8">
         <v>425</v>
       </c>
-    </row>
-    <row r="151" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF150" s="8">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="151" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>70</v>
       </c>
@@ -18612,8 +19033,11 @@
       <c r="AE151" s="8">
         <v>450</v>
       </c>
-    </row>
-    <row r="152" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF151" s="8">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="152" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>176</v>
       </c>
@@ -18707,8 +19131,11 @@
       <c r="AE152" s="8">
         <v>114</v>
       </c>
-    </row>
-    <row r="153" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF152" s="8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="153" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>114</v>
       </c>
@@ -18802,8 +19229,11 @@
       <c r="AE153" s="8">
         <v>570</v>
       </c>
-    </row>
-    <row r="154" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF153" s="8">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="154" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>148</v>
       </c>
@@ -18897,8 +19327,11 @@
       <c r="AE154" s="8">
         <v>243</v>
       </c>
-    </row>
-    <row r="155" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF154" s="8">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="155" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>48</v>
       </c>
@@ -18992,8 +19425,11 @@
       <c r="AE155" s="8">
         <v>887</v>
       </c>
-    </row>
-    <row r="156" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF155" s="8">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="156" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>172</v>
       </c>
@@ -19087,8 +19523,11 @@
       <c r="AE156" s="8">
         <v>361</v>
       </c>
-    </row>
-    <row r="157" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF156" s="8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="157" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>122</v>
       </c>
@@ -19182,8 +19621,11 @@
       <c r="AE157" s="8">
         <v>224</v>
       </c>
-    </row>
-    <row r="158" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF157" s="8">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="158" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>200</v>
       </c>
@@ -19277,8 +19719,11 @@
       <c r="AE158" s="8">
         <v>394</v>
       </c>
-    </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF158" s="8">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="159" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>0</v>
       </c>
@@ -19372,8 +19817,11 @@
       <c r="AE159" s="4">
         <v>42990</v>
       </c>
-    </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF159" s="4">
+        <v>45968</v>
+      </c>
+    </row>
+    <row r="160" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AB160" s="21"/>
     </row>
   </sheetData>

--- a/refreshed_daily_cases.xlsx
+++ b/refreshed_daily_cases.xlsx
@@ -27,11 +27,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1252,7 +1247,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1329,6 +1324,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1710,7 +1708,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
@@ -2524,6 +2522,17 @@
         <v>55242</v>
       </c>
     </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="23">
+        <v>43929</v>
+      </c>
+      <c r="B78" s="33">
+        <v>5491</v>
+      </c>
+      <c r="C78" s="33">
+        <v>60733</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2531,7 +2540,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -2588,13 +2597,13 @@
       <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="36" t="s">
         <v>339</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
@@ -3128,10 +3137,44 @@
       <c r="C37" s="34">
         <v>6159</v>
       </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
+      <c r="D37" s="34">
+        <v>5655</v>
+      </c>
+      <c r="E37" s="34">
+        <v>222</v>
+      </c>
+      <c r="F37" s="34">
+        <v>212</v>
+      </c>
+      <c r="G37" s="34">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="16">
+        <v>43929</v>
+      </c>
+      <c r="B38" s="34">
+        <v>938</v>
+      </c>
+      <c r="C38" s="34">
+        <v>7097</v>
+      </c>
+      <c r="D38" s="34">
+        <v>6483</v>
+      </c>
+      <c r="E38" s="34">
+        <v>296</v>
+      </c>
+      <c r="F38" s="34">
+        <v>245</v>
+      </c>
+      <c r="G38" s="34">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3143,7 +3186,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF13"/>
+  <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -3162,45 +3205,46 @@
     <col min="22" max="24" width="10.7109375" style="21" customWidth="1"/>
     <col min="25" max="29" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="30" max="32" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>325</v>
       </c>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>324</v>
       </c>
       <c r="B4" s="11"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>326</v>
       </c>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>327</v>
       </c>
       <c r="B6" s="11"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -3297,8 +3341,11 @@
       <c r="AF8" s="3">
         <v>43928</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG8" s="3">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
@@ -3395,8 +3442,11 @@
       <c r="AF9" s="26">
         <v>45968</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG9" s="26">
+        <v>50756</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
@@ -3488,9 +3538,14 @@
       <c r="AE10" s="32">
         <v>3961</v>
       </c>
-      <c r="AF10" s="32"/>
-    </row>
-    <row r="11" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF10" s="32">
+        <v>4229</v>
+      </c>
+      <c r="AG10" s="32">
+        <v>4565</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
@@ -3582,9 +3637,14 @@
       <c r="AE11" s="32">
         <v>3499</v>
       </c>
-      <c r="AF11" s="32"/>
-    </row>
-    <row r="12" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF11" s="32">
+        <v>3790</v>
+      </c>
+      <c r="AG11" s="32">
+        <v>4073</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>6</v>
       </c>
@@ -3676,9 +3736,14 @@
       <c r="AE12" s="32">
         <v>1158</v>
       </c>
-      <c r="AF12" s="32"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF12" s="32">
+        <v>1255</v>
+      </c>
+      <c r="AG12" s="32">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>8</v>
@@ -3769,8 +3834,10 @@
         <v>51608</v>
       </c>
       <c r="AF13" s="4">
-        <f>SUM(AF9:AF12)</f>
-        <v>45968</v>
+        <v>55242</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>60733</v>
       </c>
     </row>
   </sheetData>
@@ -3784,7 +3851,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF17"/>
+  <dimension ref="A1:AG17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -3800,42 +3867,42 @@
     <col min="22" max="24" width="10.7109375" style="21" customWidth="1"/>
     <col min="25" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="28" max="30" width="10.7109375" style="21" customWidth="1"/>
-    <col min="31" max="32" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>325</v>
       </c>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>333</v>
       </c>
       <c r="B4" s="11"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>328</v>
       </c>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>327</v>
       </c>
       <c r="B6" s="11"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -3859,7 +3926,7 @@
       <c r="Z7" s="21"/>
       <c r="AA7" s="21"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -3956,8 +4023,11 @@
       <c r="AF8" s="3">
         <v>43928</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG8" s="3">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
@@ -4052,8 +4122,11 @@
       <c r="AF9" s="6">
         <v>1818</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG9" s="6">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
@@ -4150,8 +4223,11 @@
       <c r="AF10" s="8">
         <v>13378</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG10" s="32">
+        <v>14355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
@@ -4248,8 +4324,11 @@
       <c r="AF11" s="8">
         <v>5539</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG11" s="32">
+        <v>6238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
@@ -4346,8 +4425,11 @@
       <c r="AF12" s="8">
         <v>2047</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG12" s="32">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -4444,8 +4526,11 @@
       <c r="AF13" s="8">
         <v>3707</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG13" s="32">
+        <v>4165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
@@ -4542,8 +4627,11 @@
       <c r="AF14" s="8">
         <v>7806</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG14" s="32">
+        <v>8589</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
@@ -4640,8 +4728,11 @@
       <c r="AF15" s="8">
         <v>5583</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG15" s="32">
+        <v>6501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>19</v>
       </c>
@@ -4738,8 +4829,11 @@
       <c r="AF16" s="8">
         <v>6090</v>
       </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG16" s="32">
+        <v>6640</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
@@ -4835,6 +4929,9 @@
       </c>
       <c r="AF17" s="4">
         <v>45968</v>
+      </c>
+      <c r="AG17" s="4">
+        <v>50756</v>
       </c>
     </row>
   </sheetData>
@@ -4847,7 +4944,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF160"/>
+  <dimension ref="A1:AG160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
@@ -4865,42 +4962,42 @@
     <col min="25" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.7109375" customWidth="1"/>
     <col min="29" max="30" width="10.7109375" style="21" customWidth="1"/>
-    <col min="31" max="32" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>325</v>
       </c>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>333</v>
       </c>
       <c r="B4" s="11"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>328</v>
       </c>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>327</v>
       </c>
       <c r="B6" s="11"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -4925,7 +5022,7 @@
       <c r="AA7" s="21"/>
       <c r="AB7" s="21"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -5022,8 +5119,11 @@
       <c r="AF8" s="3">
         <v>43928</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG8" s="3">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
@@ -5120,8 +5220,11 @@
       <c r="AF9" s="6">
         <v>1818</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG9" s="6">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>286</v>
       </c>
@@ -5218,8 +5321,11 @@
       <c r="AF10" s="8">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG10" s="32">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>316</v>
       </c>
@@ -5316,8 +5422,11 @@
       <c r="AF11" s="8">
         <v>169</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG11" s="32">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>312</v>
       </c>
@@ -5414,8 +5523,11 @@
       <c r="AF12" s="8">
         <v>112</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG12" s="32">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>186</v>
       </c>
@@ -5512,8 +5624,11 @@
       <c r="AF13" s="8">
         <v>123</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG13" s="32">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>290</v>
       </c>
@@ -5610,8 +5725,11 @@
       <c r="AF14" s="8">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG14" s="32">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>254</v>
       </c>
@@ -5708,8 +5826,11 @@
       <c r="AF15" s="8">
         <v>107</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG15" s="32">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>258</v>
       </c>
@@ -5806,8 +5927,11 @@
       <c r="AF16" s="8">
         <v>162</v>
       </c>
-    </row>
-    <row r="17" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG16" s="32">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>304</v>
       </c>
@@ -5904,8 +6028,11 @@
       <c r="AF17" s="8">
         <v>86</v>
       </c>
-    </row>
-    <row r="18" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG17" s="32">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>282</v>
       </c>
@@ -6002,8 +6129,11 @@
       <c r="AF18" s="8">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG18" s="32">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>308</v>
       </c>
@@ -6100,8 +6230,11 @@
       <c r="AF19" s="8">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG19" s="32">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>180</v>
       </c>
@@ -6198,8 +6331,11 @@
       <c r="AF20" s="8">
         <v>97</v>
       </c>
-    </row>
-    <row r="21" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG20" s="32">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>318</v>
       </c>
@@ -6296,8 +6432,11 @@
       <c r="AF21" s="8">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG21" s="32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>310</v>
       </c>
@@ -6394,8 +6533,11 @@
       <c r="AF22" s="8">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG22" s="32">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>244</v>
       </c>
@@ -6492,8 +6634,11 @@
       <c r="AF23" s="8">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG23" s="32">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>196</v>
       </c>
@@ -6590,8 +6735,11 @@
       <c r="AF24" s="8">
         <v>263</v>
       </c>
-    </row>
-    <row r="25" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG24" s="32">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>238</v>
       </c>
@@ -6688,8 +6836,11 @@
       <c r="AF25" s="8">
         <v>211</v>
       </c>
-    </row>
-    <row r="26" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG25" s="32">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>320</v>
       </c>
@@ -6786,8 +6937,11 @@
       <c r="AF26" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG26" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>144</v>
       </c>
@@ -6884,8 +7038,11 @@
       <c r="AF27" s="8">
         <v>204</v>
       </c>
-    </row>
-    <row r="28" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG27" s="32">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>274</v>
       </c>
@@ -6982,8 +7139,11 @@
       <c r="AF28" s="8">
         <v>70</v>
       </c>
-    </row>
-    <row r="29" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG28" s="32">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>322</v>
       </c>
@@ -7080,8 +7240,11 @@
       <c r="AF29" s="8">
         <v>79</v>
       </c>
-    </row>
-    <row r="30" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG29" s="32">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>288</v>
       </c>
@@ -7178,8 +7341,11 @@
       <c r="AF30" s="8">
         <v>117</v>
       </c>
-    </row>
-    <row r="31" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG30" s="32">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>246</v>
       </c>
@@ -7276,8 +7442,11 @@
       <c r="AF31" s="8">
         <v>67</v>
       </c>
-    </row>
-    <row r="32" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG31" s="32">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>166</v>
       </c>
@@ -7374,8 +7543,11 @@
       <c r="AF32" s="8">
         <v>211</v>
       </c>
-    </row>
-    <row r="33" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG32" s="32">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>256</v>
       </c>
@@ -7472,8 +7644,11 @@
       <c r="AF33" s="8">
         <v>82</v>
       </c>
-    </row>
-    <row r="34" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG33" s="32">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>160</v>
       </c>
@@ -7570,8 +7745,11 @@
       <c r="AF34" s="8">
         <v>139</v>
       </c>
-    </row>
-    <row r="35" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG34" s="32">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>216</v>
       </c>
@@ -7668,8 +7846,11 @@
       <c r="AF35" s="8">
         <v>102</v>
       </c>
-    </row>
-    <row r="36" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG35" s="32">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>202</v>
       </c>
@@ -7766,8 +7947,11 @@
       <c r="AF36" s="8">
         <v>57</v>
       </c>
-    </row>
-    <row r="37" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG36" s="32">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>250</v>
       </c>
@@ -7864,8 +8048,11 @@
       <c r="AF37" s="8">
         <v>75</v>
       </c>
-    </row>
-    <row r="38" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG37" s="32">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>294</v>
       </c>
@@ -7962,8 +8149,11 @@
       <c r="AF38" s="8">
         <v>62</v>
       </c>
-    </row>
-    <row r="39" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG38" s="32">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>276</v>
       </c>
@@ -8060,8 +8250,11 @@
       <c r="AF39" s="8">
         <v>195</v>
       </c>
-    </row>
-    <row r="40" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG39" s="32">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>262</v>
       </c>
@@ -8158,8 +8351,11 @@
       <c r="AF40" s="8">
         <v>136</v>
       </c>
-    </row>
-    <row r="41" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG40" s="32">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>268</v>
       </c>
@@ -8256,8 +8452,11 @@
       <c r="AF41" s="8">
         <v>125</v>
       </c>
-    </row>
-    <row r="42" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG41" s="32">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>198</v>
       </c>
@@ -8354,8 +8553,11 @@
       <c r="AF42" s="8">
         <v>196</v>
       </c>
-    </row>
-    <row r="43" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG42" s="32">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>270</v>
       </c>
@@ -8452,8 +8654,11 @@
       <c r="AF43" s="8">
         <v>79</v>
       </c>
-    </row>
-    <row r="44" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG43" s="32">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>280</v>
       </c>
@@ -8550,8 +8755,11 @@
       <c r="AF44" s="8">
         <v>107</v>
       </c>
-    </row>
-    <row r="45" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG44" s="32">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>218</v>
       </c>
@@ -8648,8 +8856,11 @@
       <c r="AF45" s="8">
         <v>128</v>
       </c>
-    </row>
-    <row r="46" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG45" s="32">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>116</v>
       </c>
@@ -8746,8 +8957,11 @@
       <c r="AF46" s="8">
         <v>167</v>
       </c>
-    </row>
-    <row r="47" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG46" s="32">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>150</v>
       </c>
@@ -8844,8 +9058,11 @@
       <c r="AF47" s="8">
         <v>116</v>
       </c>
-    </row>
-    <row r="48" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG47" s="32">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>194</v>
       </c>
@@ -8942,8 +9159,11 @@
       <c r="AF48" s="8">
         <v>129</v>
       </c>
-    </row>
-    <row r="49" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG48" s="32">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>240</v>
       </c>
@@ -9040,8 +9260,11 @@
       <c r="AF49" s="8">
         <v>186</v>
       </c>
-    </row>
-    <row r="50" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG49" s="32">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>164</v>
       </c>
@@ -9138,8 +9361,11 @@
       <c r="AF50" s="8">
         <v>86</v>
       </c>
-    </row>
-    <row r="51" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG50" s="32">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>242</v>
       </c>
@@ -9236,8 +9462,11 @@
       <c r="AF51" s="8">
         <v>115</v>
       </c>
-    </row>
-    <row r="52" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG51" s="32">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>210</v>
       </c>
@@ -9334,8 +9563,11 @@
       <c r="AF52" s="8">
         <v>181</v>
       </c>
-    </row>
-    <row r="53" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG52" s="32">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>292</v>
       </c>
@@ -9432,8 +9664,11 @@
       <c r="AF53" s="8">
         <v>36</v>
       </c>
-    </row>
-    <row r="54" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG53" s="32">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>236</v>
       </c>
@@ -9530,8 +9765,11 @@
       <c r="AF54" s="8">
         <v>303</v>
       </c>
-    </row>
-    <row r="55" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG54" s="32">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>192</v>
       </c>
@@ -9628,8 +9866,11 @@
       <c r="AF55" s="8">
         <v>209</v>
       </c>
-    </row>
-    <row r="56" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG55" s="32">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>212</v>
       </c>
@@ -9726,8 +9967,11 @@
       <c r="AF56" s="8">
         <v>227</v>
       </c>
-    </row>
-    <row r="57" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG56" s="32">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>278</v>
       </c>
@@ -9824,8 +10068,11 @@
       <c r="AF57" s="8">
         <v>157</v>
       </c>
-    </row>
-    <row r="58" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG57" s="32">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>178</v>
       </c>
@@ -9922,8 +10169,11 @@
       <c r="AF58" s="8">
         <v>198</v>
       </c>
-    </row>
-    <row r="59" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG58" s="32">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>162</v>
       </c>
@@ -10020,8 +10270,11 @@
       <c r="AF59" s="8">
         <v>156</v>
       </c>
-    </row>
-    <row r="60" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG59" s="32">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>302</v>
       </c>
@@ -10118,8 +10371,11 @@
       <c r="AF60" s="8">
         <v>120</v>
       </c>
-    </row>
-    <row r="61" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG60" s="32">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>222</v>
       </c>
@@ -10216,8 +10472,11 @@
       <c r="AF61" s="8">
         <v>164</v>
       </c>
-    </row>
-    <row r="62" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG61" s="32">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>230</v>
       </c>
@@ -10314,8 +10573,11 @@
       <c r="AF62" s="8">
         <v>211</v>
       </c>
-    </row>
-    <row r="63" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG62" s="32">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>190</v>
       </c>
@@ -10412,8 +10674,11 @@
       <c r="AF63" s="8">
         <v>116</v>
       </c>
-    </row>
-    <row r="64" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG63" s="32">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>214</v>
       </c>
@@ -10510,8 +10775,11 @@
       <c r="AF64" s="8">
         <v>126</v>
       </c>
-    </row>
-    <row r="65" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG64" s="32">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>188</v>
       </c>
@@ -10608,8 +10876,11 @@
       <c r="AF65" s="8">
         <v>185</v>
       </c>
-    </row>
-    <row r="66" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG65" s="32">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>204</v>
       </c>
@@ -10706,8 +10977,11 @@
       <c r="AF66" s="8">
         <v>151</v>
       </c>
-    </row>
-    <row r="67" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG66" s="32">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>106</v>
       </c>
@@ -10804,8 +11078,11 @@
       <c r="AF67" s="8">
         <v>361</v>
       </c>
-    </row>
-    <row r="68" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG67" s="32">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>138</v>
       </c>
@@ -10902,8 +11179,11 @@
       <c r="AF68" s="8">
         <v>232</v>
       </c>
-    </row>
-    <row r="69" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG68" s="32">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>184</v>
       </c>
@@ -11000,8 +11280,11 @@
       <c r="AF69" s="8">
         <v>186</v>
       </c>
-    </row>
-    <row r="70" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG69" s="32">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>182</v>
       </c>
@@ -11098,8 +11381,11 @@
       <c r="AF70" s="8">
         <v>259</v>
       </c>
-    </row>
-    <row r="71" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG70" s="32">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>146</v>
       </c>
@@ -11196,8 +11482,11 @@
       <c r="AF71" s="8">
         <v>270</v>
       </c>
-    </row>
-    <row r="72" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG71" s="32">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>142</v>
       </c>
@@ -11294,8 +11583,11 @@
       <c r="AF72" s="8">
         <v>182</v>
       </c>
-    </row>
-    <row r="73" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG72" s="32">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>156</v>
       </c>
@@ -11392,8 +11684,11 @@
       <c r="AF73" s="8">
         <v>240</v>
       </c>
-    </row>
-    <row r="74" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG73" s="32">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>260</v>
       </c>
@@ -11490,8 +11785,11 @@
       <c r="AF74" s="8">
         <v>197</v>
       </c>
-    </row>
-    <row r="75" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG74" s="32">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>264</v>
       </c>
@@ -11588,8 +11886,11 @@
       <c r="AF75" s="8">
         <v>169</v>
       </c>
-    </row>
-    <row r="76" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG75" s="32">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>154</v>
       </c>
@@ -11686,8 +11987,11 @@
       <c r="AF76" s="8">
         <v>552</v>
       </c>
-    </row>
-    <row r="77" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG76" s="32">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>298</v>
       </c>
@@ -11784,8 +12088,11 @@
       <c r="AF77" s="8">
         <v>239</v>
       </c>
-    </row>
-    <row r="78" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG77" s="32">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>232</v>
       </c>
@@ -11882,8 +12189,11 @@
       <c r="AF78" s="8">
         <v>289</v>
       </c>
-    </row>
-    <row r="79" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG78" s="32">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>208</v>
       </c>
@@ -11980,8 +12290,11 @@
       <c r="AF79" s="8">
         <v>262</v>
       </c>
-    </row>
-    <row r="80" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG79" s="32">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>220</v>
       </c>
@@ -12078,8 +12391,11 @@
       <c r="AF80" s="8">
         <v>216</v>
       </c>
-    </row>
-    <row r="81" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG80" s="32">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>300</v>
       </c>
@@ -12176,8 +12492,11 @@
       <c r="AF81" s="8">
         <v>144</v>
       </c>
-    </row>
-    <row r="82" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG81" s="32">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>284</v>
       </c>
@@ -12274,8 +12593,11 @@
       <c r="AF82" s="8">
         <v>223</v>
       </c>
-    </row>
-    <row r="83" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG82" s="32">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>54</v>
       </c>
@@ -12372,8 +12694,11 @@
       <c r="AF83" s="8">
         <v>883</v>
       </c>
-    </row>
-    <row r="84" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG83" s="32">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>108</v>
       </c>
@@ -12470,8 +12795,11 @@
       <c r="AF84" s="8">
         <v>367</v>
       </c>
-    </row>
-    <row r="85" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG84" s="32">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>174</v>
       </c>
@@ -12568,8 +12896,11 @@
       <c r="AF85" s="8">
         <v>183</v>
       </c>
-    </row>
-    <row r="86" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG85" s="32">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>296</v>
       </c>
@@ -12666,8 +12997,11 @@
       <c r="AF86" s="8">
         <v>101</v>
       </c>
-    </row>
-    <row r="87" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG86" s="32">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>248</v>
       </c>
@@ -12764,8 +13098,11 @@
       <c r="AF87" s="8">
         <v>285</v>
       </c>
-    </row>
-    <row r="88" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG87" s="32">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>68</v>
       </c>
@@ -12862,8 +13199,11 @@
       <c r="AF88" s="8">
         <v>1372</v>
       </c>
-    </row>
-    <row r="89" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG88" s="32">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>252</v>
       </c>
@@ -12960,8 +13300,11 @@
       <c r="AF89" s="8">
         <v>277</v>
       </c>
-    </row>
-    <row r="90" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG89" s="32">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>170</v>
       </c>
@@ -13058,8 +13401,11 @@
       <c r="AF90" s="8">
         <v>309</v>
       </c>
-    </row>
-    <row r="91" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG90" s="32">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>224</v>
       </c>
@@ -13156,8 +13502,11 @@
       <c r="AF91" s="8">
         <v>363</v>
       </c>
-    </row>
-    <row r="92" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG91" s="32">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>314</v>
       </c>
@@ -13254,8 +13603,11 @@
       <c r="AF92" s="8">
         <v>241</v>
       </c>
-    </row>
-    <row r="93" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG92" s="32">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>124</v>
       </c>
@@ -13352,8 +13704,11 @@
       <c r="AF93" s="8">
         <v>386</v>
       </c>
-    </row>
-    <row r="94" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG93" s="32">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>92</v>
       </c>
@@ -13450,8 +13805,11 @@
       <c r="AF94" s="8">
         <v>335</v>
       </c>
-    </row>
-    <row r="95" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG94" s="32">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>228</v>
       </c>
@@ -13548,8 +13906,11 @@
       <c r="AF95" s="8">
         <v>222</v>
       </c>
-    </row>
-    <row r="96" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG95" s="32">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>272</v>
       </c>
@@ -13646,8 +14007,11 @@
       <c r="AF96" s="8">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG96" s="32">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>266</v>
       </c>
@@ -13744,8 +14108,11 @@
       <c r="AF97" s="8">
         <v>203</v>
       </c>
-    </row>
-    <row r="98" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG97" s="32">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>130</v>
       </c>
@@ -13842,8 +14209,11 @@
       <c r="AF98" s="8">
         <v>340</v>
       </c>
-    </row>
-    <row r="99" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG98" s="32">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>234</v>
       </c>
@@ -13940,8 +14310,11 @@
       <c r="AF99" s="8">
         <v>177</v>
       </c>
-    </row>
-    <row r="100" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG99" s="32">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>306</v>
       </c>
@@ -14038,8 +14411,11 @@
       <c r="AF100" s="8">
         <v>188</v>
       </c>
-    </row>
-    <row r="101" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG100" s="32">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>112</v>
       </c>
@@ -14136,8 +14512,11 @@
       <c r="AF101" s="8">
         <v>222</v>
       </c>
-    </row>
-    <row r="102" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG101" s="32">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>96</v>
       </c>
@@ -14234,8 +14613,11 @@
       <c r="AF102" s="8">
         <v>717</v>
       </c>
-    </row>
-    <row r="103" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG102" s="32">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>104</v>
       </c>
@@ -14332,8 +14714,11 @@
       <c r="AF103" s="8">
         <v>274</v>
       </c>
-    </row>
-    <row r="104" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG103" s="32">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>36</v>
       </c>
@@ -14430,8 +14815,11 @@
       <c r="AF104" s="8">
         <v>819</v>
       </c>
-    </row>
-    <row r="105" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG104" s="32">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>52</v>
       </c>
@@ -14528,8 +14916,11 @@
       <c r="AF105" s="8">
         <v>547</v>
       </c>
-    </row>
-    <row r="106" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG105" s="32">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>64</v>
       </c>
@@ -14626,8 +15017,11 @@
       <c r="AF106" s="8">
         <v>321</v>
       </c>
-    </row>
-    <row r="107" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG106" s="32">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>46</v>
       </c>
@@ -14724,8 +15118,11 @@
       <c r="AF107" s="8">
         <v>689</v>
       </c>
-    </row>
-    <row r="108" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG107" s="32">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>42</v>
       </c>
@@ -14822,8 +15219,11 @@
       <c r="AF108" s="8">
         <v>533</v>
       </c>
-    </row>
-    <row r="109" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG108" s="32">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>84</v>
       </c>
@@ -14920,8 +15320,11 @@
       <c r="AF109" s="8">
         <v>370</v>
       </c>
-    </row>
-    <row r="110" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG109" s="32">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>72</v>
       </c>
@@ -15018,8 +15421,11 @@
       <c r="AF110" s="8">
         <v>337</v>
       </c>
-    </row>
-    <row r="111" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG110" s="32">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="111" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>78</v>
       </c>
@@ -15116,8 +15522,11 @@
       <c r="AF111" s="8">
         <v>365</v>
       </c>
-    </row>
-    <row r="112" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG111" s="32">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="112" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>94</v>
       </c>
@@ -15214,8 +15623,11 @@
       <c r="AF112" s="8">
         <v>286</v>
       </c>
-    </row>
-    <row r="113" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG112" s="32">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="113" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>80</v>
       </c>
@@ -15312,8 +15724,11 @@
       <c r="AF113" s="8">
         <v>308</v>
       </c>
-    </row>
-    <row r="114" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG113" s="32">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="114" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>40</v>
       </c>
@@ -15410,8 +15825,11 @@
       <c r="AF114" s="8">
         <v>500</v>
       </c>
-    </row>
-    <row r="115" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG114" s="32">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="115" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>134</v>
       </c>
@@ -15508,8 +15926,11 @@
       <c r="AF115" s="8">
         <v>273</v>
       </c>
-    </row>
-    <row r="116" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG115" s="32">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="116" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>86</v>
       </c>
@@ -15606,8 +16027,11 @@
       <c r="AF116" s="8">
         <v>366</v>
       </c>
-    </row>
-    <row r="117" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG116" s="32">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="117" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>88</v>
       </c>
@@ -15704,8 +16128,11 @@
       <c r="AF117" s="8">
         <v>361</v>
       </c>
-    </row>
-    <row r="118" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG117" s="32">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="118" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>66</v>
       </c>
@@ -15802,8 +16229,11 @@
       <c r="AF118" s="8">
         <v>268</v>
       </c>
-    </row>
-    <row r="119" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG118" s="32">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="119" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>38</v>
       </c>
@@ -15900,8 +16330,11 @@
       <c r="AF119" s="8">
         <v>278</v>
       </c>
-    </row>
-    <row r="120" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG119" s="32">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="120" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>136</v>
       </c>
@@ -15998,8 +16431,11 @@
       <c r="AF120" s="8">
         <v>199</v>
       </c>
-    </row>
-    <row r="121" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG120" s="32">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="121" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>30</v>
       </c>
@@ -16096,8 +16532,11 @@
       <c r="AF121" s="8">
         <v>698</v>
       </c>
-    </row>
-    <row r="122" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG121" s="32">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="122" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>56</v>
       </c>
@@ -16194,8 +16633,11 @@
       <c r="AF122" s="8">
         <v>516</v>
       </c>
-    </row>
-    <row r="123" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG122" s="32">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="123" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>60</v>
       </c>
@@ -16292,8 +16734,11 @@
       <c r="AF123" s="8">
         <v>358</v>
       </c>
-    </row>
-    <row r="124" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG123" s="32">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="124" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>76</v>
       </c>
@@ -16390,8 +16835,11 @@
       <c r="AF124" s="8">
         <v>535</v>
       </c>
-    </row>
-    <row r="125" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG124" s="32">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="125" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>110</v>
       </c>
@@ -16488,8 +16936,11 @@
       <c r="AF125" s="8">
         <v>319</v>
       </c>
-    </row>
-    <row r="126" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG125" s="32">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="126" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>158</v>
       </c>
@@ -16586,8 +17037,11 @@
       <c r="AF126" s="8">
         <v>213</v>
       </c>
-    </row>
-    <row r="127" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG126" s="32">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="127" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>28</v>
       </c>
@@ -16684,8 +17138,11 @@
       <c r="AF127" s="8">
         <v>710</v>
       </c>
-    </row>
-    <row r="128" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG127" s="32">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="128" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>140</v>
       </c>
@@ -16782,8 +17239,11 @@
       <c r="AF128" s="8">
         <v>287</v>
       </c>
-    </row>
-    <row r="129" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG128" s="32">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="129" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>74</v>
       </c>
@@ -16880,8 +17340,11 @@
       <c r="AF129" s="8">
         <v>361</v>
       </c>
-    </row>
-    <row r="130" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG129" s="32">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="130" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>120</v>
       </c>
@@ -16978,8 +17441,11 @@
       <c r="AF130" s="8">
         <v>393</v>
       </c>
-    </row>
-    <row r="131" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG130" s="32">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="131" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>34</v>
       </c>
@@ -17076,8 +17542,11 @@
       <c r="AF131" s="8">
         <v>557</v>
       </c>
-    </row>
-    <row r="132" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG131" s="32">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="132" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>32</v>
       </c>
@@ -17174,8 +17643,11 @@
       <c r="AF132" s="8">
         <v>398</v>
       </c>
-    </row>
-    <row r="133" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG132" s="32">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="133" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>58</v>
       </c>
@@ -17272,8 +17744,11 @@
       <c r="AF133" s="8">
         <v>329</v>
       </c>
-    </row>
-    <row r="134" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG133" s="32">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="134" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>132</v>
       </c>
@@ -17370,8 +17845,11 @@
       <c r="AF134" s="8">
         <v>237</v>
       </c>
-    </row>
-    <row r="135" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG134" s="32">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="135" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>62</v>
       </c>
@@ -17468,8 +17946,11 @@
       <c r="AF135" s="8">
         <v>804</v>
       </c>
-    </row>
-    <row r="136" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG135" s="32">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="136" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>50</v>
       </c>
@@ -17566,8 +18047,11 @@
       <c r="AF136" s="8">
         <v>501</v>
       </c>
-    </row>
-    <row r="137" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG136" s="32">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="137" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>98</v>
       </c>
@@ -17664,8 +18148,11 @@
       <c r="AF137" s="8">
         <v>236</v>
       </c>
-    </row>
-    <row r="138" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG137" s="32">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="138" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>206</v>
       </c>
@@ -17762,8 +18249,11 @@
       <c r="AF138" s="8">
         <v>181</v>
       </c>
-    </row>
-    <row r="139" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG138" s="32">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="139" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>82</v>
       </c>
@@ -17860,8 +18350,11 @@
       <c r="AF139" s="8">
         <v>938</v>
       </c>
-    </row>
-    <row r="140" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG139" s="32">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="140" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>128</v>
       </c>
@@ -17958,8 +18451,11 @@
       <c r="AF140" s="8">
         <v>364</v>
       </c>
-    </row>
-    <row r="141" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG140" s="32">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="141" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>26</v>
       </c>
@@ -18056,8 +18552,11 @@
       <c r="AF141" s="8">
         <v>989</v>
       </c>
-    </row>
-    <row r="142" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG141" s="32">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="142" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>44</v>
       </c>
@@ -18154,8 +18653,11 @@
       <c r="AF142" s="8">
         <v>933</v>
       </c>
-    </row>
-    <row r="143" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG142" s="32">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="143" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>100</v>
       </c>
@@ -18252,8 +18754,11 @@
       <c r="AF143" s="8">
         <v>923</v>
       </c>
-    </row>
-    <row r="144" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG143" s="32">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="144" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>102</v>
       </c>
@@ -18350,8 +18855,11 @@
       <c r="AF144" s="8">
         <v>923</v>
       </c>
-    </row>
-    <row r="145" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG144" s="32">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="145" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>118</v>
       </c>
@@ -18448,8 +18956,11 @@
       <c r="AF145" s="8">
         <v>339</v>
       </c>
-    </row>
-    <row r="146" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG145" s="32">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="146" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>226</v>
       </c>
@@ -18546,8 +19057,11 @@
       <c r="AF146" s="8">
         <v>277</v>
       </c>
-    </row>
-    <row r="147" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG146" s="32">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="147" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>168</v>
       </c>
@@ -18644,8 +19158,11 @@
       <c r="AF147" s="8">
         <v>341</v>
       </c>
-    </row>
-    <row r="148" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG147" s="32">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="148" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>126</v>
       </c>
@@ -18742,8 +19259,11 @@
       <c r="AF148" s="8">
         <v>473</v>
       </c>
-    </row>
-    <row r="149" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG148" s="32">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="149" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>152</v>
       </c>
@@ -18840,8 +19360,11 @@
       <c r="AF149" s="8">
         <v>285</v>
       </c>
-    </row>
-    <row r="150" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG149" s="32">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="150" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>90</v>
       </c>
@@ -18938,8 +19461,11 @@
       <c r="AF150" s="8">
         <v>469</v>
       </c>
-    </row>
-    <row r="151" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG150" s="32">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="151" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>70</v>
       </c>
@@ -19036,8 +19562,11 @@
       <c r="AF151" s="8">
         <v>501</v>
       </c>
-    </row>
-    <row r="152" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG151" s="32">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="152" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>176</v>
       </c>
@@ -19134,8 +19663,11 @@
       <c r="AF152" s="8">
         <v>114</v>
       </c>
-    </row>
-    <row r="153" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG152" s="32">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="153" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>114</v>
       </c>
@@ -19232,8 +19764,11 @@
       <c r="AF153" s="8">
         <v>597</v>
       </c>
-    </row>
-    <row r="154" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG153" s="32">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="154" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>148</v>
       </c>
@@ -19330,8 +19865,11 @@
       <c r="AF154" s="8">
         <v>263</v>
       </c>
-    </row>
-    <row r="155" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG154" s="32">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="155" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>48</v>
       </c>
@@ -19428,8 +19966,11 @@
       <c r="AF155" s="8">
         <v>1017</v>
       </c>
-    </row>
-    <row r="156" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG155" s="32">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="156" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>172</v>
       </c>
@@ -19526,8 +20067,11 @@
       <c r="AF156" s="8">
         <v>400</v>
       </c>
-    </row>
-    <row r="157" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG156" s="32">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="157" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>122</v>
       </c>
@@ -19624,8 +20168,11 @@
       <c r="AF157" s="8">
         <v>266</v>
       </c>
-    </row>
-    <row r="158" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG157" s="32">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="158" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>200</v>
       </c>
@@ -19722,8 +20269,11 @@
       <c r="AF158" s="8">
         <v>419</v>
       </c>
-    </row>
-    <row r="159" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG158" s="32">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="159" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>0</v>
       </c>
@@ -19820,8 +20370,11 @@
       <c r="AF159" s="4">
         <v>45968</v>
       </c>
-    </row>
-    <row r="160" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG159" s="4">
+        <v>50756</v>
+      </c>
+    </row>
+    <row r="160" spans="1:33" x14ac:dyDescent="0.25">
       <c r="AB160" s="21"/>
     </row>
   </sheetData>

--- a/refreshed_daily_cases.xlsx
+++ b/refreshed_daily_cases.xlsx
@@ -1325,7 +1325,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1708,7 +1708,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
@@ -2510,6 +2510,7 @@
       <c r="C76" s="33">
         <v>51608</v>
       </c>
+      <c r="E76" s="31"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
@@ -2521,6 +2522,7 @@
       <c r="C77" s="33">
         <v>55242</v>
       </c>
+      <c r="E77" s="31"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
@@ -2531,6 +2533,29 @@
       </c>
       <c r="C78" s="33">
         <v>60733</v>
+      </c>
+      <c r="E78" s="31"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="23">
+        <v>43930</v>
+      </c>
+      <c r="B79" s="33">
+        <v>4344</v>
+      </c>
+      <c r="C79" s="33">
+        <v>65077</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="23">
+        <v>43931</v>
+      </c>
+      <c r="B80" s="33">
+        <v>5195</v>
+      </c>
+      <c r="C80" s="33">
+        <v>70272</v>
       </c>
     </row>
   </sheetData>
@@ -2540,7 +2565,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -3174,7 +3199,37 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="35"/>
+      <c r="A39" s="16">
+        <v>43930</v>
+      </c>
+      <c r="B39" s="34">
+        <v>980</v>
+      </c>
+      <c r="C39" s="34">
+        <v>8958</v>
+      </c>
+      <c r="D39" s="34">
+        <v>8114</v>
+      </c>
+      <c r="E39" s="34">
+        <v>447</v>
+      </c>
+      <c r="F39" s="34">
+        <v>315</v>
+      </c>
+      <c r="G39" s="34">
+        <v>82</v>
+      </c>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3186,7 +3241,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG13"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -3206,45 +3261,47 @@
     <col min="25" max="29" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="30" max="32" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="10.7109375" style="21" customWidth="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>325</v>
       </c>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>324</v>
       </c>
       <c r="B4" s="11"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>326</v>
       </c>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>327</v>
       </c>
       <c r="B6" s="11"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -3344,8 +3401,14 @@
       <c r="AG8" s="3">
         <v>43929</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH8" s="3">
+        <v>43930</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
@@ -3445,8 +3508,14 @@
       <c r="AG9" s="26">
         <v>50756</v>
       </c>
-    </row>
-    <row r="10" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH9" s="26">
+        <v>54554</v>
+      </c>
+      <c r="AI9" s="26">
+        <v>58817</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
@@ -3544,8 +3613,14 @@
       <c r="AG10" s="32">
         <v>4565</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH10" s="32">
+        <v>4957</v>
+      </c>
+      <c r="AI10" s="32">
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
@@ -3643,8 +3718,14 @@
       <c r="AG11" s="32">
         <v>4073</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH11" s="32">
+        <v>4089</v>
+      </c>
+      <c r="AI11" s="32">
+        <v>4591</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>6</v>
       </c>
@@ -3742,8 +3823,14 @@
       <c r="AG12" s="32">
         <v>1339</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH12" s="32">
+        <v>1477</v>
+      </c>
+      <c r="AI12" s="32">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>8</v>
@@ -3838,6 +3925,12 @@
       </c>
       <c r="AG13" s="4">
         <v>60733</v>
+      </c>
+      <c r="AH13" s="4">
+        <v>65077</v>
+      </c>
+      <c r="AI13" s="4">
+        <v>65077</v>
       </c>
     </row>
   </sheetData>
@@ -3851,10 +3944,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG17"/>
+  <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A7" sqref="A7"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -3867,42 +3961,43 @@
     <col min="22" max="24" width="10.7109375" style="21" customWidth="1"/>
     <col min="25" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="28" max="30" width="10.7109375" style="21" customWidth="1"/>
-    <col min="31" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="34" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>325</v>
       </c>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>333</v>
       </c>
       <c r="B4" s="11"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>328</v>
       </c>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>327</v>
       </c>
       <c r="B6" s="11"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -3926,7 +4021,7 @@
       <c r="Z7" s="21"/>
       <c r="AA7" s="21"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -4026,8 +4121,14 @@
       <c r="AG8" s="3">
         <v>43929</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH8" s="3">
+        <v>43930</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
@@ -4125,8 +4226,14 @@
       <c r="AG9" s="6">
         <v>1991</v>
       </c>
-    </row>
-    <row r="10" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH9" s="6">
+        <v>2225</v>
+      </c>
+      <c r="AI9" s="6">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
@@ -4226,8 +4333,14 @@
       <c r="AG10" s="32">
         <v>14355</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH10" s="32">
+        <v>15217</v>
+      </c>
+      <c r="AI10" s="32">
+        <v>16011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
@@ -4327,8 +4440,14 @@
       <c r="AG11" s="32">
         <v>6238</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH11" s="32">
+        <v>6739</v>
+      </c>
+      <c r="AI11" s="32">
+        <v>7304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
@@ -4428,8 +4547,14 @@
       <c r="AG12" s="32">
         <v>2277</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH12" s="32">
+        <v>2472</v>
+      </c>
+      <c r="AI12" s="32">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -4529,8 +4654,14 @@
       <c r="AG13" s="32">
         <v>4165</v>
       </c>
-    </row>
-    <row r="14" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH13" s="32">
+        <v>4438</v>
+      </c>
+      <c r="AI13" s="32">
+        <v>4872</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
@@ -4630,8 +4761,14 @@
       <c r="AG14" s="32">
         <v>8589</v>
       </c>
-    </row>
-    <row r="15" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH14" s="32">
+        <v>9063</v>
+      </c>
+      <c r="AI14" s="32">
+        <v>9704</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
@@ -4731,8 +4868,14 @@
       <c r="AG15" s="32">
         <v>6501</v>
       </c>
-    </row>
-    <row r="16" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH15" s="32">
+        <v>7061</v>
+      </c>
+      <c r="AI15" s="32">
+        <v>7703</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>19</v>
       </c>
@@ -4832,8 +4975,14 @@
       <c r="AG16" s="32">
         <v>6640</v>
       </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH16" s="32">
+        <v>7339</v>
+      </c>
+      <c r="AI16" s="32">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
@@ -4932,6 +5081,12 @@
       </c>
       <c r="AG17" s="4">
         <v>50756</v>
+      </c>
+      <c r="AH17" s="4">
+        <v>54554</v>
+      </c>
+      <c r="AI17" s="4">
+        <v>58817</v>
       </c>
     </row>
   </sheetData>
@@ -4944,12 +5099,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG160"/>
+  <dimension ref="A1:AI160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection activeCell="A7" sqref="A7"/>
+      <selection pane="topRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -4962,42 +5118,43 @@
     <col min="25" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.7109375" customWidth="1"/>
     <col min="29" max="30" width="10.7109375" style="21" customWidth="1"/>
-    <col min="31" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="34" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>325</v>
       </c>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>333</v>
       </c>
       <c r="B4" s="11"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>328</v>
       </c>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>327</v>
       </c>
       <c r="B6" s="11"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5022,7 +5179,7 @@
       <c r="AA7" s="21"/>
       <c r="AB7" s="21"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -5122,8 +5279,14 @@
       <c r="AG8" s="3">
         <v>43929</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH8" s="3">
+        <v>43930</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>43930</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
@@ -5223,8 +5386,14 @@
       <c r="AG9" s="6">
         <v>1991</v>
       </c>
-    </row>
-    <row r="10" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH9" s="6">
+        <v>2225</v>
+      </c>
+      <c r="AI9" s="6">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>286</v>
       </c>
@@ -5324,8 +5493,14 @@
       <c r="AG10" s="32">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH10" s="32">
+        <v>55</v>
+      </c>
+      <c r="AI10" s="32">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>316</v>
       </c>
@@ -5425,8 +5600,14 @@
       <c r="AG11" s="32">
         <v>196</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH11" s="32">
+        <v>213</v>
+      </c>
+      <c r="AI11" s="32">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>312</v>
       </c>
@@ -5526,8 +5707,14 @@
       <c r="AG12" s="32">
         <v>119</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH12" s="32">
+        <v>128</v>
+      </c>
+      <c r="AI12" s="32">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>186</v>
       </c>
@@ -5627,8 +5814,14 @@
       <c r="AG13" s="32">
         <v>143</v>
       </c>
-    </row>
-    <row r="14" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH13" s="32">
+        <v>152</v>
+      </c>
+      <c r="AI13" s="32">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>290</v>
       </c>
@@ -5728,8 +5921,14 @@
       <c r="AG14" s="32">
         <v>77</v>
       </c>
-    </row>
-    <row r="15" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH14" s="32">
+        <v>95</v>
+      </c>
+      <c r="AI14" s="32">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>254</v>
       </c>
@@ -5829,8 +6028,14 @@
       <c r="AG15" s="32">
         <v>127</v>
       </c>
-    </row>
-    <row r="16" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH15" s="32">
+        <v>148</v>
+      </c>
+      <c r="AI15" s="32">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>258</v>
       </c>
@@ -5930,8 +6135,14 @@
       <c r="AG16" s="32">
         <v>182</v>
       </c>
-    </row>
-    <row r="17" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH16" s="32">
+        <v>211</v>
+      </c>
+      <c r="AI16" s="32">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>304</v>
       </c>
@@ -6031,8 +6242,14 @@
       <c r="AG17" s="32">
         <v>92</v>
       </c>
-    </row>
-    <row r="18" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH17" s="32">
+        <v>95</v>
+      </c>
+      <c r="AI17" s="32">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>282</v>
       </c>
@@ -6132,8 +6349,14 @@
       <c r="AG18" s="32">
         <v>94</v>
       </c>
-    </row>
-    <row r="19" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH18" s="32">
+        <v>98</v>
+      </c>
+      <c r="AI18" s="32">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>308</v>
       </c>
@@ -6233,8 +6456,14 @@
       <c r="AG19" s="32">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH19" s="32">
+        <v>74</v>
+      </c>
+      <c r="AI19" s="32">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>180</v>
       </c>
@@ -6334,8 +6563,14 @@
       <c r="AG20" s="32">
         <v>123</v>
       </c>
-    </row>
-    <row r="21" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH20" s="32">
+        <v>150</v>
+      </c>
+      <c r="AI20" s="32">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>318</v>
       </c>
@@ -6435,8 +6670,14 @@
       <c r="AG21" s="32">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH21" s="32">
+        <v>58</v>
+      </c>
+      <c r="AI21" s="32">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>310</v>
       </c>
@@ -6536,8 +6777,14 @@
       <c r="AG22" s="32">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH22" s="32">
+        <v>71</v>
+      </c>
+      <c r="AI22" s="32">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>244</v>
       </c>
@@ -6637,8 +6884,14 @@
       <c r="AG23" s="32">
         <v>87</v>
       </c>
-    </row>
-    <row r="24" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH23" s="32">
+        <v>101</v>
+      </c>
+      <c r="AI23" s="32">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>196</v>
       </c>
@@ -6738,8 +6991,14 @@
       <c r="AG24" s="32">
         <v>300</v>
       </c>
-    </row>
-    <row r="25" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH24" s="32">
+        <v>303</v>
+      </c>
+      <c r="AI24" s="32">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>238</v>
       </c>
@@ -6839,8 +7098,14 @@
       <c r="AG25" s="32">
         <v>250</v>
       </c>
-    </row>
-    <row r="26" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH25" s="32">
+        <v>287</v>
+      </c>
+      <c r="AI25" s="32">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>320</v>
       </c>
@@ -6940,8 +7205,14 @@
       <c r="AG26" s="32">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH26" s="32">
+        <v>8</v>
+      </c>
+      <c r="AI26" s="32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>144</v>
       </c>
@@ -7041,8 +7312,14 @@
       <c r="AG27" s="32">
         <v>232</v>
       </c>
-    </row>
-    <row r="28" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH27" s="32">
+        <v>261</v>
+      </c>
+      <c r="AI27" s="32">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>274</v>
       </c>
@@ -7142,8 +7419,14 @@
       <c r="AG28" s="32">
         <v>81</v>
       </c>
-    </row>
-    <row r="29" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH28" s="32">
+        <v>84</v>
+      </c>
+      <c r="AI28" s="32">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>322</v>
       </c>
@@ -7243,8 +7526,14 @@
       <c r="AG29" s="32">
         <v>96</v>
       </c>
-    </row>
-    <row r="30" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH29" s="32">
+        <v>102</v>
+      </c>
+      <c r="AI29" s="32">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>288</v>
       </c>
@@ -7344,8 +7633,14 @@
       <c r="AG30" s="32">
         <v>130</v>
       </c>
-    </row>
-    <row r="31" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH30" s="32">
+        <v>136</v>
+      </c>
+      <c r="AI30" s="32">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>246</v>
       </c>
@@ -7445,8 +7740,14 @@
       <c r="AG31" s="32">
         <v>77</v>
       </c>
-    </row>
-    <row r="32" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH31" s="32">
+        <v>84</v>
+      </c>
+      <c r="AI31" s="32">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>166</v>
       </c>
@@ -7546,8 +7847,14 @@
       <c r="AG32" s="32">
         <v>234</v>
       </c>
-    </row>
-    <row r="33" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH32" s="32">
+        <v>245</v>
+      </c>
+      <c r="AI32" s="32">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>256</v>
       </c>
@@ -7647,8 +7954,14 @@
       <c r="AG33" s="32">
         <v>91</v>
       </c>
-    </row>
-    <row r="34" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH33" s="32">
+        <v>96</v>
+      </c>
+      <c r="AI33" s="32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>160</v>
       </c>
@@ -7748,8 +8061,14 @@
       <c r="AG34" s="32">
         <v>155</v>
       </c>
-    </row>
-    <row r="35" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH34" s="32">
+        <v>165</v>
+      </c>
+      <c r="AI34" s="32">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>216</v>
       </c>
@@ -7849,8 +8168,14 @@
       <c r="AG35" s="32">
         <v>110</v>
       </c>
-    </row>
-    <row r="36" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH35" s="32">
+        <v>112</v>
+      </c>
+      <c r="AI35" s="32">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>202</v>
       </c>
@@ -7950,8 +8275,14 @@
       <c r="AG36" s="32">
         <v>64</v>
       </c>
-    </row>
-    <row r="37" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH36" s="32">
+        <v>66</v>
+      </c>
+      <c r="AI36" s="32">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>250</v>
       </c>
@@ -8051,8 +8382,14 @@
       <c r="AG37" s="32">
         <v>88</v>
       </c>
-    </row>
-    <row r="38" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH37" s="32">
+        <v>111</v>
+      </c>
+      <c r="AI37" s="32">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>294</v>
       </c>
@@ -8152,8 +8489,14 @@
       <c r="AG38" s="32">
         <v>80</v>
       </c>
-    </row>
-    <row r="39" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH38" s="32">
+        <v>85</v>
+      </c>
+      <c r="AI38" s="32">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>276</v>
       </c>
@@ -8253,8 +8596,14 @@
       <c r="AG39" s="32">
         <v>205</v>
       </c>
-    </row>
-    <row r="40" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH39" s="32">
+        <v>218</v>
+      </c>
+      <c r="AI39" s="32">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>262</v>
       </c>
@@ -8354,8 +8703,14 @@
       <c r="AG40" s="32">
         <v>156</v>
       </c>
-    </row>
-    <row r="41" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH40" s="32">
+        <v>160</v>
+      </c>
+      <c r="AI40" s="32">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>268</v>
       </c>
@@ -8455,8 +8810,14 @@
       <c r="AG41" s="32">
         <v>134</v>
       </c>
-    </row>
-    <row r="42" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH41" s="32">
+        <v>145</v>
+      </c>
+      <c r="AI41" s="32">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>198</v>
       </c>
@@ -8556,8 +8917,14 @@
       <c r="AG42" s="32">
         <v>232</v>
       </c>
-    </row>
-    <row r="43" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH42" s="32">
+        <v>236</v>
+      </c>
+      <c r="AI42" s="32">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>270</v>
       </c>
@@ -8657,8 +9024,14 @@
       <c r="AG43" s="32">
         <v>79</v>
       </c>
-    </row>
-    <row r="44" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH43" s="32">
+        <v>90</v>
+      </c>
+      <c r="AI43" s="32">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>280</v>
       </c>
@@ -8758,8 +9131,14 @@
       <c r="AG44" s="32">
         <v>121</v>
       </c>
-    </row>
-    <row r="45" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH44" s="32">
+        <v>131</v>
+      </c>
+      <c r="AI44" s="32">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>218</v>
       </c>
@@ -8859,8 +9238,14 @@
       <c r="AG45" s="32">
         <v>129</v>
       </c>
-    </row>
-    <row r="46" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH45" s="32">
+        <v>141</v>
+      </c>
+      <c r="AI45" s="32">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>116</v>
       </c>
@@ -8960,8 +9345,14 @@
       <c r="AG46" s="32">
         <v>169</v>
       </c>
-    </row>
-    <row r="47" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH46" s="32">
+        <v>194</v>
+      </c>
+      <c r="AI46" s="32">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>150</v>
       </c>
@@ -9061,8 +9452,14 @@
       <c r="AG47" s="32">
         <v>117</v>
       </c>
-    </row>
-    <row r="48" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH47" s="32">
+        <v>126</v>
+      </c>
+      <c r="AI47" s="32">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>194</v>
       </c>
@@ -9162,8 +9559,14 @@
       <c r="AG48" s="32">
         <v>129</v>
       </c>
-    </row>
-    <row r="49" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH48" s="32">
+        <v>142</v>
+      </c>
+      <c r="AI48" s="32">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>240</v>
       </c>
@@ -9263,8 +9666,14 @@
       <c r="AG49" s="32">
         <v>195</v>
       </c>
-    </row>
-    <row r="50" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH49" s="32">
+        <v>221</v>
+      </c>
+      <c r="AI49" s="32">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>164</v>
       </c>
@@ -9364,8 +9773,14 @@
       <c r="AG50" s="32">
         <v>153</v>
       </c>
-    </row>
-    <row r="51" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH50" s="32">
+        <v>165</v>
+      </c>
+      <c r="AI50" s="32">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>242</v>
       </c>
@@ -9465,8 +9880,14 @@
       <c r="AG51" s="32">
         <v>130</v>
       </c>
-    </row>
-    <row r="52" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH51" s="32">
+        <v>136</v>
+      </c>
+      <c r="AI51" s="32">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>210</v>
       </c>
@@ -9566,8 +9987,14 @@
       <c r="AG52" s="32">
         <v>191</v>
       </c>
-    </row>
-    <row r="53" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH52" s="32">
+        <v>192</v>
+      </c>
+      <c r="AI52" s="32">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>292</v>
       </c>
@@ -9667,8 +10094,14 @@
       <c r="AG53" s="32">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH53" s="32">
+        <v>41</v>
+      </c>
+      <c r="AI53" s="32">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>236</v>
       </c>
@@ -9768,8 +10201,14 @@
       <c r="AG54" s="32">
         <v>410</v>
       </c>
-    </row>
-    <row r="55" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH54" s="32">
+        <v>450</v>
+      </c>
+      <c r="AI54" s="32">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>192</v>
       </c>
@@ -9869,8 +10308,14 @@
       <c r="AG55" s="32">
         <v>226</v>
       </c>
-    </row>
-    <row r="56" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH55" s="32">
+        <v>257</v>
+      </c>
+      <c r="AI55" s="32">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>212</v>
       </c>
@@ -9970,8 +10415,14 @@
       <c r="AG56" s="32">
         <v>261</v>
       </c>
-    </row>
-    <row r="57" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH56" s="32">
+        <v>289</v>
+      </c>
+      <c r="AI56" s="32">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>278</v>
       </c>
@@ -10071,8 +10522,14 @@
       <c r="AG57" s="32">
         <v>174</v>
       </c>
-    </row>
-    <row r="58" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH57" s="32">
+        <v>184</v>
+      </c>
+      <c r="AI57" s="32">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>178</v>
       </c>
@@ -10172,8 +10629,14 @@
       <c r="AG58" s="32">
         <v>224</v>
       </c>
-    </row>
-    <row r="59" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH58" s="32">
+        <v>246</v>
+      </c>
+      <c r="AI58" s="32">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>162</v>
       </c>
@@ -10273,8 +10736,14 @@
       <c r="AG59" s="32">
         <v>180</v>
       </c>
-    </row>
-    <row r="60" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH59" s="32">
+        <v>195</v>
+      </c>
+      <c r="AI59" s="32">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>302</v>
       </c>
@@ -10374,8 +10843,14 @@
       <c r="AG60" s="32">
         <v>135</v>
       </c>
-    </row>
-    <row r="61" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH60" s="32">
+        <v>139</v>
+      </c>
+      <c r="AI60" s="32">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>222</v>
       </c>
@@ -10475,8 +10950,14 @@
       <c r="AG61" s="32">
         <v>173</v>
       </c>
-    </row>
-    <row r="62" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH61" s="32">
+        <v>190</v>
+      </c>
+      <c r="AI61" s="32">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>230</v>
       </c>
@@ -10576,8 +11057,14 @@
       <c r="AG62" s="32">
         <v>272</v>
       </c>
-    </row>
-    <row r="63" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH62" s="32">
+        <v>298</v>
+      </c>
+      <c r="AI62" s="32">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>190</v>
       </c>
@@ -10677,8 +11164,14 @@
       <c r="AG63" s="32">
         <v>127</v>
       </c>
-    </row>
-    <row r="64" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH63" s="32">
+        <v>131</v>
+      </c>
+      <c r="AI63" s="32">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="64" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>214</v>
       </c>
@@ -10778,8 +11271,14 @@
       <c r="AG64" s="32">
         <v>136</v>
       </c>
-    </row>
-    <row r="65" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH64" s="32">
+        <v>142</v>
+      </c>
+      <c r="AI64" s="32">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>188</v>
       </c>
@@ -10879,8 +11378,14 @@
       <c r="AG65" s="32">
         <v>204</v>
       </c>
-    </row>
-    <row r="66" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH65" s="32">
+        <v>223</v>
+      </c>
+      <c r="AI65" s="32">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>204</v>
       </c>
@@ -10980,8 +11485,14 @@
       <c r="AG66" s="32">
         <v>166</v>
       </c>
-    </row>
-    <row r="67" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH66" s="32">
+        <v>177</v>
+      </c>
+      <c r="AI66" s="32">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>106</v>
       </c>
@@ -11081,8 +11592,14 @@
       <c r="AG67" s="32">
         <v>395</v>
       </c>
-    </row>
-    <row r="68" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH67" s="32">
+        <v>454</v>
+      </c>
+      <c r="AI67" s="32">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>138</v>
       </c>
@@ -11182,8 +11699,14 @@
       <c r="AG68" s="32">
         <v>248</v>
       </c>
-    </row>
-    <row r="69" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH68" s="32">
+        <v>267</v>
+      </c>
+      <c r="AI68" s="32">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>184</v>
       </c>
@@ -11283,8 +11806,14 @@
       <c r="AG69" s="32">
         <v>195</v>
       </c>
-    </row>
-    <row r="70" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH69" s="32">
+        <v>209</v>
+      </c>
+      <c r="AI69" s="32">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>182</v>
       </c>
@@ -11384,8 +11913,14 @@
       <c r="AG70" s="32">
         <v>273</v>
       </c>
-    </row>
-    <row r="71" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH70" s="32">
+        <v>285</v>
+      </c>
+      <c r="AI70" s="32">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>146</v>
       </c>
@@ -11485,8 +12020,14 @@
       <c r="AG71" s="32">
         <v>298</v>
       </c>
-    </row>
-    <row r="72" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH71" s="32">
+        <v>338</v>
+      </c>
+      <c r="AI71" s="32">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="72" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>142</v>
       </c>
@@ -11586,8 +12127,14 @@
       <c r="AG72" s="32">
         <v>191</v>
       </c>
-    </row>
-    <row r="73" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH72" s="32">
+        <v>217</v>
+      </c>
+      <c r="AI72" s="32">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="73" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>156</v>
       </c>
@@ -11687,8 +12234,14 @@
       <c r="AG73" s="32">
         <v>257</v>
       </c>
-    </row>
-    <row r="74" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH73" s="32">
+        <v>272</v>
+      </c>
+      <c r="AI73" s="32">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="74" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>260</v>
       </c>
@@ -11788,8 +12341,14 @@
       <c r="AG74" s="32">
         <v>209</v>
       </c>
-    </row>
-    <row r="75" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH74" s="32">
+        <v>223</v>
+      </c>
+      <c r="AI74" s="32">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="75" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>264</v>
       </c>
@@ -11889,8 +12448,14 @@
       <c r="AG75" s="32">
         <v>198</v>
       </c>
-    </row>
-    <row r="76" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH75" s="32">
+        <v>227</v>
+      </c>
+      <c r="AI75" s="32">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="76" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>154</v>
       </c>
@@ -11990,8 +12555,14 @@
       <c r="AG76" s="32">
         <v>587</v>
       </c>
-    </row>
-    <row r="77" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH76" s="32">
+        <v>634</v>
+      </c>
+      <c r="AI76" s="32">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="77" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>298</v>
       </c>
@@ -12091,8 +12662,14 @@
       <c r="AG77" s="32">
         <v>269</v>
       </c>
-    </row>
-    <row r="78" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH77" s="32">
+        <v>306</v>
+      </c>
+      <c r="AI77" s="32">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="78" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>232</v>
       </c>
@@ -12192,8 +12769,14 @@
       <c r="AG78" s="32">
         <v>306</v>
       </c>
-    </row>
-    <row r="79" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH78" s="32">
+        <v>351</v>
+      </c>
+      <c r="AI78" s="32">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="79" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>208</v>
       </c>
@@ -12293,8 +12876,14 @@
       <c r="AG79" s="32">
         <v>288</v>
       </c>
-    </row>
-    <row r="80" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH79" s="32">
+        <v>353</v>
+      </c>
+      <c r="AI79" s="32">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="80" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>220</v>
       </c>
@@ -12394,8 +12983,14 @@
       <c r="AG80" s="32">
         <v>238</v>
       </c>
-    </row>
-    <row r="81" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH80" s="32">
+        <v>248</v>
+      </c>
+      <c r="AI80" s="32">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="81" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>300</v>
       </c>
@@ -12495,8 +13090,14 @@
       <c r="AG81" s="32">
         <v>168</v>
       </c>
-    </row>
-    <row r="82" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH81" s="32">
+        <v>170</v>
+      </c>
+      <c r="AI81" s="32">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="82" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>284</v>
       </c>
@@ -12596,8 +13197,14 @@
       <c r="AG82" s="32">
         <v>240</v>
       </c>
-    </row>
-    <row r="83" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH82" s="32">
+        <v>262</v>
+      </c>
+      <c r="AI82" s="32">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="83" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>54</v>
       </c>
@@ -12697,8 +13304,14 @@
       <c r="AG83" s="32">
         <v>940</v>
       </c>
-    </row>
-    <row r="84" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH83" s="32">
+        <v>1020</v>
+      </c>
+      <c r="AI83" s="32">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="84" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>108</v>
       </c>
@@ -12798,8 +13411,14 @@
       <c r="AG84" s="32">
         <v>432</v>
       </c>
-    </row>
-    <row r="85" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH84" s="32">
+        <v>464</v>
+      </c>
+      <c r="AI84" s="32">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="85" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>174</v>
       </c>
@@ -12899,8 +13518,14 @@
       <c r="AG85" s="32">
         <v>242</v>
       </c>
-    </row>
-    <row r="86" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH85" s="32">
+        <v>262</v>
+      </c>
+      <c r="AI85" s="32">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="86" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>296</v>
       </c>
@@ -13000,8 +13625,14 @@
       <c r="AG86" s="32">
         <v>118</v>
       </c>
-    </row>
-    <row r="87" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH86" s="32">
+        <v>120</v>
+      </c>
+      <c r="AI86" s="32">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>248</v>
       </c>
@@ -13101,8 +13732,14 @@
       <c r="AG87" s="32">
         <v>343</v>
       </c>
-    </row>
-    <row r="88" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH87" s="32">
+        <v>349</v>
+      </c>
+      <c r="AI87" s="32">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="88" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>68</v>
       </c>
@@ -13202,8 +13839,14 @@
       <c r="AG88" s="32">
         <v>1462</v>
       </c>
-    </row>
-    <row r="89" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH88" s="32">
+        <v>1524</v>
+      </c>
+      <c r="AI88" s="32">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="89" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>252</v>
       </c>
@@ -13303,8 +13946,14 @@
       <c r="AG89" s="32">
         <v>295</v>
       </c>
-    </row>
-    <row r="90" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH89" s="32">
+        <v>299</v>
+      </c>
+      <c r="AI89" s="32">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="90" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>170</v>
       </c>
@@ -13404,8 +14053,14 @@
       <c r="AG90" s="32">
         <v>341</v>
       </c>
-    </row>
-    <row r="91" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH90" s="32">
+        <v>358</v>
+      </c>
+      <c r="AI90" s="32">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="91" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>224</v>
       </c>
@@ -13505,8 +14160,14 @@
       <c r="AG91" s="32">
         <v>399</v>
       </c>
-    </row>
-    <row r="92" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH91" s="32">
+        <v>435</v>
+      </c>
+      <c r="AI91" s="32">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="92" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>314</v>
       </c>
@@ -13606,8 +14267,14 @@
       <c r="AG92" s="32">
         <v>259</v>
       </c>
-    </row>
-    <row r="93" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH92" s="32">
+        <v>268</v>
+      </c>
+      <c r="AI92" s="32">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="93" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>124</v>
       </c>
@@ -13707,8 +14374,14 @@
       <c r="AG93" s="32">
         <v>421</v>
       </c>
-    </row>
-    <row r="94" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH93" s="32">
+        <v>436</v>
+      </c>
+      <c r="AI93" s="32">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="94" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>92</v>
       </c>
@@ -13808,8 +14481,14 @@
       <c r="AG94" s="32">
         <v>354</v>
       </c>
-    </row>
-    <row r="95" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH94" s="32">
+        <v>368</v>
+      </c>
+      <c r="AI94" s="32">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="95" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>228</v>
       </c>
@@ -13909,8 +14588,14 @@
       <c r="AG95" s="32">
         <v>258</v>
       </c>
-    </row>
-    <row r="96" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH95" s="32">
+        <v>278</v>
+      </c>
+      <c r="AI95" s="32">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="96" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>272</v>
       </c>
@@ -14010,8 +14695,14 @@
       <c r="AG96" s="32">
         <v>110</v>
       </c>
-    </row>
-    <row r="97" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH96" s="32">
+        <v>119</v>
+      </c>
+      <c r="AI96" s="32">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>266</v>
       </c>
@@ -14111,8 +14802,14 @@
       <c r="AG97" s="32">
         <v>235</v>
       </c>
-    </row>
-    <row r="98" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH97" s="32">
+        <v>255</v>
+      </c>
+      <c r="AI97" s="32">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="98" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>130</v>
       </c>
@@ -14212,8 +14909,14 @@
       <c r="AG98" s="32">
         <v>389</v>
       </c>
-    </row>
-    <row r="99" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH98" s="32">
+        <v>437</v>
+      </c>
+      <c r="AI98" s="32">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="99" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>234</v>
       </c>
@@ -14313,8 +15016,14 @@
       <c r="AG99" s="32">
         <v>200</v>
       </c>
-    </row>
-    <row r="100" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH99" s="32">
+        <v>229</v>
+      </c>
+      <c r="AI99" s="32">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="100" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>306</v>
       </c>
@@ -14414,8 +15123,14 @@
       <c r="AG100" s="32">
         <v>230</v>
       </c>
-    </row>
-    <row r="101" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH100" s="32">
+        <v>240</v>
+      </c>
+      <c r="AI100" s="32">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="101" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>112</v>
       </c>
@@ -14515,8 +15230,14 @@
       <c r="AG101" s="32">
         <v>249</v>
       </c>
-    </row>
-    <row r="102" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH101" s="32">
+        <v>269</v>
+      </c>
+      <c r="AI101" s="32">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="102" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>96</v>
       </c>
@@ -14616,8 +15337,14 @@
       <c r="AG102" s="32">
         <v>752</v>
       </c>
-    </row>
-    <row r="103" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH102" s="32">
+        <v>788</v>
+      </c>
+      <c r="AI102" s="32">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="103" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>104</v>
       </c>
@@ -14717,8 +15444,14 @@
       <c r="AG103" s="32">
         <v>303</v>
       </c>
-    </row>
-    <row r="104" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH103" s="32">
+        <v>343</v>
+      </c>
+      <c r="AI103" s="32">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="104" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>36</v>
       </c>
@@ -14818,8 +15551,14 @@
       <c r="AG104" s="32">
         <v>853</v>
       </c>
-    </row>
-    <row r="105" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH104" s="32">
+        <v>880</v>
+      </c>
+      <c r="AI104" s="32">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="105" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>52</v>
       </c>
@@ -14919,8 +15658,14 @@
       <c r="AG105" s="32">
         <v>583</v>
       </c>
-    </row>
-    <row r="106" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH105" s="32">
+        <v>620</v>
+      </c>
+      <c r="AI105" s="32">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="106" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>64</v>
       </c>
@@ -15020,8 +15765,14 @@
       <c r="AG106" s="32">
         <v>343</v>
       </c>
-    </row>
-    <row r="107" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH106" s="32">
+        <v>356</v>
+      </c>
+      <c r="AI106" s="32">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="107" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>46</v>
       </c>
@@ -15121,8 +15872,14 @@
       <c r="AG107" s="32">
         <v>763</v>
       </c>
-    </row>
-    <row r="108" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH107" s="32">
+        <v>813</v>
+      </c>
+      <c r="AI107" s="32">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="108" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>42</v>
       </c>
@@ -15222,8 +15979,14 @@
       <c r="AG108" s="32">
         <v>553</v>
       </c>
-    </row>
-    <row r="109" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH108" s="32">
+        <v>589</v>
+      </c>
+      <c r="AI108" s="32">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="109" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>84</v>
       </c>
@@ -15323,8 +16086,14 @@
       <c r="AG109" s="32">
         <v>392</v>
       </c>
-    </row>
-    <row r="110" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH109" s="32">
+        <v>414</v>
+      </c>
+      <c r="AI109" s="32">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="110" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>72</v>
       </c>
@@ -15424,8 +16193,14 @@
       <c r="AG110" s="32">
         <v>378</v>
       </c>
-    </row>
-    <row r="111" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH110" s="32">
+        <v>410</v>
+      </c>
+      <c r="AI110" s="32">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="111" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>78</v>
       </c>
@@ -15525,8 +16300,14 @@
       <c r="AG111" s="32">
         <v>412</v>
       </c>
-    </row>
-    <row r="112" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH111" s="32">
+        <v>444</v>
+      </c>
+      <c r="AI111" s="32">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="112" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>94</v>
       </c>
@@ -15626,8 +16407,14 @@
       <c r="AG112" s="32">
         <v>295</v>
       </c>
-    </row>
-    <row r="113" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH112" s="32">
+        <v>313</v>
+      </c>
+      <c r="AI112" s="32">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="113" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>80</v>
       </c>
@@ -15727,8 +16514,14 @@
       <c r="AG113" s="32">
         <v>324</v>
       </c>
-    </row>
-    <row r="114" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH113" s="32">
+        <v>333</v>
+      </c>
+      <c r="AI113" s="32">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="114" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>40</v>
       </c>
@@ -15828,8 +16621,14 @@
       <c r="AG114" s="32">
         <v>530</v>
       </c>
-    </row>
-    <row r="115" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH114" s="32">
+        <v>549</v>
+      </c>
+      <c r="AI114" s="32">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="115" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>134</v>
       </c>
@@ -15929,8 +16728,14 @@
       <c r="AG115" s="32">
         <v>299</v>
       </c>
-    </row>
-    <row r="116" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH115" s="32">
+        <v>342</v>
+      </c>
+      <c r="AI115" s="32">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="116" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>86</v>
       </c>
@@ -16030,8 +16835,14 @@
       <c r="AG116" s="32">
         <v>389</v>
       </c>
-    </row>
-    <row r="117" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH116" s="32">
+        <v>410</v>
+      </c>
+      <c r="AI116" s="32">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="117" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>88</v>
       </c>
@@ -16131,8 +16942,14 @@
       <c r="AG117" s="32">
         <v>380</v>
       </c>
-    </row>
-    <row r="118" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH117" s="32">
+        <v>396</v>
+      </c>
+      <c r="AI117" s="32">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="118" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>66</v>
       </c>
@@ -16232,8 +17049,14 @@
       <c r="AG118" s="32">
         <v>276</v>
       </c>
-    </row>
-    <row r="119" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH118" s="32">
+        <v>279</v>
+      </c>
+      <c r="AI118" s="32">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="119" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>38</v>
       </c>
@@ -16333,8 +17156,14 @@
       <c r="AG119" s="32">
         <v>286</v>
       </c>
-    </row>
-    <row r="120" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH119" s="32">
+        <v>301</v>
+      </c>
+      <c r="AI119" s="32">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="120" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>136</v>
       </c>
@@ -16434,8 +17263,14 @@
       <c r="AG120" s="32">
         <v>212</v>
       </c>
-    </row>
-    <row r="121" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH120" s="32">
+        <v>229</v>
+      </c>
+      <c r="AI120" s="32">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="121" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>30</v>
       </c>
@@ -16535,8 +17370,14 @@
       <c r="AG121" s="32">
         <v>731</v>
       </c>
-    </row>
-    <row r="122" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH121" s="32">
+        <v>766</v>
+      </c>
+      <c r="AI121" s="32">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="122" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>56</v>
       </c>
@@ -16636,8 +17477,14 @@
       <c r="AG122" s="32">
         <v>554</v>
       </c>
-    </row>
-    <row r="123" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH122" s="32">
+        <v>617</v>
+      </c>
+      <c r="AI122" s="32">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="123" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>60</v>
       </c>
@@ -16737,8 +17584,14 @@
       <c r="AG123" s="32">
         <v>386</v>
       </c>
-    </row>
-    <row r="124" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH123" s="32">
+        <v>417</v>
+      </c>
+      <c r="AI123" s="32">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="124" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>76</v>
       </c>
@@ -16838,8 +17691,14 @@
       <c r="AG124" s="32">
         <v>608</v>
       </c>
-    </row>
-    <row r="125" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH124" s="32">
+        <v>642</v>
+      </c>
+      <c r="AI124" s="32">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="125" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>110</v>
       </c>
@@ -16939,8 +17798,14 @@
       <c r="AG125" s="32">
         <v>366</v>
       </c>
-    </row>
-    <row r="126" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH125" s="32">
+        <v>400</v>
+      </c>
+      <c r="AI125" s="32">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="126" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>158</v>
       </c>
@@ -17040,8 +17905,14 @@
       <c r="AG126" s="32">
         <v>223</v>
       </c>
-    </row>
-    <row r="127" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH126" s="32">
+        <v>235</v>
+      </c>
+      <c r="AI126" s="32">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="127" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>28</v>
       </c>
@@ -17141,8 +18012,14 @@
       <c r="AG127" s="32">
         <v>755</v>
       </c>
-    </row>
-    <row r="128" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH127" s="32">
+        <v>794</v>
+      </c>
+      <c r="AI127" s="32">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="128" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>140</v>
       </c>
@@ -17242,8 +18119,14 @@
       <c r="AG128" s="32">
         <v>299</v>
       </c>
-    </row>
-    <row r="129" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH128" s="32">
+        <v>324</v>
+      </c>
+      <c r="AI128" s="32">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="129" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>74</v>
       </c>
@@ -17343,8 +18226,14 @@
       <c r="AG129" s="32">
         <v>406</v>
       </c>
-    </row>
-    <row r="130" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH129" s="32">
+        <v>428</v>
+      </c>
+      <c r="AI129" s="32">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="130" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>120</v>
       </c>
@@ -17444,8 +18333,14 @@
       <c r="AG130" s="32">
         <v>443</v>
       </c>
-    </row>
-    <row r="131" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH130" s="32">
+        <v>463</v>
+      </c>
+      <c r="AI130" s="32">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="131" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>34</v>
       </c>
@@ -17545,8 +18440,14 @@
       <c r="AG131" s="32">
         <v>592</v>
       </c>
-    </row>
-    <row r="132" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH131" s="32">
+        <v>625</v>
+      </c>
+      <c r="AI131" s="32">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="132" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>32</v>
       </c>
@@ -17646,8 +18547,14 @@
       <c r="AG132" s="32">
         <v>420</v>
       </c>
-    </row>
-    <row r="133" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH132" s="32">
+        <v>428</v>
+      </c>
+      <c r="AI132" s="32">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="133" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>58</v>
       </c>
@@ -17747,8 +18654,14 @@
       <c r="AG133" s="32">
         <v>342</v>
       </c>
-    </row>
-    <row r="134" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH133" s="32">
+        <v>364</v>
+      </c>
+      <c r="AI133" s="32">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="134" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>132</v>
       </c>
@@ -17848,8 +18761,14 @@
       <c r="AG134" s="32">
         <v>278</v>
       </c>
-    </row>
-    <row r="135" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH134" s="32">
+        <v>290</v>
+      </c>
+      <c r="AI134" s="32">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="135" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>62</v>
       </c>
@@ -17949,8 +18868,14 @@
       <c r="AG135" s="32">
         <v>864</v>
       </c>
-    </row>
-    <row r="136" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH135" s="32">
+        <v>936</v>
+      </c>
+      <c r="AI135" s="32">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="136" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>50</v>
       </c>
@@ -18050,8 +18975,14 @@
       <c r="AG136" s="32">
         <v>555</v>
       </c>
-    </row>
-    <row r="137" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH136" s="32">
+        <v>575</v>
+      </c>
+      <c r="AI136" s="32">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="137" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>98</v>
       </c>
@@ -18151,8 +19082,14 @@
       <c r="AG137" s="32">
         <v>250</v>
       </c>
-    </row>
-    <row r="138" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH137" s="32">
+        <v>294</v>
+      </c>
+      <c r="AI137" s="32">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="138" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>206</v>
       </c>
@@ -18252,8 +19189,14 @@
       <c r="AG138" s="32">
         <v>229</v>
       </c>
-    </row>
-    <row r="139" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH138" s="32">
+        <v>279</v>
+      </c>
+      <c r="AI138" s="32">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="139" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>82</v>
       </c>
@@ -18353,8 +19296,14 @@
       <c r="AG139" s="32">
         <v>1081</v>
       </c>
-    </row>
-    <row r="140" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH139" s="32">
+        <v>1139</v>
+      </c>
+      <c r="AI139" s="32">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="140" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>128</v>
       </c>
@@ -18454,8 +19403,14 @@
       <c r="AG140" s="32">
         <v>402</v>
       </c>
-    </row>
-    <row r="141" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH140" s="32">
+        <v>429</v>
+      </c>
+      <c r="AI140" s="32">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="141" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>26</v>
       </c>
@@ -18555,8 +19510,14 @@
       <c r="AG141" s="32">
         <v>1241</v>
       </c>
-    </row>
-    <row r="142" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH141" s="32">
+        <v>1317</v>
+      </c>
+      <c r="AI141" s="32">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="142" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>44</v>
       </c>
@@ -18656,8 +19617,14 @@
       <c r="AG142" s="32">
         <v>1032</v>
       </c>
-    </row>
-    <row r="143" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH142" s="32">
+        <v>1090</v>
+      </c>
+      <c r="AI142" s="32">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="143" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>100</v>
       </c>
@@ -18757,8 +19724,14 @@
       <c r="AG143" s="32">
         <v>1033</v>
       </c>
-    </row>
-    <row r="144" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH143" s="32">
+        <v>1105</v>
+      </c>
+      <c r="AI143" s="32">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="144" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>102</v>
       </c>
@@ -18858,8 +19831,14 @@
       <c r="AG144" s="32">
         <v>1026</v>
       </c>
-    </row>
-    <row r="145" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH144" s="32">
+        <v>1111</v>
+      </c>
+      <c r="AI144" s="32">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="145" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>118</v>
       </c>
@@ -18959,8 +19938,14 @@
       <c r="AG145" s="32">
         <v>386</v>
       </c>
-    </row>
-    <row r="146" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH145" s="32">
+        <v>433</v>
+      </c>
+      <c r="AI145" s="32">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="146" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>226</v>
       </c>
@@ -19060,8 +20045,14 @@
       <c r="AG146" s="32">
         <v>319</v>
       </c>
-    </row>
-    <row r="147" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH146" s="32">
+        <v>363</v>
+      </c>
+      <c r="AI146" s="32">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="147" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>168</v>
       </c>
@@ -19161,8 +20152,14 @@
       <c r="AG147" s="32">
         <v>386</v>
       </c>
-    </row>
-    <row r="148" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH147" s="32">
+        <v>438</v>
+      </c>
+      <c r="AI147" s="32">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="148" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>126</v>
       </c>
@@ -19262,8 +20259,14 @@
       <c r="AG148" s="32">
         <v>536</v>
       </c>
-    </row>
-    <row r="149" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH148" s="32">
+        <v>547</v>
+      </c>
+      <c r="AI148" s="32">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="149" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>152</v>
       </c>
@@ -19363,8 +20366,14 @@
       <c r="AG149" s="32">
         <v>328</v>
       </c>
-    </row>
-    <row r="150" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH149" s="32">
+        <v>352</v>
+      </c>
+      <c r="AI149" s="32">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="150" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>90</v>
       </c>
@@ -19464,8 +20473,14 @@
       <c r="AG150" s="32">
         <v>509</v>
       </c>
-    </row>
-    <row r="151" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH150" s="32">
+        <v>536</v>
+      </c>
+      <c r="AI150" s="32">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="151" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>70</v>
       </c>
@@ -19565,8 +20580,14 @@
       <c r="AG151" s="32">
         <v>533</v>
       </c>
-    </row>
-    <row r="152" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH151" s="32">
+        <v>583</v>
+      </c>
+      <c r="AI151" s="32">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="152" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>176</v>
       </c>
@@ -19666,8 +20687,14 @@
       <c r="AG152" s="32">
         <v>135</v>
       </c>
-    </row>
-    <row r="153" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH152" s="32">
+        <v>152</v>
+      </c>
+      <c r="AI152" s="32">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="153" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>114</v>
       </c>
@@ -19767,8 +20794,14 @@
       <c r="AG153" s="32">
         <v>673</v>
       </c>
-    </row>
-    <row r="154" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH153" s="32">
+        <v>701</v>
+      </c>
+      <c r="AI153" s="32">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="154" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>148</v>
       </c>
@@ -19868,8 +20901,14 @@
       <c r="AG154" s="32">
         <v>302</v>
       </c>
-    </row>
-    <row r="155" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH154" s="32">
+        <v>314</v>
+      </c>
+      <c r="AI154" s="32">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="155" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>48</v>
       </c>
@@ -19969,8 +21008,14 @@
       <c r="AG155" s="32">
         <v>1059</v>
       </c>
-    </row>
-    <row r="156" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH155" s="32">
+        <v>1175</v>
+      </c>
+      <c r="AI155" s="32">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="156" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>172</v>
       </c>
@@ -20070,8 +21115,14 @@
       <c r="AG156" s="32">
         <v>439</v>
       </c>
-    </row>
-    <row r="157" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH156" s="32">
+        <v>458</v>
+      </c>
+      <c r="AI156" s="32">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="157" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>122</v>
       </c>
@@ -20171,8 +21222,14 @@
       <c r="AG157" s="32">
         <v>320</v>
       </c>
-    </row>
-    <row r="158" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH157" s="32">
+        <v>330</v>
+      </c>
+      <c r="AI157" s="32">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="158" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>200</v>
       </c>
@@ -20272,8 +21329,14 @@
       <c r="AG158" s="32">
         <v>439</v>
       </c>
-    </row>
-    <row r="159" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH158" s="32">
+        <v>471</v>
+      </c>
+      <c r="AI158" s="32">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="159" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>0</v>
       </c>
@@ -20373,8 +21436,14 @@
       <c r="AG159" s="4">
         <v>50756</v>
       </c>
-    </row>
-    <row r="160" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH159" s="4">
+        <v>54554</v>
+      </c>
+      <c r="AI159" s="4">
+        <v>58817</v>
+      </c>
+    </row>
+    <row r="160" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AB160" s="21"/>
     </row>
   </sheetData>
@@ -20389,6 +21458,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A7" sqref="A7"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>

--- a/refreshed_daily_cases.xlsx
+++ b/refreshed_daily_cases.xlsx
@@ -28,12 +28,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="359">
   <si>
     <t>E92000001</t>
   </si>
@@ -1101,6 +1106,15 @@
   </si>
   <si>
     <t>Counts for Devolved Administrations were sourced from their respective websites on the day of publication, until 29/03/2020, after which they were provided by DHSC.</t>
+  </si>
+  <si>
+    <t>From 11/04/2020 the totals include the additional cases identified through Pillar 2 testing. For more information on the different pillars see the link below.</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/publications/coronavirus-covid-19-scaling-up-testing-programmes/coronavirus-covid-19-scaling-up-our-testing-programmes.</t>
+  </si>
+  <si>
+    <t>This table includes only cases identified through Pillar 1 testing. For more information on the different pillars see the link below.</t>
   </si>
 </sst>
 </file>
@@ -1325,9 +1339,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1336,6 +1347,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1708,12 +1722,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="U23" sqref="U23"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1762,45 +1776,37 @@
       <c r="B7" s="17"/>
       <c r="C7" s="22"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+    <row r="8" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="22"/>
+    </row>
+    <row r="9" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="22"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B11" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C11" s="18" t="s">
         <v>331</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
-        <v>43861</v>
-      </c>
-      <c r="B10" s="25">
-        <v>2</v>
-      </c>
-      <c r="C10" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
-        <v>43862</v>
-      </c>
-      <c r="B11" s="25">
-        <v>0</v>
-      </c>
-      <c r="C11" s="25">
-        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
-        <v>43863</v>
+        <v>43861</v>
       </c>
       <c r="B12" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" s="25">
         <v>2</v>
@@ -1808,7 +1814,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
-        <v>43864</v>
+        <v>43862</v>
       </c>
       <c r="B13" s="25">
         <v>0</v>
@@ -1819,7 +1825,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
-        <v>43865</v>
+        <v>43863</v>
       </c>
       <c r="B14" s="25">
         <v>0</v>
@@ -1830,7 +1836,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
-        <v>43866</v>
+        <v>43864</v>
       </c>
       <c r="B15" s="25">
         <v>0</v>
@@ -1841,32 +1847,32 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
-        <v>43867</v>
+        <v>43865</v>
       </c>
       <c r="B16" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
-        <v>43868</v>
+        <v>43866</v>
       </c>
       <c r="B17" s="25">
         <v>0</v>
       </c>
       <c r="C17" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
-        <v>43869</v>
+        <v>43867</v>
       </c>
       <c r="B18" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="25">
         <v>3</v>
@@ -1874,43 +1880,43 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
-        <v>43870</v>
+        <v>43868</v>
       </c>
       <c r="B19" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
-        <v>43871</v>
+        <v>43869</v>
       </c>
       <c r="B20" s="25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C20" s="25">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
-        <v>43872</v>
+        <v>43870</v>
       </c>
       <c r="B21" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="25">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
-        <v>43873</v>
+        <v>43871</v>
       </c>
       <c r="B22" s="25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C22" s="25">
         <v>8</v>
@@ -1918,32 +1924,32 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
-        <v>43874</v>
+        <v>43872</v>
       </c>
       <c r="B23" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="25">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
-        <v>43875</v>
+        <v>43873</v>
       </c>
       <c r="B24" s="25">
         <v>0</v>
       </c>
       <c r="C24" s="25">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
-        <v>43876</v>
+        <v>43874</v>
       </c>
       <c r="B25" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="25">
         <v>9</v>
@@ -1951,7 +1957,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
-        <v>43877</v>
+        <v>43875</v>
       </c>
       <c r="B26" s="25">
         <v>0</v>
@@ -1962,7 +1968,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
-        <v>43878</v>
+        <v>43876</v>
       </c>
       <c r="B27" s="25">
         <v>0</v>
@@ -1973,7 +1979,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
-        <v>43879</v>
+        <v>43877</v>
       </c>
       <c r="B28" s="25">
         <v>0</v>
@@ -1984,7 +1990,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
-        <v>43880</v>
+        <v>43878</v>
       </c>
       <c r="B29" s="25">
         <v>0</v>
@@ -1995,7 +2001,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
-        <v>43881</v>
+        <v>43879</v>
       </c>
       <c r="B30" s="25">
         <v>0</v>
@@ -2006,7 +2012,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
-        <v>43882</v>
+        <v>43880</v>
       </c>
       <c r="B31" s="25">
         <v>0</v>
@@ -2017,7 +2023,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
-        <v>43883</v>
+        <v>43881</v>
       </c>
       <c r="B32" s="25">
         <v>0</v>
@@ -2028,7 +2034,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
-        <v>43884</v>
+        <v>43882</v>
       </c>
       <c r="B33" s="25">
         <v>0</v>
@@ -2039,32 +2045,32 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
-        <v>43885</v>
+        <v>43883</v>
       </c>
       <c r="B34" s="25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C34" s="25">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
-        <v>43886</v>
+        <v>43884</v>
       </c>
       <c r="B35" s="25">
         <v>0</v>
       </c>
       <c r="C35" s="25">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
-        <v>43887</v>
+        <v>43885</v>
       </c>
       <c r="B36" s="25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C36" s="25">
         <v>13</v>
@@ -2072,7 +2078,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
-        <v>43888</v>
+        <v>43886</v>
       </c>
       <c r="B37" s="25">
         <v>0</v>
@@ -2083,489 +2089,526 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
-        <v>43889</v>
+        <v>43887</v>
       </c>
       <c r="B38" s="25">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C38" s="25">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
-        <v>43890</v>
+        <v>43888</v>
       </c>
       <c r="B39" s="25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C39" s="25">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
-        <v>43891</v>
+        <v>43889</v>
       </c>
       <c r="B40" s="25">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C40" s="25">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
-        <v>43892</v>
+        <v>43890</v>
       </c>
       <c r="B41" s="25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41" s="25">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
-        <v>43893</v>
+        <v>43891</v>
       </c>
       <c r="B42" s="25">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C42" s="25">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
-        <v>43894</v>
+        <v>43892</v>
       </c>
       <c r="B43" s="25">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C43" s="25">
-        <v>85</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
-        <v>43895</v>
+        <v>43893</v>
       </c>
       <c r="B44" s="25">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C44" s="25">
-        <v>114</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
-        <v>43896</v>
+        <v>43894</v>
       </c>
       <c r="B45" s="25">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C45" s="25">
-        <v>160</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
-        <v>43897</v>
+        <v>43895</v>
       </c>
       <c r="B46" s="25">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C46" s="25">
-        <v>206</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="B47" s="25">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C47" s="25">
-        <v>271</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
-        <v>43899</v>
+        <v>43897</v>
       </c>
       <c r="B48" s="25">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C48" s="25">
-        <v>321</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
-        <v>43900</v>
+        <v>43898</v>
       </c>
       <c r="B49" s="25">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C49" s="25">
-        <v>373</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
-        <v>43901</v>
+        <v>43899</v>
       </c>
       <c r="B50" s="25">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="C50" s="25">
-        <v>456</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="B51" s="25">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="C51" s="25">
-        <v>590</v>
+        <v>373</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="B52" s="25">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="C52" s="25">
-        <v>797</v>
+        <v>456</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="B53" s="25">
-        <v>264</v>
+        <v>139</v>
       </c>
       <c r="C53" s="25">
-        <v>1061</v>
+        <v>590</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="B54" s="25">
-        <v>330</v>
+        <v>207</v>
       </c>
       <c r="C54" s="25">
-        <v>1391</v>
+        <v>797</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="B55" s="25">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="C55" s="25">
-        <v>1543</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="B56" s="25">
-        <v>407</v>
+        <v>330</v>
       </c>
       <c r="C56" s="25">
-        <v>1950</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="B57" s="25">
-        <v>676</v>
+        <v>152</v>
       </c>
       <c r="C57" s="25">
-        <v>2626</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="B58" s="25">
-        <v>643</v>
+        <v>407</v>
       </c>
       <c r="C58" s="25">
-        <v>3269</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="B59" s="25">
-        <v>714</v>
+        <v>676</v>
       </c>
       <c r="C59" s="25">
-        <v>3983</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="B60" s="25">
-        <v>1035</v>
+        <v>643</v>
       </c>
       <c r="C60" s="25">
-        <v>5018</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="B61" s="25">
-        <v>665</v>
+        <v>714</v>
       </c>
       <c r="C61" s="25">
-        <v>5683</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="B62" s="25">
-        <v>967</v>
+        <v>1035</v>
       </c>
       <c r="C62" s="25">
-        <v>6650</v>
+        <v>5018</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="B63" s="25">
-        <v>1427</v>
+        <v>665</v>
       </c>
       <c r="C63" s="25">
-        <v>8077</v>
+        <v>5683</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="B64" s="25">
-        <v>1452</v>
+        <v>967</v>
       </c>
       <c r="C64" s="25">
-        <v>9529</v>
+        <v>6650</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="16">
-        <v>43916</v>
+        <v>43914</v>
       </c>
       <c r="B65" s="25">
-        <v>2129</v>
+        <v>1427</v>
       </c>
       <c r="C65" s="25">
-        <v>11658</v>
+        <v>8077</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="16">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="B66" s="25">
-        <v>2885</v>
+        <v>1452</v>
       </c>
       <c r="C66" s="25">
-        <v>14543</v>
+        <v>9529</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
+        <v>43916</v>
+      </c>
+      <c r="B67" s="25">
+        <v>2129</v>
+      </c>
+      <c r="C67" s="25">
+        <v>11658</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="16">
+        <v>43917</v>
+      </c>
+      <c r="B68" s="25">
+        <v>2885</v>
+      </c>
+      <c r="C68" s="25">
+        <v>14543</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="16">
         <v>43918</v>
       </c>
-      <c r="B67" s="25">
+      <c r="B69" s="25">
         <v>2546</v>
       </c>
-      <c r="C67" s="25">
+      <c r="C69" s="25">
         <v>17089</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="23">
-        <v>43919</v>
-      </c>
-      <c r="B68" s="24">
-        <v>2433</v>
-      </c>
-      <c r="C68" s="24">
-        <v>19522</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="23">
-        <v>43920</v>
-      </c>
-      <c r="B69" s="24">
-        <v>2619</v>
-      </c>
-      <c r="C69" s="24">
-        <v>22141</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="B70" s="24">
-        <v>3009</v>
+        <v>2433</v>
       </c>
       <c r="C70" s="24">
-        <v>25150</v>
+        <v>19522</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
-        <v>43922</v>
+        <v>43920</v>
       </c>
       <c r="B71" s="24">
-        <v>4324</v>
+        <v>2619</v>
       </c>
       <c r="C71" s="24">
-        <v>29474</v>
+        <v>22141</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
-        <v>43923</v>
+        <v>43921</v>
       </c>
       <c r="B72" s="24">
-        <v>4244</v>
+        <v>3009</v>
       </c>
       <c r="C72" s="24">
-        <v>33718</v>
+        <v>25150</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
-        <v>43924</v>
+        <v>43922</v>
       </c>
       <c r="B73" s="24">
-        <v>4450</v>
+        <v>4324</v>
       </c>
       <c r="C73" s="24">
-        <v>38168</v>
+        <v>29474</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
-        <v>43925</v>
+        <v>43923</v>
       </c>
       <c r="B74" s="24">
-        <v>3735</v>
+        <v>4244</v>
       </c>
       <c r="C74" s="24">
-        <v>41903</v>
+        <v>33718</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="B75" s="24">
-        <v>5914</v>
+        <v>4450</v>
       </c>
       <c r="C75" s="24">
-        <v>47806</v>
-      </c>
-      <c r="E75" s="31"/>
+        <v>38168</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
-        <v>43927</v>
-      </c>
-      <c r="B76" s="33">
-        <v>3802</v>
-      </c>
-      <c r="C76" s="33">
-        <v>51608</v>
-      </c>
-      <c r="E76" s="31"/>
+        <v>43925</v>
+      </c>
+      <c r="B76" s="24">
+        <v>3735</v>
+      </c>
+      <c r="C76" s="24">
+        <v>41903</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
-        <v>43928</v>
-      </c>
-      <c r="B77" s="33">
-        <v>3634</v>
-      </c>
-      <c r="C77" s="33">
-        <v>55242</v>
+        <v>43926</v>
+      </c>
+      <c r="B77" s="24">
+        <v>5914</v>
+      </c>
+      <c r="C77" s="24">
+        <v>47806</v>
       </c>
       <c r="E77" s="31"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
-        <v>43929</v>
+        <v>43927</v>
       </c>
       <c r="B78" s="33">
-        <v>5491</v>
+        <v>3802</v>
       </c>
       <c r="C78" s="33">
-        <v>60733</v>
+        <v>51608</v>
       </c>
       <c r="E78" s="31"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
+        <v>43928</v>
+      </c>
+      <c r="B79" s="33">
+        <v>3634</v>
+      </c>
+      <c r="C79" s="33">
+        <v>55242</v>
+      </c>
+      <c r="E79" s="31"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="23">
+        <v>43929</v>
+      </c>
+      <c r="B80" s="33">
+        <v>5491</v>
+      </c>
+      <c r="C80" s="33">
+        <v>60733</v>
+      </c>
+      <c r="E80" s="31"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="23">
         <v>43930</v>
       </c>
-      <c r="B79" s="33">
+      <c r="B81" s="33">
         <v>4344</v>
       </c>
-      <c r="C79" s="33">
+      <c r="C81" s="33">
+        <f>C80+B81</f>
         <v>65077</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="23">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="23">
         <v>43931</v>
       </c>
-      <c r="B80" s="33">
+      <c r="B82" s="33">
         <v>5195</v>
       </c>
-      <c r="C80" s="33">
+      <c r="C82" s="33">
         <v>70272</v>
       </c>
     </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="23">
+        <v>43932</v>
+      </c>
+      <c r="B83" s="33">
+        <v>5234</v>
+      </c>
+      <c r="C83" s="33">
+        <v>78991</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A9" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -2622,13 +2665,13 @@
       <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="35" t="s">
         <v>339</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
@@ -3203,33 +3246,72 @@
         <v>43930</v>
       </c>
       <c r="B39" s="34">
-        <v>980</v>
+        <v>881</v>
       </c>
       <c r="C39" s="34">
-        <v>8958</v>
+        <f>C38+B39</f>
+        <v>7978</v>
       </c>
       <c r="D39" s="34">
-        <v>8114</v>
+        <v>7248</v>
       </c>
       <c r="E39" s="34">
-        <v>447</v>
+        <v>366</v>
       </c>
       <c r="F39" s="34">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="G39" s="34">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
+      <c r="A40" s="16">
+        <v>43931</v>
+      </c>
+      <c r="B40" s="34">
+        <v>980</v>
+      </c>
+      <c r="C40" s="34">
+        <v>8958</v>
+      </c>
+      <c r="D40" s="34">
+        <v>8114</v>
+      </c>
+      <c r="E40" s="34">
+        <v>447</v>
+      </c>
+      <c r="F40" s="34">
+        <v>315</v>
+      </c>
+      <c r="G40" s="34">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="16">
+        <v>43932</v>
+      </c>
+      <c r="B41" s="34">
+        <v>917</v>
+      </c>
+      <c r="C41" s="34">
+        <v>9875</v>
+      </c>
+      <c r="D41" s="34">
+        <v>8937</v>
+      </c>
+      <c r="E41" s="34">
+        <v>495</v>
+      </c>
+      <c r="F41" s="34">
+        <v>351</v>
+      </c>
+      <c r="G41" s="34">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3241,7 +3323,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI13"/>
+  <dimension ref="A1:AJ15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -3261,690 +3343,722 @@
     <col min="25" max="29" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="30" max="32" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="10.7109375" style="21" customWidth="1"/>
-    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.7109375" style="21" customWidth="1"/>
+    <col min="34" max="36" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>325</v>
       </c>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>324</v>
       </c>
       <c r="B4" s="11"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>326</v>
       </c>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>327</v>
       </c>
       <c r="B6" s="11"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+    <row r="7" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>358</v>
+      </c>
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C10" s="3">
         <v>43899</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D10" s="3">
         <v>43900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E10" s="3">
         <v>43901</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F10" s="3">
         <v>43902</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G10" s="3">
         <v>43903</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H10" s="3">
         <v>43904</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I10" s="3">
         <v>43905</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J10" s="3">
         <v>43906</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K10" s="3">
         <v>43907</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L10" s="3">
         <v>43908</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M10" s="3">
         <v>43909</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N10" s="3">
         <v>43910</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O10" s="3">
         <v>43911</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P10" s="3">
         <v>43912</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q10" s="3">
         <v>43913</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R10" s="3">
         <v>43914</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S10" s="3">
         <v>43915</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T10" s="3">
         <v>43916</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U10" s="3">
         <v>43917</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V10" s="3">
         <v>43918</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W10" s="3">
         <v>43919</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X10" s="3">
         <v>43920</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Y10" s="3">
         <v>43921</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="Z10" s="3">
         <v>43922</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AA10" s="3">
         <v>43923</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AB10" s="3">
         <v>43924</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AC10" s="3">
         <v>43925</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AD10" s="3">
         <v>43926</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AE10" s="3">
         <v>43927</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AF10" s="3">
         <v>43928</v>
       </c>
-      <c r="AG8" s="3">
+      <c r="AG10" s="3">
         <v>43929</v>
       </c>
-      <c r="AH8" s="3">
+      <c r="AH10" s="3">
         <v>43930</v>
       </c>
-      <c r="AI8" s="3">
+      <c r="AI10" s="3">
         <v>43931</v>
       </c>
-    </row>
-    <row r="9" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8">
+      <c r="AJ10" s="3">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
         <v>280</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D11" s="8">
         <v>324</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E11" s="8">
         <v>387</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F11" s="8">
         <v>491</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G11" s="8">
         <v>645</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H11" s="8">
         <v>925</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I11" s="8">
         <v>1099</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J11" s="8">
         <v>1196</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K11" s="8">
         <v>1557</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L11" s="8">
         <v>2182</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M11" s="8">
         <v>2756</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N11" s="8">
         <v>3384</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O11" s="8">
         <v>4257</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P11" s="8">
         <v>4792</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q11" s="8">
         <v>5585</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R11" s="8">
         <v>6843</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S11" s="8">
         <v>7973</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T11" s="8">
         <v>9782</v>
       </c>
-      <c r="U9" s="8">
+      <c r="U11" s="8">
         <v>12288</v>
       </c>
-      <c r="V9" s="8">
+      <c r="V11" s="8">
         <v>14427</v>
       </c>
-      <c r="W9" s="8">
+      <c r="W11" s="8">
         <v>16487</v>
       </c>
-      <c r="X9" s="8">
+      <c r="X11" s="8">
         <v>18594</v>
       </c>
-      <c r="Y9" s="8">
+      <c r="Y11" s="8">
         <v>21008</v>
       </c>
-      <c r="Z9" s="8">
+      <c r="Z11" s="8">
         <v>24638</v>
       </c>
-      <c r="AA9" s="8">
+      <c r="AA11" s="8">
         <v>28221</v>
       </c>
-      <c r="AB9" s="26">
+      <c r="AB11" s="26">
         <v>31797</v>
       </c>
-      <c r="AC9" s="26">
+      <c r="AC11" s="26">
         <v>34707</v>
       </c>
-      <c r="AD9" s="26">
+      <c r="AD11" s="26">
         <v>39814</v>
       </c>
-      <c r="AE9" s="26">
+      <c r="AE11" s="26">
         <v>42990</v>
       </c>
-      <c r="AF9" s="26">
+      <c r="AF11" s="26">
         <v>45968</v>
       </c>
-      <c r="AG9" s="26">
+      <c r="AG11" s="26">
         <v>50756</v>
       </c>
-      <c r="AH9" s="26">
+      <c r="AH11" s="26">
         <v>54554</v>
       </c>
-      <c r="AI9" s="26">
+      <c r="AI11" s="26">
         <v>58817</v>
       </c>
-    </row>
-    <row r="10" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="AJ11" s="26">
+        <v>62658</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8">
-        <v>27</v>
-      </c>
-      <c r="E10" s="8">
-        <v>36</v>
-      </c>
-      <c r="F10" s="8">
-        <v>60</v>
-      </c>
-      <c r="G10" s="8">
-        <v>85</v>
-      </c>
-      <c r="H10" s="8">
-        <v>121</v>
-      </c>
-      <c r="I10" s="8">
-        <v>153</v>
-      </c>
-      <c r="J10" s="8">
-        <v>171</v>
-      </c>
-      <c r="K10" s="8">
-        <v>195</v>
-      </c>
-      <c r="L10" s="8">
-        <v>227</v>
-      </c>
-      <c r="M10" s="8">
-        <v>266</v>
-      </c>
-      <c r="N10" s="8">
-        <v>322</v>
-      </c>
-      <c r="O10" s="8">
-        <v>373</v>
-      </c>
-      <c r="P10" s="8">
-        <v>416</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>499</v>
-      </c>
-      <c r="R10" s="8">
-        <v>584</v>
-      </c>
-      <c r="S10" s="8">
-        <v>719</v>
-      </c>
-      <c r="T10" s="8">
-        <v>894</v>
-      </c>
-      <c r="U10" s="8">
-        <v>1059</v>
-      </c>
-      <c r="V10" s="8">
-        <v>1245</v>
-      </c>
-      <c r="W10" s="8">
-        <v>1384</v>
-      </c>
-      <c r="X10" s="8">
-        <v>1563</v>
-      </c>
-      <c r="Y10" s="8">
-        <v>1993</v>
-      </c>
-      <c r="Z10" s="8">
-        <v>2310</v>
-      </c>
-      <c r="AA10" s="8">
-        <v>2602</v>
-      </c>
-      <c r="AB10" s="8">
-        <v>3001</v>
-      </c>
-      <c r="AC10" s="8">
-        <v>3345</v>
-      </c>
-      <c r="AD10" s="32">
-        <v>3706</v>
-      </c>
-      <c r="AE10" s="32">
-        <v>3961</v>
-      </c>
-      <c r="AF10" s="32">
-        <v>4229</v>
-      </c>
-      <c r="AG10" s="32">
-        <v>4565</v>
-      </c>
-      <c r="AH10" s="32">
-        <v>4957</v>
-      </c>
-      <c r="AI10" s="32">
-        <v>5275</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8">
-        <v>6</v>
-      </c>
-      <c r="E11" s="8">
-        <v>15</v>
-      </c>
-      <c r="F11" s="8">
-        <v>25</v>
-      </c>
-      <c r="G11" s="8">
-        <v>38</v>
-      </c>
-      <c r="H11" s="8">
-        <v>60</v>
-      </c>
-      <c r="I11" s="8">
-        <v>94</v>
-      </c>
-      <c r="J11" s="8">
-        <v>124</v>
-      </c>
-      <c r="K11" s="8">
-        <v>136</v>
-      </c>
-      <c r="L11" s="8">
-        <v>149</v>
-      </c>
-      <c r="M11" s="8">
-        <v>170</v>
-      </c>
-      <c r="N11" s="8">
-        <v>191</v>
-      </c>
-      <c r="O11" s="8">
-        <v>280</v>
-      </c>
-      <c r="P11" s="8">
-        <v>347</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>418</v>
-      </c>
-      <c r="R11" s="8">
-        <v>478</v>
-      </c>
-      <c r="S11" s="8">
-        <v>628</v>
-      </c>
-      <c r="T11" s="8">
-        <v>741</v>
-      </c>
-      <c r="U11" s="8">
-        <v>921</v>
-      </c>
-      <c r="V11" s="8">
-        <v>1093</v>
-      </c>
-      <c r="W11" s="8">
-        <v>1241</v>
-      </c>
-      <c r="X11" s="8">
-        <v>1451</v>
-      </c>
-      <c r="Y11" s="8">
-        <v>1563</v>
-      </c>
-      <c r="Z11" s="8">
-        <v>1837</v>
-      </c>
-      <c r="AA11" s="8">
-        <v>2121</v>
-      </c>
-      <c r="AB11" s="8">
-        <v>2466</v>
-      </c>
-      <c r="AC11" s="8">
-        <v>2853</v>
-      </c>
-      <c r="AD11" s="32">
-        <v>3197</v>
-      </c>
-      <c r="AE11" s="32">
-        <v>3499</v>
-      </c>
-      <c r="AF11" s="32">
-        <v>3790</v>
-      </c>
-      <c r="AG11" s="32">
-        <v>4073</v>
-      </c>
-      <c r="AH11" s="32">
-        <v>4089</v>
-      </c>
-      <c r="AI11" s="32">
-        <v>4591</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8">
+        <v>27</v>
+      </c>
+      <c r="E12" s="8">
+        <v>36</v>
+      </c>
+      <c r="F12" s="8">
+        <v>60</v>
+      </c>
+      <c r="G12" s="8">
+        <v>85</v>
+      </c>
+      <c r="H12" s="8">
+        <v>121</v>
+      </c>
+      <c r="I12" s="8">
+        <v>153</v>
+      </c>
+      <c r="J12" s="8">
+        <v>171</v>
+      </c>
+      <c r="K12" s="8">
+        <v>195</v>
+      </c>
+      <c r="L12" s="8">
+        <v>227</v>
+      </c>
+      <c r="M12" s="8">
+        <v>266</v>
+      </c>
+      <c r="N12" s="8">
+        <v>322</v>
+      </c>
+      <c r="O12" s="8">
+        <v>373</v>
+      </c>
+      <c r="P12" s="8">
+        <v>416</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>499</v>
+      </c>
+      <c r="R12" s="8">
+        <v>584</v>
+      </c>
+      <c r="S12" s="8">
+        <v>719</v>
+      </c>
+      <c r="T12" s="8">
+        <v>894</v>
+      </c>
+      <c r="U12" s="8">
+        <v>1059</v>
+      </c>
+      <c r="V12" s="8">
+        <v>1245</v>
+      </c>
+      <c r="W12" s="8">
+        <v>1384</v>
+      </c>
+      <c r="X12" s="8">
+        <v>1563</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>1993</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>2310</v>
+      </c>
+      <c r="AA12" s="8">
+        <v>2602</v>
+      </c>
+      <c r="AB12" s="8">
+        <v>3001</v>
+      </c>
+      <c r="AC12" s="8">
+        <v>3345</v>
+      </c>
+      <c r="AD12" s="32">
+        <v>3706</v>
+      </c>
+      <c r="AE12" s="32">
+        <v>3961</v>
+      </c>
+      <c r="AF12" s="32">
+        <v>4229</v>
+      </c>
+      <c r="AG12" s="32">
+        <v>4565</v>
+      </c>
+      <c r="AH12" s="32">
+        <v>4957</v>
+      </c>
+      <c r="AI12" s="32">
+        <v>5275</v>
+      </c>
+      <c r="AJ12" s="32">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8">
+        <v>6</v>
+      </c>
+      <c r="E13" s="8">
+        <v>15</v>
+      </c>
+      <c r="F13" s="8">
+        <v>25</v>
+      </c>
+      <c r="G13" s="8">
+        <v>38</v>
+      </c>
+      <c r="H13" s="8">
+        <v>60</v>
+      </c>
+      <c r="I13" s="8">
+        <v>94</v>
+      </c>
+      <c r="J13" s="8">
+        <v>124</v>
+      </c>
+      <c r="K13" s="8">
+        <v>136</v>
+      </c>
+      <c r="L13" s="8">
+        <v>149</v>
+      </c>
+      <c r="M13" s="8">
+        <v>170</v>
+      </c>
+      <c r="N13" s="8">
+        <v>191</v>
+      </c>
+      <c r="O13" s="8">
+        <v>280</v>
+      </c>
+      <c r="P13" s="8">
+        <v>347</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>418</v>
+      </c>
+      <c r="R13" s="8">
+        <v>478</v>
+      </c>
+      <c r="S13" s="8">
+        <v>628</v>
+      </c>
+      <c r="T13" s="8">
+        <v>741</v>
+      </c>
+      <c r="U13" s="8">
+        <v>921</v>
+      </c>
+      <c r="V13" s="8">
+        <v>1093</v>
+      </c>
+      <c r="W13" s="8">
+        <v>1241</v>
+      </c>
+      <c r="X13" s="8">
+        <v>1451</v>
+      </c>
+      <c r="Y13" s="8">
+        <v>1563</v>
+      </c>
+      <c r="Z13" s="8">
+        <v>1837</v>
+      </c>
+      <c r="AA13" s="8">
+        <v>2121</v>
+      </c>
+      <c r="AB13" s="8">
+        <v>2466</v>
+      </c>
+      <c r="AC13" s="8">
+        <v>2853</v>
+      </c>
+      <c r="AD13" s="32">
+        <v>3197</v>
+      </c>
+      <c r="AE13" s="32">
+        <v>3499</v>
+      </c>
+      <c r="AF13" s="32">
+        <v>3790</v>
+      </c>
+      <c r="AG13" s="32">
+        <v>4073</v>
+      </c>
+      <c r="AH13" s="32">
+        <v>4089</v>
+      </c>
+      <c r="AI13" s="32">
+        <v>4591</v>
+      </c>
+      <c r="AJ13" s="32">
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8">
         <v>16</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E14" s="8">
         <v>18</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F14" s="8">
         <v>19</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G14" s="8">
         <v>29</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H14" s="8">
         <v>34</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I14" s="8">
         <v>45</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J14" s="8">
         <v>52</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K14" s="8">
         <v>62</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L14" s="8">
         <v>68</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M14" s="8">
         <v>77</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N14" s="8">
         <v>86</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O14" s="8">
         <v>108</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P14" s="8">
         <v>128</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q14" s="8">
         <v>148</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R14" s="8">
         <v>172</v>
       </c>
-      <c r="S12" s="8">
+      <c r="S14" s="8">
         <v>209</v>
       </c>
-      <c r="T12" s="8">
+      <c r="T14" s="8">
         <v>241</v>
       </c>
-      <c r="U12" s="8">
+      <c r="U14" s="8">
         <v>275</v>
       </c>
-      <c r="V12" s="8">
+      <c r="V14" s="8">
         <v>324</v>
       </c>
-      <c r="W12" s="8">
+      <c r="W14" s="8">
         <v>410</v>
       </c>
-      <c r="X12" s="8">
+      <c r="X14" s="8">
         <v>533</v>
       </c>
-      <c r="Y12" s="8">
+      <c r="Y14" s="8">
         <v>586</v>
       </c>
-      <c r="Z12" s="8">
+      <c r="Z14" s="8">
         <v>689</v>
       </c>
-      <c r="AA12" s="8">
+      <c r="AA14" s="8">
         <v>774</v>
       </c>
-      <c r="AB12" s="8">
+      <c r="AB14" s="8">
         <v>904</v>
       </c>
-      <c r="AC12" s="8">
+      <c r="AC14" s="8">
         <v>998</v>
       </c>
-      <c r="AD12" s="32">
+      <c r="AD14" s="32">
         <v>1089</v>
       </c>
-      <c r="AE12" s="32">
+      <c r="AE14" s="32">
         <v>1158</v>
       </c>
-      <c r="AF12" s="32">
+      <c r="AF14" s="32">
         <v>1255</v>
       </c>
-      <c r="AG12" s="32">
+      <c r="AG14" s="32">
         <v>1339</v>
       </c>
-      <c r="AH12" s="32">
+      <c r="AH14" s="32">
         <v>1477</v>
       </c>
-      <c r="AI12" s="32">
+      <c r="AI14" s="32">
         <v>1589</v>
       </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
+      <c r="AJ14" s="32">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
         <v>373</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E15" s="4">
         <v>456</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F15" s="4">
         <v>595</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G15" s="4">
         <v>797</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H15" s="4">
         <v>1140</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I15" s="4">
         <v>1391</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J15" s="4">
         <v>1543</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K15" s="4">
         <v>1950</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L15" s="4">
         <v>2626</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M15" s="4">
         <v>3269</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N15" s="4">
         <v>3983</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O15" s="4">
         <v>5018</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P15" s="4">
         <v>5683</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q15" s="4">
         <v>6650</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R15" s="4">
         <v>8077</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S15" s="4">
         <v>9529</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T15" s="4">
         <v>11658</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U15" s="4">
         <v>14543</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V15" s="4">
         <v>17089</v>
       </c>
-      <c r="W13" s="4">
+      <c r="W15" s="4">
         <v>19522</v>
       </c>
-      <c r="X13" s="4">
+      <c r="X15" s="4">
         <v>22141</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="Y15" s="4">
         <v>25150</v>
       </c>
-      <c r="Z13" s="4">
+      <c r="Z15" s="4">
         <v>29474</v>
       </c>
-      <c r="AA13" s="4">
+      <c r="AA15" s="4">
         <v>33718</v>
       </c>
-      <c r="AB13" s="4">
+      <c r="AB15" s="4">
         <v>38168</v>
       </c>
-      <c r="AC13" s="4">
+      <c r="AC15" s="4">
         <v>41903</v>
       </c>
-      <c r="AD13" s="4">
+      <c r="AD15" s="4">
         <v>47806</v>
       </c>
-      <c r="AE13" s="4">
+      <c r="AE15" s="4">
         <v>51608</v>
       </c>
-      <c r="AF13" s="4">
+      <c r="AF15" s="4">
         <v>55242</v>
       </c>
-      <c r="AG13" s="4">
+      <c r="AG15" s="4">
         <v>60733</v>
       </c>
-      <c r="AH13" s="4">
+      <c r="AH15" s="4">
         <v>65077</v>
       </c>
-      <c r="AI13" s="4">
-        <v>65077</v>
+      <c r="AI15" s="4">
+        <v>70272</v>
+      </c>
+      <c r="AJ15" s="4">
+        <v>74895</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A9:U12">
-    <sortCondition ref="A9:A12"/>
+  <sortState ref="A11:U14">
+    <sortCondition ref="A11:A14"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="A8" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI17"/>
+  <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -3961,43 +4075,42 @@
     <col min="22" max="24" width="10.7109375" style="21" customWidth="1"/>
     <col min="25" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="28" max="30" width="10.7109375" style="21" customWidth="1"/>
-    <col min="31" max="34" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.7109375" style="21" customWidth="1"/>
+    <col min="31" max="36" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>325</v>
       </c>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>333</v>
       </c>
       <c r="B4" s="11"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>328</v>
       </c>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>327</v>
       </c>
       <c r="B6" s="11"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -4021,7 +4134,7 @@
       <c r="Z7" s="21"/>
       <c r="AA7" s="21"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -4127,8 +4240,11 @@
       <c r="AI8" s="3">
         <v>43931</v>
       </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ8" s="3">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
@@ -4232,8 +4348,11 @@
       <c r="AI9" s="6">
         <v>2455</v>
       </c>
-    </row>
-    <row r="10" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ9" s="6">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
@@ -4339,8 +4458,11 @@
       <c r="AI10" s="32">
         <v>16011</v>
       </c>
-    </row>
-    <row r="11" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ10" s="32">
+        <v>16721</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
@@ -4446,8 +4568,11 @@
       <c r="AI11" s="32">
         <v>7304</v>
       </c>
-    </row>
-    <row r="12" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ11" s="32">
+        <v>7872</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
@@ -4553,8 +4678,11 @@
       <c r="AI12" s="32">
         <v>2747</v>
       </c>
-    </row>
-    <row r="13" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ12" s="32">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -4660,8 +4788,11 @@
       <c r="AI13" s="32">
         <v>4872</v>
       </c>
-    </row>
-    <row r="14" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ13" s="32">
+        <v>5302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
@@ -4767,8 +4898,11 @@
       <c r="AI14" s="32">
         <v>9704</v>
       </c>
-    </row>
-    <row r="15" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ14" s="32">
+        <v>10368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
@@ -4874,8 +5008,11 @@
       <c r="AI15" s="32">
         <v>7703</v>
       </c>
-    </row>
-    <row r="16" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ15" s="32">
+        <v>8181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>19</v>
       </c>
@@ -4981,8 +5118,11 @@
       <c r="AI16" s="32">
         <v>8021</v>
       </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ16" s="32">
+        <v>8604</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
@@ -5087,6 +5227,9 @@
       </c>
       <c r="AI17" s="4">
         <v>58817</v>
+      </c>
+      <c r="AJ17" s="4">
+        <v>62658</v>
       </c>
     </row>
   </sheetData>
@@ -5099,7 +5242,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI160"/>
+  <dimension ref="A1:AJ160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
@@ -5118,43 +5261,42 @@
     <col min="25" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.7109375" customWidth="1"/>
     <col min="29" max="30" width="10.7109375" style="21" customWidth="1"/>
-    <col min="31" max="34" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.7109375" style="21" customWidth="1"/>
+    <col min="31" max="36" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>325</v>
       </c>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>333</v>
       </c>
       <c r="B4" s="11"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>328</v>
       </c>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>327</v>
       </c>
       <c r="B6" s="11"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5179,7 +5321,7 @@
       <c r="AA7" s="21"/>
       <c r="AB7" s="21"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -5283,10 +5425,13 @@
         <v>43930</v>
       </c>
       <c r="AI8" s="3">
-        <v>43930</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+        <v>43931</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
@@ -5392,8 +5537,11 @@
       <c r="AI9" s="6">
         <v>2455</v>
       </c>
-    </row>
-    <row r="10" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ9" s="6">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>286</v>
       </c>
@@ -5499,8 +5647,11 @@
       <c r="AI10" s="32">
         <v>64</v>
       </c>
-    </row>
-    <row r="11" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ10" s="32">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>316</v>
       </c>
@@ -5606,8 +5757,11 @@
       <c r="AI11" s="32">
         <v>235</v>
       </c>
-    </row>
-    <row r="12" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ11" s="32">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>312</v>
       </c>
@@ -5713,8 +5867,11 @@
       <c r="AI12" s="32">
         <v>139</v>
       </c>
-    </row>
-    <row r="13" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ12" s="32">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>186</v>
       </c>
@@ -5820,8 +5977,11 @@
       <c r="AI13" s="32">
         <v>173</v>
       </c>
-    </row>
-    <row r="14" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ13" s="32">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>290</v>
       </c>
@@ -5927,8 +6087,11 @@
       <c r="AI14" s="32">
         <v>109</v>
       </c>
-    </row>
-    <row r="15" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ14" s="32">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>254</v>
       </c>
@@ -6034,8 +6197,11 @@
       <c r="AI15" s="32">
         <v>159</v>
       </c>
-    </row>
-    <row r="16" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ15" s="32">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>258</v>
       </c>
@@ -6141,8 +6307,11 @@
       <c r="AI16" s="32">
         <v>241</v>
       </c>
-    </row>
-    <row r="17" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ16" s="32">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>304</v>
       </c>
@@ -6248,8 +6417,11 @@
       <c r="AI17" s="32">
         <v>106</v>
       </c>
-    </row>
-    <row r="18" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ17" s="32">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>282</v>
       </c>
@@ -6355,8 +6527,11 @@
       <c r="AI18" s="32">
         <v>108</v>
       </c>
-    </row>
-    <row r="19" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ18" s="32">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>308</v>
       </c>
@@ -6462,8 +6637,11 @@
       <c r="AI19" s="32">
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ19" s="32">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>180</v>
       </c>
@@ -6569,8 +6747,11 @@
       <c r="AI20" s="32">
         <v>174</v>
       </c>
-    </row>
-    <row r="21" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ20" s="32">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>318</v>
       </c>
@@ -6676,8 +6857,11 @@
       <c r="AI21" s="32">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ21" s="32">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>310</v>
       </c>
@@ -6783,8 +6967,11 @@
       <c r="AI22" s="32">
         <v>77</v>
       </c>
-    </row>
-    <row r="23" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ22" s="32">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>244</v>
       </c>
@@ -6890,8 +7077,11 @@
       <c r="AI23" s="32">
         <v>111</v>
       </c>
-    </row>
-    <row r="24" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ23" s="32">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>196</v>
       </c>
@@ -6997,8 +7187,11 @@
       <c r="AI24" s="32">
         <v>313</v>
       </c>
-    </row>
-    <row r="25" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ24" s="32">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>238</v>
       </c>
@@ -7104,8 +7297,11 @@
       <c r="AI25" s="32">
         <v>305</v>
       </c>
-    </row>
-    <row r="26" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ25" s="32">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>320</v>
       </c>
@@ -7211,8 +7407,11 @@
       <c r="AI26" s="32">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ26" s="32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>144</v>
       </c>
@@ -7318,8 +7517,11 @@
       <c r="AI27" s="32">
         <v>276</v>
       </c>
-    </row>
-    <row r="28" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ27" s="32">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>274</v>
       </c>
@@ -7425,8 +7627,11 @@
       <c r="AI28" s="32">
         <v>86</v>
       </c>
-    </row>
-    <row r="29" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ28" s="32">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>322</v>
       </c>
@@ -7532,8 +7737,11 @@
       <c r="AI29" s="32">
         <v>118</v>
       </c>
-    </row>
-    <row r="30" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ29" s="32">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>288</v>
       </c>
@@ -7639,8 +7847,11 @@
       <c r="AI30" s="32">
         <v>157</v>
       </c>
-    </row>
-    <row r="31" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ30" s="32">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>246</v>
       </c>
@@ -7746,8 +7957,11 @@
       <c r="AI31" s="32">
         <v>97</v>
       </c>
-    </row>
-    <row r="32" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ31" s="32">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>166</v>
       </c>
@@ -7853,8 +8067,11 @@
       <c r="AI32" s="32">
         <v>269</v>
       </c>
-    </row>
-    <row r="33" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ32" s="32">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>256</v>
       </c>
@@ -7960,8 +8177,11 @@
       <c r="AI33" s="32">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ33" s="32">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>160</v>
       </c>
@@ -8067,8 +8287,11 @@
       <c r="AI34" s="32">
         <v>191</v>
       </c>
-    </row>
-    <row r="35" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ34" s="32">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>216</v>
       </c>
@@ -8174,8 +8397,11 @@
       <c r="AI35" s="32">
         <v>119</v>
       </c>
-    </row>
-    <row r="36" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ35" s="32">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>202</v>
       </c>
@@ -8281,8 +8507,11 @@
       <c r="AI36" s="32">
         <v>74</v>
       </c>
-    </row>
-    <row r="37" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ36" s="32">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>250</v>
       </c>
@@ -8388,8 +8617,11 @@
       <c r="AI37" s="32">
         <v>125</v>
       </c>
-    </row>
-    <row r="38" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ37" s="32">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>294</v>
       </c>
@@ -8495,8 +8727,11 @@
       <c r="AI38" s="32">
         <v>99</v>
       </c>
-    </row>
-    <row r="39" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ38" s="32">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>276</v>
       </c>
@@ -8602,8 +8837,11 @@
       <c r="AI39" s="32">
         <v>249</v>
       </c>
-    </row>
-    <row r="40" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ39" s="32">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>262</v>
       </c>
@@ -8709,8 +8947,11 @@
       <c r="AI40" s="32">
         <v>180</v>
       </c>
-    </row>
-    <row r="41" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ40" s="32">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>268</v>
       </c>
@@ -8816,8 +9057,11 @@
       <c r="AI41" s="32">
         <v>155</v>
       </c>
-    </row>
-    <row r="42" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ41" s="32">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>198</v>
       </c>
@@ -8923,8 +9167,11 @@
       <c r="AI42" s="32">
         <v>285</v>
       </c>
-    </row>
-    <row r="43" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ42" s="32">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>270</v>
       </c>
@@ -9030,8 +9277,11 @@
       <c r="AI43" s="32">
         <v>90</v>
       </c>
-    </row>
-    <row r="44" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ43" s="32">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>280</v>
       </c>
@@ -9137,8 +9387,11 @@
       <c r="AI44" s="32">
         <v>132</v>
       </c>
-    </row>
-    <row r="45" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ44" s="32">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>218</v>
       </c>
@@ -9244,8 +9497,11 @@
       <c r="AI45" s="32">
         <v>141</v>
       </c>
-    </row>
-    <row r="46" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ45" s="32">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>116</v>
       </c>
@@ -9351,8 +9607,11 @@
       <c r="AI46" s="32">
         <v>196</v>
       </c>
-    </row>
-    <row r="47" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ46" s="32">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>150</v>
       </c>
@@ -9458,8 +9717,11 @@
       <c r="AI47" s="32">
         <v>126</v>
       </c>
-    </row>
-    <row r="48" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ47" s="32">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>194</v>
       </c>
@@ -9565,8 +9827,11 @@
       <c r="AI48" s="32">
         <v>142</v>
       </c>
-    </row>
-    <row r="49" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ48" s="32">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>240</v>
       </c>
@@ -9672,8 +9937,11 @@
       <c r="AI49" s="32">
         <v>239</v>
       </c>
-    </row>
-    <row r="50" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ49" s="32">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="50" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>164</v>
       </c>
@@ -9779,8 +10047,11 @@
       <c r="AI50" s="32">
         <v>182</v>
       </c>
-    </row>
-    <row r="51" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ50" s="32">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>242</v>
       </c>
@@ -9886,8 +10157,11 @@
       <c r="AI51" s="32">
         <v>151</v>
       </c>
-    </row>
-    <row r="52" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ51" s="32">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>210</v>
       </c>
@@ -9993,8 +10267,11 @@
       <c r="AI52" s="32">
         <v>212</v>
       </c>
-    </row>
-    <row r="53" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ52" s="32">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>292</v>
       </c>
@@ -10100,8 +10377,11 @@
       <c r="AI53" s="32">
         <v>41</v>
       </c>
-    </row>
-    <row r="54" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ53" s="32">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>236</v>
       </c>
@@ -10207,8 +10487,11 @@
       <c r="AI54" s="32">
         <v>482</v>
       </c>
-    </row>
-    <row r="55" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ54" s="32">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="55" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>192</v>
       </c>
@@ -10314,8 +10597,11 @@
       <c r="AI55" s="32">
         <v>278</v>
       </c>
-    </row>
-    <row r="56" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ55" s="32">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="56" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>212</v>
       </c>
@@ -10421,8 +10707,11 @@
       <c r="AI56" s="32">
         <v>311</v>
       </c>
-    </row>
-    <row r="57" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ56" s="32">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>278</v>
       </c>
@@ -10528,8 +10817,11 @@
       <c r="AI57" s="32">
         <v>205</v>
       </c>
-    </row>
-    <row r="58" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ57" s="32">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="58" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>178</v>
       </c>
@@ -10635,8 +10927,11 @@
       <c r="AI58" s="32">
         <v>259</v>
       </c>
-    </row>
-    <row r="59" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ58" s="32">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>162</v>
       </c>
@@ -10742,8 +11037,11 @@
       <c r="AI59" s="32">
         <v>210</v>
       </c>
-    </row>
-    <row r="60" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ59" s="32">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>302</v>
       </c>
@@ -10849,8 +11147,11 @@
       <c r="AI60" s="32">
         <v>158</v>
       </c>
-    </row>
-    <row r="61" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ60" s="32">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>222</v>
       </c>
@@ -10956,8 +11257,11 @@
       <c r="AI61" s="32">
         <v>206</v>
       </c>
-    </row>
-    <row r="62" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ61" s="32">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>230</v>
       </c>
@@ -11063,8 +11367,11 @@
       <c r="AI62" s="32">
         <v>331</v>
       </c>
-    </row>
-    <row r="63" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ62" s="32">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="63" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>190</v>
       </c>
@@ -11170,8 +11477,11 @@
       <c r="AI63" s="32">
         <v>164</v>
       </c>
-    </row>
-    <row r="64" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ63" s="32">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>214</v>
       </c>
@@ -11277,8 +11587,11 @@
       <c r="AI64" s="32">
         <v>159</v>
       </c>
-    </row>
-    <row r="65" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ64" s="32">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="65" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>188</v>
       </c>
@@ -11384,8 +11697,11 @@
       <c r="AI65" s="32">
         <v>249</v>
       </c>
-    </row>
-    <row r="66" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ65" s="32">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="66" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>204</v>
       </c>
@@ -11491,8 +11807,11 @@
       <c r="AI66" s="32">
         <v>198</v>
       </c>
-    </row>
-    <row r="67" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ66" s="32">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="67" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>106</v>
       </c>
@@ -11598,8 +11917,11 @@
       <c r="AI67" s="32">
         <v>512</v>
       </c>
-    </row>
-    <row r="68" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ67" s="32">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="68" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>138</v>
       </c>
@@ -11705,8 +12027,11 @@
       <c r="AI68" s="32">
         <v>284</v>
       </c>
-    </row>
-    <row r="69" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ68" s="32">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="69" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>184</v>
       </c>
@@ -11812,8 +12137,11 @@
       <c r="AI69" s="32">
         <v>222</v>
       </c>
-    </row>
-    <row r="70" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ69" s="32">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="70" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>182</v>
       </c>
@@ -11919,8 +12247,11 @@
       <c r="AI70" s="32">
         <v>310</v>
       </c>
-    </row>
-    <row r="71" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ70" s="32">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="71" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>146</v>
       </c>
@@ -12026,8 +12357,11 @@
       <c r="AI71" s="32">
         <v>368</v>
       </c>
-    </row>
-    <row r="72" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ71" s="32">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="72" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>142</v>
       </c>
@@ -12133,8 +12467,11 @@
       <c r="AI72" s="32">
         <v>227</v>
       </c>
-    </row>
-    <row r="73" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ72" s="32">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="73" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>156</v>
       </c>
@@ -12240,8 +12577,11 @@
       <c r="AI73" s="32">
         <v>297</v>
       </c>
-    </row>
-    <row r="74" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ73" s="32">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="74" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>260</v>
       </c>
@@ -12347,8 +12687,11 @@
       <c r="AI74" s="32">
         <v>253</v>
       </c>
-    </row>
-    <row r="75" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ74" s="32">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="75" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>264</v>
       </c>
@@ -12454,8 +12797,11 @@
       <c r="AI75" s="32">
         <v>245</v>
       </c>
-    </row>
-    <row r="76" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ75" s="32">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="76" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>154</v>
       </c>
@@ -12561,8 +12907,11 @@
       <c r="AI76" s="32">
         <v>702</v>
       </c>
-    </row>
-    <row r="77" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ76" s="32">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="77" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>298</v>
       </c>
@@ -12668,8 +13017,11 @@
       <c r="AI77" s="32">
         <v>329</v>
       </c>
-    </row>
-    <row r="78" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ77" s="32">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="78" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>232</v>
       </c>
@@ -12775,8 +13127,11 @@
       <c r="AI78" s="32">
         <v>387</v>
       </c>
-    </row>
-    <row r="79" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ78" s="32">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="79" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>208</v>
       </c>
@@ -12882,8 +13237,11 @@
       <c r="AI79" s="32">
         <v>385</v>
       </c>
-    </row>
-    <row r="80" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ79" s="32">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="80" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>220</v>
       </c>
@@ -12989,8 +13347,11 @@
       <c r="AI80" s="32">
         <v>267</v>
       </c>
-    </row>
-    <row r="81" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ80" s="32">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="81" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>300</v>
       </c>
@@ -13096,8 +13457,11 @@
       <c r="AI81" s="32">
         <v>183</v>
       </c>
-    </row>
-    <row r="82" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ81" s="32">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="82" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>284</v>
       </c>
@@ -13203,8 +13567,11 @@
       <c r="AI82" s="32">
         <v>279</v>
       </c>
-    </row>
-    <row r="83" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ82" s="32">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="83" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>54</v>
       </c>
@@ -13310,8 +13677,11 @@
       <c r="AI83" s="32">
         <v>1095</v>
       </c>
-    </row>
-    <row r="84" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ83" s="32">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>108</v>
       </c>
@@ -13417,8 +13787,11 @@
       <c r="AI84" s="32">
         <v>493</v>
       </c>
-    </row>
-    <row r="85" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ84" s="32">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="85" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>174</v>
       </c>
@@ -13524,8 +13897,11 @@
       <c r="AI85" s="32">
         <v>276</v>
       </c>
-    </row>
-    <row r="86" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ85" s="32">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="86" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>296</v>
       </c>
@@ -13631,8 +14007,11 @@
       <c r="AI86" s="32">
         <v>123</v>
       </c>
-    </row>
-    <row r="87" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ86" s="32">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>248</v>
       </c>
@@ -13738,8 +14117,11 @@
       <c r="AI87" s="32">
         <v>354</v>
       </c>
-    </row>
-    <row r="88" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ87" s="32">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="88" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>68</v>
       </c>
@@ -13845,8 +14227,11 @@
       <c r="AI88" s="32">
         <v>1604</v>
       </c>
-    </row>
-    <row r="89" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ88" s="32">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="89" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>252</v>
       </c>
@@ -13952,8 +14337,11 @@
       <c r="AI89" s="32">
         <v>335</v>
       </c>
-    </row>
-    <row r="90" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ89" s="32">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="90" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>170</v>
       </c>
@@ -14059,8 +14447,11 @@
       <c r="AI90" s="32">
         <v>379</v>
       </c>
-    </row>
-    <row r="91" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ90" s="32">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="91" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>224</v>
       </c>
@@ -14166,8 +14557,11 @@
       <c r="AI91" s="32">
         <v>448</v>
       </c>
-    </row>
-    <row r="92" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ91" s="32">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="92" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>314</v>
       </c>
@@ -14273,8 +14667,11 @@
       <c r="AI92" s="32">
         <v>284</v>
       </c>
-    </row>
-    <row r="93" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ92" s="32">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="93" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>124</v>
       </c>
@@ -14380,8 +14777,11 @@
       <c r="AI93" s="32">
         <v>461</v>
       </c>
-    </row>
-    <row r="94" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ93" s="32">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="94" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>92</v>
       </c>
@@ -14487,8 +14887,11 @@
       <c r="AI94" s="32">
         <v>388</v>
       </c>
-    </row>
-    <row r="95" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ94" s="32">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="95" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>228</v>
       </c>
@@ -14594,8 +14997,11 @@
       <c r="AI95" s="32">
         <v>331</v>
       </c>
-    </row>
-    <row r="96" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ95" s="32">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="96" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>272</v>
       </c>
@@ -14701,8 +15107,11 @@
       <c r="AI96" s="32">
         <v>122</v>
       </c>
-    </row>
-    <row r="97" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ96" s="32">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>266</v>
       </c>
@@ -14808,8 +15217,11 @@
       <c r="AI97" s="32">
         <v>278</v>
       </c>
-    </row>
-    <row r="98" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ97" s="32">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="98" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>130</v>
       </c>
@@ -14915,8 +15327,11 @@
       <c r="AI98" s="32">
         <v>504</v>
       </c>
-    </row>
-    <row r="99" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ98" s="32">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="99" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>234</v>
       </c>
@@ -15022,8 +15437,11 @@
       <c r="AI99" s="32">
         <v>245</v>
       </c>
-    </row>
-    <row r="100" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ99" s="32">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="100" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>306</v>
       </c>
@@ -15129,8 +15547,11 @@
       <c r="AI100" s="32">
         <v>247</v>
       </c>
-    </row>
-    <row r="101" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ100" s="32">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="101" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>112</v>
       </c>
@@ -15236,8 +15657,11 @@
       <c r="AI101" s="32">
         <v>279</v>
       </c>
-    </row>
-    <row r="102" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ101" s="32">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="102" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>96</v>
       </c>
@@ -15343,8 +15767,11 @@
       <c r="AI102" s="32">
         <v>837</v>
       </c>
-    </row>
-    <row r="103" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ102" s="32">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="103" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>104</v>
       </c>
@@ -15450,8 +15877,11 @@
       <c r="AI103" s="32">
         <v>374</v>
       </c>
-    </row>
-    <row r="104" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ103" s="32">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="104" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>36</v>
       </c>
@@ -15557,8 +15987,11 @@
       <c r="AI104" s="32">
         <v>912</v>
       </c>
-    </row>
-    <row r="105" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ104" s="32">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="105" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>52</v>
       </c>
@@ -15664,8 +16097,11 @@
       <c r="AI105" s="32">
         <v>658</v>
       </c>
-    </row>
-    <row r="106" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ105" s="32">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="106" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>64</v>
       </c>
@@ -15771,8 +16207,11 @@
       <c r="AI106" s="32">
         <v>373</v>
       </c>
-    </row>
-    <row r="107" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ106" s="32">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="107" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>46</v>
       </c>
@@ -15878,8 +16317,11 @@
       <c r="AI107" s="32">
         <v>853</v>
       </c>
-    </row>
-    <row r="108" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ107" s="32">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="108" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>42</v>
       </c>
@@ -15985,8 +16427,11 @@
       <c r="AI108" s="32">
         <v>624</v>
       </c>
-    </row>
-    <row r="109" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ108" s="32">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="109" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>84</v>
       </c>
@@ -16092,8 +16537,11 @@
       <c r="AI109" s="32">
         <v>434</v>
       </c>
-    </row>
-    <row r="110" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ109" s="32">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="110" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>72</v>
       </c>
@@ -16199,8 +16647,11 @@
       <c r="AI110" s="32">
         <v>432</v>
       </c>
-    </row>
-    <row r="111" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ110" s="32">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="111" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>78</v>
       </c>
@@ -16306,8 +16757,11 @@
       <c r="AI111" s="32">
         <v>470</v>
       </c>
-    </row>
-    <row r="112" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ111" s="32">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="112" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>94</v>
       </c>
@@ -16413,8 +16867,11 @@
       <c r="AI112" s="32">
         <v>332</v>
       </c>
-    </row>
-    <row r="113" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ112" s="32">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="113" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>80</v>
       </c>
@@ -16520,8 +16977,11 @@
       <c r="AI113" s="32">
         <v>349</v>
       </c>
-    </row>
-    <row r="114" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ113" s="32">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="114" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>40</v>
       </c>
@@ -16627,8 +17087,11 @@
       <c r="AI114" s="32">
         <v>574</v>
       </c>
-    </row>
-    <row r="115" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ114" s="32">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="115" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>134</v>
       </c>
@@ -16734,8 +17197,11 @@
       <c r="AI115" s="32">
         <v>372</v>
       </c>
-    </row>
-    <row r="116" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ115" s="32">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="116" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>86</v>
       </c>
@@ -16841,8 +17307,11 @@
       <c r="AI116" s="32">
         <v>434</v>
       </c>
-    </row>
-    <row r="117" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ116" s="32">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="117" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>88</v>
       </c>
@@ -16948,8 +17417,11 @@
       <c r="AI117" s="32">
         <v>416</v>
       </c>
-    </row>
-    <row r="118" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ117" s="32">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="118" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>66</v>
       </c>
@@ -17055,8 +17527,11 @@
       <c r="AI118" s="32">
         <v>290</v>
       </c>
-    </row>
-    <row r="119" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ118" s="32">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="119" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>38</v>
       </c>
@@ -17162,8 +17637,11 @@
       <c r="AI119" s="32">
         <v>314</v>
       </c>
-    </row>
-    <row r="120" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ119" s="32">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="120" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>136</v>
       </c>
@@ -17269,8 +17747,11 @@
       <c r="AI120" s="32">
         <v>244</v>
       </c>
-    </row>
-    <row r="121" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ120" s="32">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="121" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>30</v>
       </c>
@@ -17376,8 +17857,11 @@
       <c r="AI121" s="32">
         <v>794</v>
       </c>
-    </row>
-    <row r="122" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ121" s="32">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="122" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>56</v>
       </c>
@@ -17483,8 +17967,11 @@
       <c r="AI122" s="32">
         <v>644</v>
       </c>
-    </row>
-    <row r="123" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ122" s="32">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="123" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>60</v>
       </c>
@@ -17590,8 +18077,11 @@
       <c r="AI123" s="32">
         <v>440</v>
       </c>
-    </row>
-    <row r="124" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ123" s="32">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="124" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>76</v>
       </c>
@@ -17697,8 +18187,11 @@
       <c r="AI124" s="32">
         <v>684</v>
       </c>
-    </row>
-    <row r="125" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ124" s="32">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="125" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>110</v>
       </c>
@@ -17804,8 +18297,11 @@
       <c r="AI125" s="32">
         <v>436</v>
       </c>
-    </row>
-    <row r="126" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ125" s="32">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="126" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>158</v>
       </c>
@@ -17911,8 +18407,11 @@
       <c r="AI126" s="32">
         <v>247</v>
       </c>
-    </row>
-    <row r="127" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ126" s="32">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="127" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>28</v>
       </c>
@@ -18018,8 +18517,11 @@
       <c r="AI127" s="32">
         <v>826</v>
       </c>
-    </row>
-    <row r="128" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ127" s="32">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="128" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>140</v>
       </c>
@@ -18125,8 +18627,11 @@
       <c r="AI128" s="32">
         <v>349</v>
       </c>
-    </row>
-    <row r="129" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ128" s="32">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="129" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>74</v>
       </c>
@@ -18232,8 +18737,11 @@
       <c r="AI129" s="32">
         <v>448</v>
       </c>
-    </row>
-    <row r="130" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ129" s="32">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="130" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>120</v>
       </c>
@@ -18339,8 +18847,11 @@
       <c r="AI130" s="32">
         <v>478</v>
       </c>
-    </row>
-    <row r="131" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ130" s="32">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="131" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>34</v>
       </c>
@@ -18446,8 +18957,11 @@
       <c r="AI131" s="32">
         <v>650</v>
       </c>
-    </row>
-    <row r="132" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ131" s="32">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="132" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>32</v>
       </c>
@@ -18553,8 +19067,11 @@
       <c r="AI132" s="32">
         <v>444</v>
       </c>
-    </row>
-    <row r="133" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ132" s="32">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="133" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>58</v>
       </c>
@@ -18660,8 +19177,11 @@
       <c r="AI133" s="32">
         <v>391</v>
       </c>
-    </row>
-    <row r="134" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ133" s="32">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="134" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>132</v>
       </c>
@@ -18767,8 +19287,11 @@
       <c r="AI134" s="32">
         <v>320</v>
       </c>
-    </row>
-    <row r="135" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ134" s="32">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="135" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>62</v>
       </c>
@@ -18874,8 +19397,11 @@
       <c r="AI135" s="32">
         <v>1023</v>
       </c>
-    </row>
-    <row r="136" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ135" s="32">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="136" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>50</v>
       </c>
@@ -18981,8 +19507,11 @@
       <c r="AI136" s="32">
         <v>603</v>
       </c>
-    </row>
-    <row r="137" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ136" s="32">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="137" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>98</v>
       </c>
@@ -19088,8 +19617,11 @@
       <c r="AI137" s="32">
         <v>312</v>
       </c>
-    </row>
-    <row r="138" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ137" s="32">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="138" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>206</v>
       </c>
@@ -19195,8 +19727,11 @@
       <c r="AI138" s="32">
         <v>301</v>
       </c>
-    </row>
-    <row r="139" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ138" s="32">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="139" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>82</v>
       </c>
@@ -19302,8 +19837,11 @@
       <c r="AI139" s="32">
         <v>1232</v>
       </c>
-    </row>
-    <row r="140" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ139" s="32">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="140" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>128</v>
       </c>
@@ -19409,8 +19947,11 @@
       <c r="AI140" s="32">
         <v>496</v>
       </c>
-    </row>
-    <row r="141" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ140" s="32">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="141" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>26</v>
       </c>
@@ -19516,8 +20057,11 @@
       <c r="AI141" s="32">
         <v>1416</v>
       </c>
-    </row>
-    <row r="142" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ141" s="32">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="142" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>44</v>
       </c>
@@ -19623,8 +20167,11 @@
       <c r="AI142" s="32">
         <v>1179</v>
       </c>
-    </row>
-    <row r="143" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ142" s="32">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="143" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>100</v>
       </c>
@@ -19730,8 +20277,11 @@
       <c r="AI143" s="32">
         <v>1252</v>
       </c>
-    </row>
-    <row r="144" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ143" s="32">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="144" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>102</v>
       </c>
@@ -19837,8 +20387,11 @@
       <c r="AI144" s="32">
         <v>1226</v>
       </c>
-    </row>
-    <row r="145" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ144" s="32">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="145" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>118</v>
       </c>
@@ -19944,8 +20497,11 @@
       <c r="AI145" s="32">
         <v>449</v>
       </c>
-    </row>
-    <row r="146" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ145" s="32">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="146" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>226</v>
       </c>
@@ -20051,8 +20607,11 @@
       <c r="AI146" s="32">
         <v>392</v>
       </c>
-    </row>
-    <row r="147" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ146" s="32">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="147" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>168</v>
       </c>
@@ -20158,8 +20717,11 @@
       <c r="AI147" s="32">
         <v>486</v>
       </c>
-    </row>
-    <row r="148" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ147" s="32">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="148" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>126</v>
       </c>
@@ -20265,8 +20827,11 @@
       <c r="AI148" s="32">
         <v>626</v>
       </c>
-    </row>
-    <row r="149" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ148" s="32">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="149" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>152</v>
       </c>
@@ -20372,8 +20937,11 @@
       <c r="AI149" s="32">
         <v>390</v>
       </c>
-    </row>
-    <row r="150" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ149" s="32">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="150" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>90</v>
       </c>
@@ -20479,8 +21047,11 @@
       <c r="AI150" s="32">
         <v>566</v>
       </c>
-    </row>
-    <row r="151" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ150" s="32">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="151" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>70</v>
       </c>
@@ -20586,8 +21157,11 @@
       <c r="AI151" s="32">
         <v>653</v>
       </c>
-    </row>
-    <row r="152" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ151" s="32">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="152" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>176</v>
       </c>
@@ -20693,8 +21267,11 @@
       <c r="AI152" s="32">
         <v>168</v>
       </c>
-    </row>
-    <row r="153" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ152" s="32">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="153" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>114</v>
       </c>
@@ -20800,8 +21377,11 @@
       <c r="AI153" s="32">
         <v>760</v>
       </c>
-    </row>
-    <row r="154" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ153" s="32">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="154" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>148</v>
       </c>
@@ -20907,8 +21487,11 @@
       <c r="AI154" s="32">
         <v>360</v>
       </c>
-    </row>
-    <row r="155" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ154" s="32">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="155" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>48</v>
       </c>
@@ -21014,8 +21597,11 @@
       <c r="AI155" s="32">
         <v>1238</v>
       </c>
-    </row>
-    <row r="156" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ155" s="32">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="156" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>172</v>
       </c>
@@ -21121,8 +21707,11 @@
       <c r="AI156" s="32">
         <v>513</v>
       </c>
-    </row>
-    <row r="157" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ156" s="32">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="157" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>122</v>
       </c>
@@ -21228,8 +21817,11 @@
       <c r="AI157" s="32">
         <v>363</v>
       </c>
-    </row>
-    <row r="158" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ157" s="32">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="158" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>200</v>
       </c>
@@ -21335,8 +21927,11 @@
       <c r="AI158" s="32">
         <v>508</v>
       </c>
-    </row>
-    <row r="159" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ158" s="32">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>0</v>
       </c>
@@ -21442,8 +22037,11 @@
       <c r="AI159" s="4">
         <v>58817</v>
       </c>
-    </row>
-    <row r="160" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ159" s="4">
+        <v>62658</v>
+      </c>
+    </row>
+    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AB160" s="21"/>
     </row>
   </sheetData>
